--- a/src/main/resources/InputData.xlsx
+++ b/src/main/resources/InputData.xlsx
@@ -729,7 +729,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4139" uniqueCount="2128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4098" uniqueCount="2128">
   <si>
     <t>F Name</t>
   </si>
@@ -7187,16 +7187,16 @@
     <t>12/04/1993</t>
   </si>
   <si>
-    <t>Tim</t>
-  </si>
-  <si>
-    <t>Sodhi</t>
-  </si>
-  <si>
-    <t>21/10/1959</t>
-  </si>
-  <si>
-    <t>tsodhi4@fake.com</t>
+    <t>15071511630605kjohn1@fake.com</t>
+  </si>
+  <si>
+    <t>15071511630605John</t>
+  </si>
+  <si>
+    <t>15071511630605Kim</t>
+  </si>
+  <si>
+    <t>Bachelor of Business</t>
   </si>
 </sst>
 </file>
@@ -8097,7 +8097,7 @@
   <dimension ref="A1:AY6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8274,34 +8274,30 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:51" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="53" t="s">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="B2" s="56" t="s">
-        <v>2124</v>
+        <v>2126</v>
       </c>
       <c r="C2" s="56" t="s">
         <v>2125</v>
       </c>
-      <c r="D2" s="60" t="s">
-        <v>1735</v>
-      </c>
-      <c r="E2" s="60" t="s">
-        <v>1736</v>
-      </c>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
       <c r="F2" s="60"/>
       <c r="G2" s="57" t="s">
-        <v>2126</v>
+        <v>2120</v>
       </c>
       <c r="H2" s="54">
-        <v>1234562</v>
+        <v>12246148</v>
       </c>
       <c r="I2" s="55" t="s">
-        <v>2127</v>
+        <v>2124</v>
       </c>
       <c r="J2" s="55" t="s">
-        <v>2127</v>
+        <v>2124</v>
       </c>
       <c r="K2" s="53" t="s">
         <v>7</v>
@@ -8313,44 +8309,40 @@
         <v>42</v>
       </c>
       <c r="N2" s="54" t="s">
-        <v>2107</v>
+        <v>2127</v>
       </c>
       <c r="O2" s="62" t="s">
-        <v>1745</v>
+        <v>1740</v>
       </c>
       <c r="P2" s="59" t="s">
-        <v>1746</v>
+        <v>1764</v>
       </c>
       <c r="Q2" s="58" t="s">
-        <v>1746</v>
+        <v>1825</v>
       </c>
       <c r="R2" s="59" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="S2" s="54" t="s">
-        <v>1808</v>
+        <v>1812</v>
       </c>
       <c r="T2" s="54" t="s">
-        <v>1819</v>
-      </c>
-      <c r="U2" s="54" t="s">
-        <v>1821</v>
-      </c>
+        <v>1818</v>
+      </c>
+      <c r="U2" s="54"/>
       <c r="V2" s="54" t="s">
-        <v>1791</v>
+        <v>1792</v>
       </c>
       <c r="W2" s="54" t="s">
-        <v>1802</v>
-      </c>
-      <c r="X2" s="54" t="s">
-        <v>1801</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="X2" s="54"/>
       <c r="Y2" s="54"/>
       <c r="Z2" s="54">
-        <v>87854528</v>
+        <v>87854522</v>
       </c>
       <c r="AA2" s="54">
-        <v>221234569</v>
+        <v>221234567</v>
       </c>
       <c r="AB2" s="54" t="s">
         <v>51</v>
@@ -8365,54 +8357,56 @@
         <v>52</v>
       </c>
       <c r="AF2" s="54" t="s">
-        <v>1844</v>
+        <v>33</v>
       </c>
       <c r="AG2" s="54">
-        <v>7122</v>
+        <v>6104</v>
       </c>
       <c r="AH2" s="54" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI2" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ2" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="AI2" s="54"/>
-      <c r="AJ2" s="61"/>
       <c r="AK2" s="54" t="s">
-        <v>882</v>
+        <v>73</v>
       </c>
       <c r="AL2" s="54">
         <v>2010</v>
       </c>
       <c r="AM2" s="54" t="s">
-        <v>1858</v>
+        <v>761</v>
       </c>
       <c r="AN2" s="54" t="s">
         <v>60</v>
       </c>
       <c r="AO2" s="54">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="AP2" s="54" t="s">
-        <v>1740</v>
+        <v>32</v>
       </c>
       <c r="AQ2" s="54" t="s">
-        <v>614</v>
-      </c>
-      <c r="AR2" s="54" t="s">
-        <v>1833</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="AR2" s="53"/>
       <c r="AS2" s="54" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="AT2" s="54" t="s">
-        <v>1840</v>
+        <v>30</v>
       </c>
       <c r="AU2" s="54">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="AV2" s="54">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="AW2" s="54" t="s">
-        <v>1843</v>
+        <v>61</v>
       </c>
       <c r="AX2" s="54" t="s">
         <v>64</v>
@@ -8421,151 +8415,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:51" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="53" t="s">
-        <v>1868</v>
-      </c>
-      <c r="B3" s="56" t="s">
-        <v>2117</v>
-      </c>
-      <c r="C3" s="56" t="s">
-        <v>2118</v>
-      </c>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="57" t="s">
-        <v>2120</v>
-      </c>
-      <c r="H3" s="54">
-        <v>12246148</v>
-      </c>
-      <c r="I3" s="55" t="s">
-        <v>2119</v>
-      </c>
-      <c r="J3" s="55" t="s">
-        <v>2119</v>
-      </c>
-      <c r="K3" s="53" t="s">
-        <v>7</v>
-      </c>
-      <c r="L3" s="53" t="s">
-        <v>7</v>
-      </c>
-      <c r="M3" s="53" t="s">
-        <v>42</v>
-      </c>
-      <c r="N3" s="54" t="s">
-        <v>2107</v>
-      </c>
-      <c r="O3" s="62" t="s">
-        <v>1740</v>
-      </c>
-      <c r="P3" s="59" t="s">
-        <v>1764</v>
-      </c>
-      <c r="Q3" s="58" t="s">
-        <v>1825</v>
-      </c>
-      <c r="R3" s="59" t="s">
-        <v>60</v>
-      </c>
-      <c r="S3" s="54" t="s">
-        <v>1812</v>
-      </c>
-      <c r="T3" s="54" t="s">
-        <v>1818</v>
-      </c>
-      <c r="U3" s="54"/>
-      <c r="V3" s="54" t="s">
-        <v>1796</v>
-      </c>
-      <c r="W3" s="54" t="s">
-        <v>1803</v>
-      </c>
-      <c r="X3" s="54" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y3" s="54" t="s">
-        <v>1800</v>
-      </c>
-      <c r="Z3" s="54">
-        <v>87854546</v>
-      </c>
-      <c r="AA3" s="54">
-        <v>221234575</v>
-      </c>
-      <c r="AB3" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC3" s="54" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD3" s="54" t="s">
-        <v>53</v>
-      </c>
-      <c r="AE3" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="AF3" s="54" t="s">
-        <v>1826</v>
-      </c>
-      <c r="AG3" s="54">
-        <v>1234</v>
-      </c>
-      <c r="AH3" s="54" t="s">
-        <v>60</v>
-      </c>
-      <c r="AI3" s="54" t="s">
-        <v>72</v>
-      </c>
-      <c r="AJ3" s="61" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK3" s="54" t="s">
-        <v>910</v>
-      </c>
-      <c r="AL3" s="54">
-        <v>2010</v>
-      </c>
-      <c r="AM3" s="54" t="s">
-        <v>1860</v>
-      </c>
-      <c r="AN3" s="54" t="s">
-        <v>60</v>
-      </c>
-      <c r="AO3" s="54">
-        <v>1980</v>
-      </c>
-      <c r="AP3" s="54" t="s">
-        <v>32</v>
-      </c>
-      <c r="AQ3" s="54" t="s">
-        <v>594</v>
-      </c>
-      <c r="AR3" s="53"/>
-      <c r="AS3" s="54" t="s">
-        <v>1838</v>
-      </c>
-      <c r="AT3" s="54" t="s">
-        <v>30</v>
-      </c>
-      <c r="AU3" s="54">
-        <v>2001</v>
-      </c>
-      <c r="AV3" s="54">
-        <v>2014</v>
-      </c>
-      <c r="AW3" s="54" t="s">
-        <v>61</v>
-      </c>
-      <c r="AX3" s="54" t="s">
-        <v>64</v>
-      </c>
-      <c r="AY3" s="54" t="s">
-        <v>64</v>
-      </c>
-    </row>
+    <row r="3" spans="1:51" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:51" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="1:51" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="1:51" customFormat="1" x14ac:dyDescent="0.35"/>
@@ -8573,12 +8423,10 @@
   <hyperlinks>
     <hyperlink ref="I2" r:id="rId1"/>
     <hyperlink ref="J2" r:id="rId2"/>
-    <hyperlink ref="I3" r:id="rId3"/>
-    <hyperlink ref="J3" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
-  <legacyDrawing r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>
 

--- a/src/main/resources/InputData.xlsx
+++ b/src/main/resources/InputData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22935" windowHeight="5835" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19365" windowHeight="4710"/>
   </bookViews>
   <sheets>
     <sheet name="AdmissionsOnline" sheetId="1" r:id="rId1"/>
@@ -733,7 +733,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4098" uniqueCount="2125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4134" uniqueCount="2126">
   <si>
     <t>F Name</t>
   </si>
@@ -7128,15 +7128,6 @@
     <t>tsodhi27@fake.com</t>
   </si>
   <si>
-    <t>Jane50</t>
-  </si>
-  <si>
-    <t>Mickey50</t>
-  </si>
-  <si>
-    <t>jmickey150@fake.com</t>
-  </si>
-  <si>
     <t>textbox_input</t>
   </si>
   <si>
@@ -7192,6 +7183,19 @@
   </si>
   <si>
     <t>Bachelor of Business</t>
+  </si>
+  <si>
+    <t>jmickey@fake.com</t>
+  </si>
+  <si>
+    <t>150840459971819JOHN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">150840459971819KIM
+</t>
+  </si>
+  <si>
+    <t>150840459971819kjohn1@fake.com</t>
   </si>
 </sst>
 </file>
@@ -7762,13 +7766,13 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AY2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" customWidth="1"/>
     <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="7.5703125" customWidth="1"/>
     <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
@@ -7940,13 +7944,13 @@
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1914</v>
+        <v>1863</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>2103</v>
+        <v>2108</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>2104</v>
+        <v>2109</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>1735</v>
@@ -7961,11 +7965,11 @@
       <c r="H2" s="2">
         <v>1239566</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>2105</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>2105</v>
+      <c r="I2" s="55" t="s">
+        <v>2122</v>
+      </c>
+      <c r="J2" s="55" t="s">
+        <v>2122</v>
       </c>
       <c r="K2" t="s">
         <v>7</v>
@@ -8077,8 +8081,8 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1"/>
-    <hyperlink ref="J2" r:id="rId2"/>
+    <hyperlink ref="J2" r:id="rId1"/>
+    <hyperlink ref="I2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -8091,8 +8095,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AY2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8274,7 +8278,7 @@
         <v>1867</v>
       </c>
       <c r="B2" s="56" t="s">
-        <v>2108</v>
+        <v>2105</v>
       </c>
       <c r="C2" s="56" t="s">
         <v>1736</v>
@@ -8283,16 +8287,16 @@
       <c r="E2" s="60"/>
       <c r="F2" s="60"/>
       <c r="G2" s="57" t="s">
-        <v>2120</v>
+        <v>2117</v>
       </c>
       <c r="H2" s="54">
         <v>12246148</v>
       </c>
       <c r="I2" s="55" t="s">
-        <v>2109</v>
+        <v>2106</v>
       </c>
       <c r="J2" s="55" t="s">
-        <v>2109</v>
+        <v>2106</v>
       </c>
       <c r="K2" s="53" t="s">
         <v>7</v>
@@ -8304,7 +8308,7 @@
         <v>42</v>
       </c>
       <c r="N2" s="54" t="s">
-        <v>2124</v>
+        <v>2121</v>
       </c>
       <c r="O2" s="62" t="s">
         <v>1740</v>
@@ -8427,7 +8431,7 @@
   <dimension ref="A1:AY7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD9"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9423,10 +9427,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AY61"/>
+  <dimension ref="A1:AY62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9484,149 +9488,149 @@
       <c r="U1" s="46"/>
       <c r="V1" s="46"/>
     </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1868</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="2" spans="1:51" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="53" t="s">
+        <v>1862</v>
+      </c>
+      <c r="B2" s="56" t="s">
+        <v>2124</v>
+      </c>
+      <c r="C2" s="56" t="s">
+        <v>2123</v>
+      </c>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="57" t="s">
         <v>2117</v>
       </c>
-      <c r="C3" t="s">
-        <v>2118</v>
-      </c>
-      <c r="G3" s="52" t="s">
-        <v>2120</v>
-      </c>
-      <c r="H3">
+      <c r="H2" s="54">
         <v>12246148</v>
       </c>
-      <c r="I3" t="s">
-        <v>2119</v>
-      </c>
-      <c r="J3" t="s">
-        <v>2119</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="I2" s="55" t="s">
+        <v>2125</v>
+      </c>
+      <c r="J2" s="55" t="s">
+        <v>2125</v>
+      </c>
+      <c r="K2" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L2" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M2" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="N3" t="s">
-        <v>2107</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="N2" s="54" t="s">
+        <v>2121</v>
+      </c>
+      <c r="O2" s="62" t="s">
         <v>1740</v>
       </c>
-      <c r="P3" t="s">
+      <c r="P2" s="59" t="s">
         <v>1764</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="Q2" s="58" t="s">
         <v>1825</v>
       </c>
-      <c r="R3" t="s">
+      <c r="R2" s="59" t="s">
         <v>60</v>
       </c>
-      <c r="S3" t="s">
+      <c r="S2" s="54" t="s">
         <v>1812</v>
       </c>
-      <c r="T3" t="s">
+      <c r="T2" s="54" t="s">
         <v>1818</v>
       </c>
-      <c r="V3" t="s">
-        <v>1796</v>
-      </c>
-      <c r="W3" t="s">
-        <v>1803</v>
-      </c>
-      <c r="X3" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>1800</v>
-      </c>
-      <c r="Z3">
-        <v>87854546</v>
-      </c>
-      <c r="AA3">
-        <v>221234575</v>
-      </c>
-      <c r="AB3" t="s">
+      <c r="U2" s="54"/>
+      <c r="V2" s="54" t="s">
+        <v>1792</v>
+      </c>
+      <c r="W2" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="X2" s="54"/>
+      <c r="Y2" s="54"/>
+      <c r="Z2" s="54">
+        <v>87854522</v>
+      </c>
+      <c r="AA2" s="54">
+        <v>221234567</v>
+      </c>
+      <c r="AB2" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AC2" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AD2" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AE2" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="AF3" t="s">
-        <v>1826</v>
-      </c>
-      <c r="AG3">
-        <v>1234</v>
-      </c>
-      <c r="AH3" t="s">
+      <c r="AF2" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG2" s="54">
+        <v>6104</v>
+      </c>
+      <c r="AH2" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="AI3" t="s">
+      <c r="AI2" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="AJ3" t="s">
+      <c r="AJ2" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="AK3" t="s">
-        <v>910</v>
-      </c>
-      <c r="AL3">
+      <c r="AK2" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL2" s="54">
         <v>2010</v>
       </c>
-      <c r="AM3" t="s">
-        <v>1860</v>
-      </c>
-      <c r="AN3" t="s">
+      <c r="AM2" s="54" t="s">
+        <v>761</v>
+      </c>
+      <c r="AN2" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="AO3">
-        <v>1980</v>
-      </c>
-      <c r="AP3" t="s">
+      <c r="AO2" s="54">
+        <v>2011</v>
+      </c>
+      <c r="AP2" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="AQ3" t="s">
-        <v>594</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>1838</v>
-      </c>
-      <c r="AT3" t="s">
+      <c r="AQ2" s="54" t="s">
+        <v>66</v>
+      </c>
+      <c r="AS2" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="AT2" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="AU3">
-        <v>2001</v>
-      </c>
-      <c r="AV3">
+      <c r="AU2" s="54">
+        <v>2010</v>
+      </c>
+      <c r="AV2" s="54">
         <v>2014</v>
       </c>
-      <c r="AW3" t="s">
+      <c r="AW2" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="AX3" t="s">
+      <c r="AX2" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="AY3" t="s">
+      <c r="AY2" s="54" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="B4" t="s">
         <v>2114</v>
@@ -9634,14 +9638,11 @@
       <c r="C4" t="s">
         <v>2115</v>
       </c>
-      <c r="D4" t="s">
-        <v>1735</v>
-      </c>
       <c r="G4" s="52" t="s">
-        <v>2123</v>
+        <v>2117</v>
       </c>
       <c r="H4">
-        <v>1234563</v>
+        <v>12246148</v>
       </c>
       <c r="I4" t="s">
         <v>2116</v>
@@ -9659,40 +9660,43 @@
         <v>42</v>
       </c>
       <c r="N4" t="s">
-        <v>2107</v>
+        <v>2104</v>
       </c>
       <c r="O4" t="s">
-        <v>1759</v>
+        <v>1740</v>
       </c>
       <c r="P4" t="s">
-        <v>1823</v>
+        <v>1764</v>
       </c>
       <c r="Q4" t="s">
-        <v>41</v>
+        <v>1825</v>
       </c>
       <c r="R4" t="s">
         <v>60</v>
       </c>
       <c r="S4" t="s">
-        <v>40</v>
+        <v>1812</v>
+      </c>
+      <c r="T4" t="s">
+        <v>1818</v>
       </c>
       <c r="V4" t="s">
-        <v>1792</v>
+        <v>1796</v>
       </c>
       <c r="W4" t="s">
-        <v>36</v>
+        <v>1803</v>
       </c>
       <c r="X4" t="s">
-        <v>1805</v>
+        <v>35</v>
       </c>
       <c r="Y4" t="s">
-        <v>34</v>
+        <v>1800</v>
       </c>
       <c r="Z4">
-        <v>87854531</v>
+        <v>87854546</v>
       </c>
       <c r="AA4">
-        <v>221234570</v>
+        <v>221234575</v>
       </c>
       <c r="AB4" t="s">
         <v>51</v>
@@ -9707,60 +9711,87 @@
         <v>52</v>
       </c>
       <c r="AF4" t="s">
-        <v>33</v>
+        <v>1826</v>
       </c>
       <c r="AG4">
-        <v>6304</v>
+        <v>1234</v>
       </c>
       <c r="AH4" t="s">
         <v>60</v>
       </c>
       <c r="AI4" t="s">
-        <v>1827</v>
+        <v>72</v>
       </c>
       <c r="AJ4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="AK4" t="s">
-        <v>854</v>
+        <v>910</v>
       </c>
       <c r="AL4">
         <v>2010</v>
       </c>
       <c r="AM4" t="s">
-        <v>1828</v>
+        <v>1860</v>
       </c>
       <c r="AN4" t="s">
-        <v>64</v>
+        <v>60</v>
+      </c>
+      <c r="AO4">
+        <v>1980</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>594</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>1838</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AU4">
+        <v>2001</v>
+      </c>
+      <c r="AV4">
+        <v>2014</v>
       </c>
       <c r="AW4" t="s">
         <v>61</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1867</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>2108</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>1736</v>
-      </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="6" t="s">
+      <c r="B5" t="s">
+        <v>2111</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2112</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1735</v>
+      </c>
+      <c r="G5" s="52" t="s">
         <v>2120</v>
       </c>
-      <c r="H5" s="2">
-        <v>12246148</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>2109</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>2109</v>
+      <c r="H5">
+        <v>1234563</v>
+      </c>
+      <c r="I5" t="s">
+        <v>2113</v>
+      </c>
+      <c r="J5" t="s">
+        <v>2113</v>
       </c>
       <c r="K5" t="s">
         <v>7</v>
@@ -9771,142 +9802,109 @@
       <c r="M5" t="s">
         <v>42</v>
       </c>
-      <c r="N5" s="2" t="s">
-        <v>2107</v>
-      </c>
-      <c r="O5" s="37" t="s">
-        <v>1740</v>
-      </c>
-      <c r="P5" s="9" t="s">
-        <v>1764</v>
-      </c>
-      <c r="Q5" s="8" t="s">
-        <v>1825</v>
-      </c>
-      <c r="R5" s="9" t="s">
+      <c r="N5" t="s">
+        <v>2104</v>
+      </c>
+      <c r="O5" t="s">
+        <v>1759</v>
+      </c>
+      <c r="P5" t="s">
+        <v>1823</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>41</v>
+      </c>
+      <c r="R5" t="s">
         <v>60</v>
       </c>
-      <c r="S5" s="2" t="s">
-        <v>1812</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>1818</v>
-      </c>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2" t="s">
+      <c r="S5" t="s">
+        <v>40</v>
+      </c>
+      <c r="V5" t="s">
         <v>1792</v>
       </c>
-      <c r="W5" s="2" t="s">
+      <c r="W5" t="s">
         <v>36</v>
       </c>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2">
-        <v>87854522</v>
-      </c>
-      <c r="AA5" s="2">
-        <v>221234567</v>
-      </c>
-      <c r="AB5" s="2" t="s">
+      <c r="X5" t="s">
+        <v>1805</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z5">
+        <v>87854531</v>
+      </c>
+      <c r="AA5">
+        <v>221234570</v>
+      </c>
+      <c r="AB5" t="s">
         <v>51</v>
       </c>
-      <c r="AC5" s="2" t="s">
+      <c r="AC5" t="s">
         <v>54</v>
       </c>
-      <c r="AD5" s="2" t="s">
+      <c r="AD5" t="s">
         <v>53</v>
       </c>
-      <c r="AE5" s="2" t="s">
+      <c r="AE5" t="s">
         <v>52</v>
       </c>
-      <c r="AF5" s="2" t="s">
+      <c r="AF5" t="s">
         <v>33</v>
       </c>
-      <c r="AG5" s="2">
-        <v>6104</v>
-      </c>
-      <c r="AH5" s="2" t="s">
+      <c r="AG5">
+        <v>6304</v>
+      </c>
+      <c r="AH5" t="s">
         <v>60</v>
       </c>
-      <c r="AI5" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AJ5" s="11" t="s">
+      <c r="AI5" t="s">
+        <v>1827</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>854</v>
+      </c>
+      <c r="AL5">
+        <v>2010</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>1828</v>
+      </c>
+      <c r="AN5" t="s">
         <v>64</v>
       </c>
-      <c r="AK5" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AL5" s="2">
-        <v>2010</v>
-      </c>
-      <c r="AM5" s="2" t="s">
-        <v>761</v>
-      </c>
-      <c r="AN5" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AO5" s="2">
-        <v>2011</v>
-      </c>
-      <c r="AP5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AQ5" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AS5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AT5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AU5" s="2">
-        <v>2010</v>
-      </c>
-      <c r="AV5" s="2">
-        <v>2014</v>
-      </c>
-      <c r="AW5" s="2" t="s">
+      <c r="AW5" t="s">
         <v>61</v>
-      </c>
-      <c r="AX5" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AY5" s="2" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1867</v>
       </c>
-      <c r="B6" t="s">
-        <v>1847</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1848</v>
-      </c>
-      <c r="D6" t="s">
-        <v>1735</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="B6" s="5" t="s">
+        <v>2105</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>1736</v>
       </c>
-      <c r="F6" t="s">
-        <v>1846</v>
-      </c>
-      <c r="G6" s="52" t="s">
-        <v>2121</v>
-      </c>
-      <c r="H6">
-        <v>1234560</v>
-      </c>
-      <c r="I6" t="s">
-        <v>2110</v>
-      </c>
-      <c r="J6" t="s">
-        <v>2110</v>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="6" t="s">
+        <v>2117</v>
+      </c>
+      <c r="H6" s="2">
+        <v>12246148</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>2106</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>2106</v>
       </c>
       <c r="K6" t="s">
         <v>7</v>
@@ -9917,106 +9915,109 @@
       <c r="M6" t="s">
         <v>42</v>
       </c>
-      <c r="N6" t="s">
-        <v>2107</v>
-      </c>
-      <c r="O6" t="s">
-        <v>1747</v>
-      </c>
-      <c r="P6" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>41</v>
-      </c>
-      <c r="R6" t="s">
+      <c r="N6" s="2" t="s">
+        <v>2104</v>
+      </c>
+      <c r="O6" s="37" t="s">
+        <v>1740</v>
+      </c>
+      <c r="P6" s="9" t="s">
+        <v>1764</v>
+      </c>
+      <c r="Q6" s="8" t="s">
+        <v>1825</v>
+      </c>
+      <c r="R6" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>1812</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>1818</v>
+      </c>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2" t="s">
+        <v>1792</v>
+      </c>
+      <c r="W6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2">
+        <v>87854522</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>221234567</v>
+      </c>
+      <c r="AB6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG6" s="2">
+        <v>6104</v>
+      </c>
+      <c r="AH6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ6" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="S6" t="s">
-        <v>1813</v>
-      </c>
-      <c r="T6" t="s">
-        <v>39</v>
-      </c>
-      <c r="U6" t="s">
-        <v>1814</v>
-      </c>
-      <c r="V6" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z6">
-        <v>87854522</v>
-      </c>
-      <c r="AA6">
-        <v>221234567</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>53</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>52</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>33</v>
-      </c>
-      <c r="AG6">
-        <v>6104</v>
-      </c>
-      <c r="AH6" t="s">
+      <c r="AK6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL6" s="2">
+        <v>2010</v>
+      </c>
+      <c r="AM6" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="AN6" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="AI6" t="s">
-        <v>72</v>
-      </c>
-      <c r="AJ6" t="s">
+      <c r="AO6" s="2">
+        <v>2011</v>
+      </c>
+      <c r="AP6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AQ6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AS6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AT6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AU6" s="2">
+        <v>2010</v>
+      </c>
+      <c r="AV6" s="2">
+        <v>2014</v>
+      </c>
+      <c r="AW6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AX6" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AK6" t="s">
-        <v>73</v>
-      </c>
-      <c r="AL6">
-        <v>2010</v>
-      </c>
-      <c r="AM6" t="s">
-        <v>761</v>
-      </c>
-      <c r="AN6" t="s">
-        <v>60</v>
-      </c>
-      <c r="AO6">
-        <v>2011</v>
-      </c>
-      <c r="AP6" t="s">
-        <v>32</v>
-      </c>
-      <c r="AQ6" t="s">
-        <v>66</v>
-      </c>
-      <c r="AS6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AT6" t="s">
-        <v>30</v>
-      </c>
-      <c r="AU6">
-        <v>2010</v>
-      </c>
-      <c r="AV6">
-        <v>2014</v>
-      </c>
-      <c r="AW6" t="s">
-        <v>61</v>
-      </c>
-      <c r="AX6" t="s">
-        <v>64</v>
-      </c>
-      <c r="AY6" t="s">
+      <c r="AY6" s="2" t="s">
         <v>64</v>
       </c>
     </row>
@@ -10025,25 +10026,31 @@
         <v>1867</v>
       </c>
       <c r="B7" t="s">
-        <v>2111</v>
+        <v>1847</v>
       </c>
       <c r="C7" t="s">
-        <v>2112</v>
+        <v>1848</v>
       </c>
       <c r="D7" t="s">
         <v>1735</v>
       </c>
+      <c r="E7" t="s">
+        <v>1736</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1846</v>
+      </c>
       <c r="G7" s="52" t="s">
-        <v>2122</v>
+        <v>2118</v>
       </c>
       <c r="H7">
-        <v>1234561</v>
+        <v>1234560</v>
       </c>
       <c r="I7" t="s">
-        <v>2113</v>
+        <v>2107</v>
       </c>
       <c r="J7" t="s">
-        <v>2113</v>
+        <v>2107</v>
       </c>
       <c r="K7" t="s">
         <v>7</v>
@@ -10055,43 +10062,37 @@
         <v>42</v>
       </c>
       <c r="N7" t="s">
-        <v>2107</v>
+        <v>2104</v>
       </c>
       <c r="O7" t="s">
-        <v>43</v>
+        <v>1747</v>
       </c>
       <c r="P7" t="s">
-        <v>1822</v>
+        <v>41</v>
       </c>
       <c r="Q7" t="s">
         <v>41</v>
       </c>
       <c r="R7" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="S7" t="s">
-        <v>1807</v>
+        <v>1813</v>
       </c>
       <c r="T7" t="s">
-        <v>1820</v>
+        <v>39</v>
+      </c>
+      <c r="U7" t="s">
+        <v>1814</v>
       </c>
       <c r="V7" t="s">
-        <v>1790</v>
-      </c>
-      <c r="W7" t="s">
-        <v>1797</v>
-      </c>
-      <c r="X7" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="Z7">
-        <v>87854525</v>
+        <v>87854522</v>
       </c>
       <c r="AA7">
-        <v>221234568</v>
+        <v>221234567</v>
       </c>
       <c r="AB7" t="s">
         <v>51</v>
@@ -10109,206 +10110,203 @@
         <v>33</v>
       </c>
       <c r="AG7">
-        <v>6205</v>
+        <v>6104</v>
       </c>
       <c r="AH7" t="s">
         <v>60</v>
       </c>
       <c r="AI7" t="s">
-        <v>1827</v>
+        <v>72</v>
       </c>
       <c r="AJ7" t="s">
         <v>64</v>
       </c>
       <c r="AK7" t="s">
-        <v>888</v>
+        <v>73</v>
       </c>
       <c r="AL7">
         <v>2010</v>
       </c>
       <c r="AM7" t="s">
-        <v>1829</v>
+        <v>761</v>
       </c>
       <c r="AN7" t="s">
         <v>60</v>
       </c>
       <c r="AO7">
+        <v>2011</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>32</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>66</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>30</v>
+      </c>
+      <c r="AU7">
         <v>2010</v>
       </c>
-      <c r="AP7" t="s">
-        <v>616</v>
-      </c>
-      <c r="AQ7" t="s">
-        <v>616</v>
-      </c>
-      <c r="AR7" t="s">
-        <v>1832</v>
-      </c>
-      <c r="AS7" t="s">
-        <v>1834</v>
-      </c>
-      <c r="AT7" t="s">
-        <v>1839</v>
-      </c>
-      <c r="AU7">
-        <v>2011</v>
-      </c>
       <c r="AV7">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="AW7" t="s">
-        <v>1843</v>
+        <v>61</v>
       </c>
       <c r="AX7" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="AY7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>1914</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>2094</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>2091</v>
-      </c>
-      <c r="D9" s="10" t="s">
+    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2108</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2109</v>
+      </c>
+      <c r="D8" t="s">
         <v>1735</v>
       </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="38">
-        <v>28622</v>
-      </c>
-      <c r="H9" s="2">
-        <v>1230567</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>2095</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>2095</v>
-      </c>
-      <c r="K9" t="s">
+      <c r="G8" s="52" t="s">
+        <v>2119</v>
+      </c>
+      <c r="H8">
+        <v>1234561</v>
+      </c>
+      <c r="I8" t="s">
+        <v>2110</v>
+      </c>
+      <c r="J8" t="s">
+        <v>2110</v>
+      </c>
+      <c r="K8" t="s">
         <v>7</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L8" t="s">
         <v>7</v>
       </c>
-      <c r="M9" t="s">
-        <v>1782</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>1788</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>1763</v>
-      </c>
-      <c r="P9" s="9" t="s">
-        <v>1763</v>
-      </c>
-      <c r="Q9" s="8" t="s">
+      <c r="M8" t="s">
+        <v>42</v>
+      </c>
+      <c r="N8" t="s">
+        <v>2104</v>
+      </c>
+      <c r="O8" t="s">
+        <v>43</v>
+      </c>
+      <c r="P8" t="s">
+        <v>1822</v>
+      </c>
+      <c r="Q8" t="s">
         <v>41</v>
       </c>
-      <c r="R9" s="9" t="s">
+      <c r="R8" t="s">
         <v>60</v>
       </c>
-      <c r="S9" s="2" t="s">
-        <v>1742</v>
-      </c>
-      <c r="T9" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="U9" s="2" t="s">
-        <v>1817</v>
-      </c>
-      <c r="V9" s="2" t="s">
+      <c r="S8" t="s">
+        <v>1807</v>
+      </c>
+      <c r="T8" t="s">
+        <v>1820</v>
+      </c>
+      <c r="V8" t="s">
+        <v>1790</v>
+      </c>
+      <c r="W8" t="s">
+        <v>1797</v>
+      </c>
+      <c r="X8" t="s">
         <v>35</v>
       </c>
-      <c r="W9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="X9" s="2" t="s">
-        <v>1799</v>
-      </c>
-      <c r="Y9" s="2" t="s">
+      <c r="Y8" t="s">
         <v>34</v>
       </c>
-      <c r="Z9" s="2">
-        <v>87854543</v>
-      </c>
-      <c r="AA9" s="2">
-        <v>221234574</v>
-      </c>
-      <c r="AB9" s="2" t="s">
+      <c r="Z8">
+        <v>87854525</v>
+      </c>
+      <c r="AA8">
+        <v>221234568</v>
+      </c>
+      <c r="AB8" t="s">
         <v>51</v>
       </c>
-      <c r="AC9" s="2" t="s">
+      <c r="AC8" t="s">
         <v>54</v>
       </c>
-      <c r="AD9" s="2" t="s">
+      <c r="AD8" t="s">
         <v>53</v>
       </c>
-      <c r="AE9" s="2" t="s">
+      <c r="AE8" t="s">
         <v>52</v>
       </c>
-      <c r="AF9" s="2" t="s">
+      <c r="AF8" t="s">
         <v>33</v>
       </c>
-      <c r="AG9" s="2">
-        <v>6104</v>
-      </c>
-      <c r="AH9" s="2" t="s">
+      <c r="AG8">
+        <v>6205</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>1827</v>
+      </c>
+      <c r="AJ8" t="s">
         <v>64</v>
       </c>
-      <c r="AI9" s="2"/>
-      <c r="AJ9" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK9" s="2" t="s">
-        <v>904</v>
-      </c>
-      <c r="AL9" s="2">
+      <c r="AK8" t="s">
+        <v>888</v>
+      </c>
+      <c r="AL8">
         <v>2010</v>
       </c>
-      <c r="AM9" s="2" t="s">
-        <v>1859</v>
-      </c>
-      <c r="AN9" s="2" t="s">
+      <c r="AM8" t="s">
+        <v>1829</v>
+      </c>
+      <c r="AN8" t="s">
         <v>60</v>
       </c>
-      <c r="AO9" s="2">
-        <v>1995</v>
-      </c>
-      <c r="AP9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AQ9" s="2" t="s">
-        <v>610</v>
-      </c>
-      <c r="AS9" s="2" t="s">
-        <v>1837</v>
-      </c>
-      <c r="AT9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AU9" s="2">
-        <v>1999</v>
-      </c>
-      <c r="AV9" s="2">
-        <v>2006</v>
-      </c>
-      <c r="AW9" s="2" t="s">
+      <c r="AO8">
+        <v>2010</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>616</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>616</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>1832</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>1834</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>1839</v>
+      </c>
+      <c r="AU8">
+        <v>2011</v>
+      </c>
+      <c r="AV8">
+        <v>2013</v>
+      </c>
+      <c r="AW8" t="s">
         <v>1843</v>
       </c>
-      <c r="AX9" s="2" t="s">
+      <c r="AX8" t="s">
         <v>60</v>
       </c>
-      <c r="AY9" s="2" t="s">
+      <c r="AY8" t="s">
         <v>64</v>
       </c>
     </row>
@@ -10317,29 +10315,27 @@
         <v>1914</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>2093</v>
+        <v>2094</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>1735</v>
       </c>
-      <c r="E10" s="10" t="s">
-        <v>1736</v>
-      </c>
+      <c r="E10" s="10"/>
       <c r="F10" s="10"/>
       <c r="G10" s="38">
-        <v>28916</v>
+        <v>28622</v>
       </c>
       <c r="H10" s="2">
-        <v>1234518</v>
+        <v>1230567</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="K10" t="s">
         <v>7</v>
@@ -10348,47 +10344,49 @@
         <v>7</v>
       </c>
       <c r="M10" t="s">
-        <v>42</v>
+        <v>1782</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>1783</v>
-      </c>
-      <c r="O10" s="37" t="s">
-        <v>1740</v>
+        <v>1788</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>1763</v>
       </c>
       <c r="P10" s="9" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="Q10" s="8" t="s">
-        <v>1825</v>
+        <v>41</v>
       </c>
       <c r="R10" s="9" t="s">
         <v>60</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>1812</v>
+        <v>1742</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>1818</v>
-      </c>
-      <c r="U10" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="U10" s="2" t="s">
+        <v>1817</v>
+      </c>
       <c r="V10" s="2" t="s">
-        <v>1796</v>
+        <v>35</v>
       </c>
       <c r="W10" s="2" t="s">
-        <v>1803</v>
+        <v>36</v>
       </c>
       <c r="X10" s="2" t="s">
-        <v>35</v>
+        <v>1799</v>
       </c>
       <c r="Y10" s="2" t="s">
-        <v>1800</v>
+        <v>34</v>
       </c>
       <c r="Z10" s="2">
-        <v>87854546</v>
+        <v>87854543</v>
       </c>
       <c r="AA10" s="2">
-        <v>221234575</v>
+        <v>221234574</v>
       </c>
       <c r="AB10" s="2" t="s">
         <v>51</v>
@@ -10403,177 +10401,207 @@
         <v>52</v>
       </c>
       <c r="AF10" s="2" t="s">
-        <v>1826</v>
+        <v>33</v>
       </c>
       <c r="AG10" s="2">
-        <v>1234</v>
+        <v>6104</v>
       </c>
       <c r="AH10" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AI10" s="2" t="s">
-        <v>72</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="AI10" s="2"/>
       <c r="AJ10" s="11" t="s">
         <v>64</v>
       </c>
       <c r="AK10" s="2" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
       <c r="AL10" s="2">
         <v>2010</v>
       </c>
       <c r="AM10" s="2" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="AN10" s="2" t="s">
         <v>60</v>
       </c>
       <c r="AO10" s="2">
-        <v>1980</v>
+        <v>1995</v>
       </c>
       <c r="AP10" s="2" t="s">
         <v>32</v>
       </c>
       <c r="AQ10" s="2" t="s">
-        <v>594</v>
+        <v>610</v>
       </c>
       <c r="AS10" s="2" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="AT10" s="2" t="s">
         <v>30</v>
       </c>
       <c r="AU10" s="2">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="AV10" s="2">
-        <v>2014</v>
+        <v>2006</v>
       </c>
       <c r="AW10" s="2" t="s">
-        <v>61</v>
+        <v>1843</v>
       </c>
       <c r="AX10" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="AY10" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>1868</v>
-      </c>
-      <c r="B12" s="39" t="s">
-        <v>1929</v>
-      </c>
-      <c r="C12" s="39" t="s">
-        <v>1930</v>
-      </c>
-      <c r="D12" s="39" t="s">
-        <v>1931</v>
-      </c>
-      <c r="E12" s="39" t="s">
-        <v>1915</v>
-      </c>
-      <c r="F12" s="39" t="s">
-        <v>1915</v>
-      </c>
-      <c r="G12" s="40">
-        <v>35249</v>
-      </c>
-      <c r="H12" s="39">
-        <v>1260026</v>
-      </c>
-      <c r="I12" s="41" t="s">
-        <v>1920</v>
-      </c>
-      <c r="J12" s="41" t="s">
-        <v>1920</v>
-      </c>
-      <c r="K12" t="s">
+    <row r="11" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1914</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>2093</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>2092</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>1735</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>1736</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="G11" s="38">
+        <v>28916</v>
+      </c>
+      <c r="H11" s="2">
+        <v>1234518</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>2096</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>2096</v>
+      </c>
+      <c r="K11" t="s">
         <v>7</v>
       </c>
-      <c r="L12" t="s">
+      <c r="L11" t="s">
         <v>7</v>
       </c>
-      <c r="M12" s="39" t="s">
+      <c r="M11" t="s">
         <v>42</v>
       </c>
-      <c r="N12" s="39" t="s">
-        <v>2098</v>
-      </c>
-      <c r="O12" s="39" t="s">
-        <v>1916</v>
-      </c>
-      <c r="P12" s="39" t="s">
-        <v>1831</v>
-      </c>
-      <c r="Q12" s="39" t="s">
-        <v>1917</v>
-      </c>
-      <c r="R12" s="39" t="s">
+      <c r="N11" s="2" t="s">
+        <v>1783</v>
+      </c>
+      <c r="O11" s="37" t="s">
+        <v>1740</v>
+      </c>
+      <c r="P11" s="9" t="s">
+        <v>1764</v>
+      </c>
+      <c r="Q11" s="8" t="s">
+        <v>1825</v>
+      </c>
+      <c r="R11" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="S12" s="39" t="s">
-        <v>1918</v>
-      </c>
-      <c r="T12" s="39" t="s">
-        <v>1915</v>
-      </c>
-      <c r="U12" s="39" t="s">
-        <v>1915</v>
-      </c>
-      <c r="V12" s="39" t="s">
-        <v>1915</v>
-      </c>
-      <c r="W12" s="39" t="s">
-        <v>1915</v>
-      </c>
-      <c r="X12" s="39" t="s">
-        <v>1915</v>
-      </c>
-      <c r="Y12" s="39" t="s">
-        <v>1915</v>
-      </c>
-      <c r="Z12" s="39" t="s">
-        <v>1921</v>
-      </c>
-      <c r="AA12" s="39">
-        <v>220906003</v>
-      </c>
-      <c r="AB12" s="39" t="s">
-        <v>1922</v>
-      </c>
-      <c r="AC12" s="39" t="s">
-        <v>1915</v>
-      </c>
-      <c r="AD12" s="39" t="s">
-        <v>1915</v>
-      </c>
-      <c r="AF12" s="39" t="s">
-        <v>1919</v>
-      </c>
-      <c r="AG12" s="39">
-        <v>3216</v>
-      </c>
-      <c r="AH12" s="39" t="s">
+      <c r="S11" s="2" t="s">
+        <v>1812</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>1818</v>
+      </c>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2" t="s">
+        <v>1796</v>
+      </c>
+      <c r="W11" s="2" t="s">
+        <v>1803</v>
+      </c>
+      <c r="X11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y11" s="2" t="s">
+        <v>1800</v>
+      </c>
+      <c r="Z11" s="2">
+        <v>87854546</v>
+      </c>
+      <c r="AA11" s="2">
+        <v>221234575</v>
+      </c>
+      <c r="AB11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF11" s="2" t="s">
+        <v>1826</v>
+      </c>
+      <c r="AG11" s="2">
+        <v>1234</v>
+      </c>
+      <c r="AH11" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ11" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="AK12" s="39" t="s">
-        <v>871</v>
-      </c>
-      <c r="AL12" s="39">
+      <c r="AK11" s="2" t="s">
+        <v>910</v>
+      </c>
+      <c r="AL11" s="2">
+        <v>2010</v>
+      </c>
+      <c r="AM11" s="2" t="s">
+        <v>1860</v>
+      </c>
+      <c r="AN11" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO11" s="2">
+        <v>1980</v>
+      </c>
+      <c r="AP11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AQ11" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="AS11" s="2" t="s">
+        <v>1838</v>
+      </c>
+      <c r="AT11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AU11" s="2">
+        <v>2001</v>
+      </c>
+      <c r="AV11" s="2">
         <v>2014</v>
       </c>
-      <c r="AM12" s="39" t="s">
-        <v>1829</v>
-      </c>
-      <c r="AN12" t="s">
+      <c r="AW11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AX11" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AW12" t="s">
-        <v>61</v>
+      <c r="AY11" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:51" x14ac:dyDescent="0.25">
@@ -10581,31 +10609,31 @@
         <v>1868</v>
       </c>
       <c r="B13" s="39" t="s">
-        <v>1932</v>
+        <v>1929</v>
       </c>
       <c r="C13" s="39" t="s">
-        <v>1933</v>
+        <v>1930</v>
       </c>
       <c r="D13" s="39" t="s">
-        <v>1934</v>
+        <v>1931</v>
       </c>
       <c r="E13" s="39" t="s">
-        <v>1935</v>
+        <v>1915</v>
       </c>
       <c r="F13" s="39" t="s">
         <v>1915</v>
       </c>
       <c r="G13" s="40">
-        <v>36201</v>
+        <v>35249</v>
       </c>
       <c r="H13" s="39">
-        <v>1312627</v>
+        <v>1260026</v>
       </c>
       <c r="I13" s="41" t="s">
-        <v>1923</v>
-      </c>
-      <c r="J13" s="39" t="s">
-        <v>1923</v>
+        <v>1920</v>
+      </c>
+      <c r="J13" s="41" t="s">
+        <v>1920</v>
       </c>
       <c r="K13" t="s">
         <v>7</v>
@@ -10617,13 +10645,13 @@
         <v>42</v>
       </c>
       <c r="N13" s="39" t="s">
-        <v>2097</v>
+        <v>2098</v>
       </c>
       <c r="O13" s="39" t="s">
-        <v>1747</v>
+        <v>1916</v>
       </c>
       <c r="P13" s="39" t="s">
-        <v>41</v>
+        <v>1831</v>
       </c>
       <c r="Q13" s="39" t="s">
         <v>1917</v>
@@ -10632,7 +10660,7 @@
         <v>60</v>
       </c>
       <c r="S13" s="39" t="s">
-        <v>40</v>
+        <v>1918</v>
       </c>
       <c r="T13" s="39" t="s">
         <v>1915</v>
@@ -10641,7 +10669,7 @@
         <v>1915</v>
       </c>
       <c r="V13" s="39" t="s">
-        <v>1924</v>
+        <v>1915</v>
       </c>
       <c r="W13" s="39" t="s">
         <v>1915</v>
@@ -10653,13 +10681,13 @@
         <v>1915</v>
       </c>
       <c r="Z13" s="39" t="s">
-        <v>1925</v>
+        <v>1921</v>
       </c>
       <c r="AA13" s="39">
-        <v>273276131</v>
+        <v>220906003</v>
       </c>
       <c r="AB13" s="39" t="s">
-        <v>1926</v>
+        <v>1922</v>
       </c>
       <c r="AC13" s="39" t="s">
         <v>1915</v>
@@ -10668,19 +10696,19 @@
         <v>1915</v>
       </c>
       <c r="AF13" s="39" t="s">
-        <v>1927</v>
+        <v>1919</v>
       </c>
       <c r="AG13" s="39">
-        <v>3320</v>
+        <v>3216</v>
       </c>
       <c r="AH13" s="39" t="s">
         <v>64</v>
       </c>
       <c r="AK13" s="39" t="s">
-        <v>824</v>
+        <v>871</v>
       </c>
       <c r="AL13" s="39">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="AM13" s="39" t="s">
         <v>1829</v>
@@ -10689,37 +10717,39 @@
         <v>64</v>
       </c>
       <c r="AW13" t="s">
-        <v>1843</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1867</v>
-      </c>
-      <c r="B14" s="51" t="s">
-        <v>2099</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>2100</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>1735</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>1736</v>
-      </c>
-      <c r="F14" s="10"/>
-      <c r="G14" s="6" t="s">
-        <v>2101</v>
-      </c>
-      <c r="H14" s="2">
-        <v>1234560</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>2102</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>2102</v>
+        <v>1868</v>
+      </c>
+      <c r="B14" s="39" t="s">
+        <v>1932</v>
+      </c>
+      <c r="C14" s="39" t="s">
+        <v>1933</v>
+      </c>
+      <c r="D14" s="39" t="s">
+        <v>1934</v>
+      </c>
+      <c r="E14" s="39" t="s">
+        <v>1935</v>
+      </c>
+      <c r="F14" s="39" t="s">
+        <v>1915</v>
+      </c>
+      <c r="G14" s="40">
+        <v>36201</v>
+      </c>
+      <c r="H14" s="39">
+        <v>1312627</v>
+      </c>
+      <c r="I14" s="41" t="s">
+        <v>1923</v>
+      </c>
+      <c r="J14" s="39" t="s">
+        <v>1923</v>
       </c>
       <c r="K14" t="s">
         <v>7</v>
@@ -10727,447 +10757,418 @@
       <c r="L14" t="s">
         <v>7</v>
       </c>
-      <c r="M14" t="s">
+      <c r="M14" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="N14" s="2" t="s">
+      <c r="N14" s="39" t="s">
+        <v>2097</v>
+      </c>
+      <c r="O14" s="39" t="s">
+        <v>1747</v>
+      </c>
+      <c r="P14" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q14" s="39" t="s">
+        <v>1917</v>
+      </c>
+      <c r="R14" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="S14" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="T14" s="39" t="s">
+        <v>1915</v>
+      </c>
+      <c r="U14" s="39" t="s">
+        <v>1915</v>
+      </c>
+      <c r="V14" s="39" t="s">
+        <v>1924</v>
+      </c>
+      <c r="W14" s="39" t="s">
+        <v>1915</v>
+      </c>
+      <c r="X14" s="39" t="s">
+        <v>1915</v>
+      </c>
+      <c r="Y14" s="39" t="s">
+        <v>1915</v>
+      </c>
+      <c r="Z14" s="39" t="s">
+        <v>1925</v>
+      </c>
+      <c r="AA14" s="39">
+        <v>273276131</v>
+      </c>
+      <c r="AB14" s="39" t="s">
+        <v>1926</v>
+      </c>
+      <c r="AC14" s="39" t="s">
+        <v>1915</v>
+      </c>
+      <c r="AD14" s="39" t="s">
+        <v>1915</v>
+      </c>
+      <c r="AF14" s="39" t="s">
+        <v>1927</v>
+      </c>
+      <c r="AG14" s="39">
+        <v>3320</v>
+      </c>
+      <c r="AH14" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK14" s="39" t="s">
+        <v>824</v>
+      </c>
+      <c r="AL14" s="39">
+        <v>2016</v>
+      </c>
+      <c r="AM14" s="39" t="s">
+        <v>1829</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>64</v>
+      </c>
+      <c r="AW14" t="s">
+        <v>1843</v>
+      </c>
+    </row>
+    <row r="15" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B15" s="51" t="s">
+        <v>2099</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>2100</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>1735</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>1736</v>
+      </c>
+      <c r="F15" s="10"/>
+      <c r="G15" s="6" t="s">
+        <v>2101</v>
+      </c>
+      <c r="H15" s="2">
+        <v>1234560</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>2102</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>2102</v>
+      </c>
+      <c r="K15" t="s">
+        <v>7</v>
+      </c>
+      <c r="L15" t="s">
+        <v>7</v>
+      </c>
+      <c r="M15" t="s">
+        <v>42</v>
+      </c>
+      <c r="N15" s="2" t="s">
         <v>1912</v>
       </c>
-      <c r="O14" s="2" t="s">
+      <c r="O15" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="P14" s="9" t="s">
+      <c r="P15" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="Q14" s="8" t="s">
+      <c r="Q15" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="R14" s="9" t="s">
+      <c r="R15" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="S14" s="2" t="s">
+      <c r="S15" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="T14" s="2" t="s">
+      <c r="T15" s="2" t="s">
         <v>1819</v>
       </c>
-      <c r="U14" s="2"/>
-      <c r="V14" s="2" t="s">
+      <c r="U15" s="2"/>
+      <c r="V15" s="2" t="s">
         <v>1792</v>
       </c>
-      <c r="W14" s="2" t="s">
+      <c r="W15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="X14" s="2"/>
-      <c r="Y14" s="2"/>
-      <c r="Z14" s="2">
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="2">
         <v>87854522</v>
       </c>
-      <c r="AA14" s="2">
+      <c r="AA15" s="2">
         <v>221234567</v>
       </c>
-      <c r="AB14" s="2" t="s">
+      <c r="AB15" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AC14" s="2" t="s">
+      <c r="AC15" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="AD14" s="2" t="s">
+      <c r="AD15" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AE14" s="2" t="s">
+      <c r="AE15" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="AF14" s="2" t="s">
+      <c r="AF15" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AG14" s="2">
+      <c r="AG15" s="2">
         <v>6104</v>
       </c>
-      <c r="AH14" s="2" t="s">
+      <c r="AH15" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="AI14" s="2" t="s">
+      <c r="AI15" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="AJ14" s="11" t="s">
+      <c r="AJ15" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="AK14" s="2" t="s">
+      <c r="AK15" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="AL14" s="2">
+      <c r="AL15" s="2">
         <v>2010</v>
       </c>
-      <c r="AM14" s="2" t="s">
+      <c r="AM15" s="2" t="s">
         <v>761</v>
       </c>
-      <c r="AN14" s="2" t="s">
+      <c r="AN15" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="AO14" s="2">
+      <c r="AO15" s="2">
         <v>2011</v>
       </c>
-      <c r="AP14" s="2" t="s">
+      <c r="AP15" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AQ14" s="2" t="s">
+      <c r="AQ15" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="AS14" s="2" t="s">
+      <c r="AS15" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AT14" s="2" t="s">
+      <c r="AT15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AU14" s="2">
+      <c r="AU15" s="2">
         <v>2010</v>
       </c>
-      <c r="AV14" s="2">
+      <c r="AV15" s="2">
         <v>2014</v>
       </c>
-      <c r="AW14" s="2" t="s">
+      <c r="AW15" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AX14" s="2" t="s">
+      <c r="AX15" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AY14" s="2" t="s">
+      <c r="AY15" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="9"/>
-      <c r="S18" s="2"/>
-      <c r="T18" s="2"/>
-      <c r="U18" s="2"/>
-      <c r="V18" s="2"/>
-      <c r="W18" s="2"/>
-      <c r="X18" s="2"/>
-      <c r="Y18" s="2"/>
-      <c r="Z18" s="2"/>
-      <c r="AA18" s="2"/>
-      <c r="AB18" s="2"/>
-      <c r="AC18" s="2"/>
-      <c r="AD18" s="2"/>
-      <c r="AE18" s="2"/>
-      <c r="AF18" s="2"/>
-      <c r="AG18" s="2"/>
-      <c r="AH18" s="2"/>
-      <c r="AI18" s="2"/>
-      <c r="AJ18" s="11"/>
-      <c r="AK18" s="2"/>
-      <c r="AL18" s="2"/>
-      <c r="AM18" s="2"/>
-      <c r="AN18" s="2"/>
-      <c r="AO18" s="2"/>
-      <c r="AP18" s="2"/>
-      <c r="AQ18" s="2"/>
-      <c r="AS18" s="2"/>
-      <c r="AT18" s="2"/>
-      <c r="AU18" s="2"/>
-      <c r="AV18" s="2"/>
-      <c r="AW18" s="2"/>
-      <c r="AX18" s="2"/>
-      <c r="AY18" s="2"/>
-    </row>
-    <row r="20" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="19" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2"/>
+      <c r="AA19" s="2"/>
+      <c r="AB19" s="2"/>
+      <c r="AC19" s="2"/>
+      <c r="AD19" s="2"/>
+      <c r="AE19" s="2"/>
+      <c r="AF19" s="2"/>
+      <c r="AG19" s="2"/>
+      <c r="AH19" s="2"/>
+      <c r="AI19" s="2"/>
+      <c r="AJ19" s="11"/>
+      <c r="AK19" s="2"/>
+      <c r="AL19" s="2"/>
+      <c r="AM19" s="2"/>
+      <c r="AN19" s="2"/>
+      <c r="AO19" s="2"/>
+      <c r="AP19" s="2"/>
+      <c r="AQ19" s="2"/>
+      <c r="AS19" s="2"/>
+      <c r="AT19" s="2"/>
+      <c r="AU19" s="2"/>
+      <c r="AV19" s="2"/>
+      <c r="AW19" s="2"/>
+      <c r="AX19" s="2"/>
+      <c r="AY19" s="2"/>
+    </row>
+    <row r="21" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>1914</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B21" s="5" t="s">
         <v>1936</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C21" s="5" t="s">
         <v>1937</v>
       </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="38">
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="38">
         <v>30235</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H21" s="2">
         <v>2232920471</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="I21" s="3" t="s">
         <v>1938</v>
       </c>
-      <c r="J20" s="3" t="s">
+      <c r="J21" s="3" t="s">
         <v>1938</v>
       </c>
-      <c r="K20" t="s">
+      <c r="K21" t="s">
         <v>7</v>
       </c>
-      <c r="L20" t="s">
+      <c r="L21" t="s">
         <v>7</v>
       </c>
-      <c r="M20" t="s">
+      <c r="M21" t="s">
         <v>42</v>
       </c>
-      <c r="N20" s="2" t="s">
+      <c r="N21" s="2" t="s">
         <v>1912</v>
       </c>
-      <c r="O20" s="2" t="s">
+      <c r="O21" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="P20" s="9" t="s">
+      <c r="P21" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="Q20" s="8" t="s">
+      <c r="Q21" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="R20" s="9" t="s">
+      <c r="R21" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="S20" s="2" t="s">
+      <c r="S21" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="T20" s="2" t="s">
+      <c r="T21" s="2" t="s">
         <v>1819</v>
       </c>
-      <c r="U20" s="2"/>
-      <c r="V20" s="2" t="s">
+      <c r="U21" s="2"/>
+      <c r="V21" s="2" t="s">
         <v>1792</v>
       </c>
-      <c r="W20" s="2" t="s">
+      <c r="W21" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="X20" s="2"/>
-      <c r="Y20" s="2"/>
-      <c r="Z20" s="2">
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="2">
         <v>87854522</v>
       </c>
-      <c r="AA20" s="2">
+      <c r="AA21" s="2">
         <v>221234567</v>
       </c>
-      <c r="AB20" s="2" t="s">
+      <c r="AB21" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AC20" s="2" t="s">
+      <c r="AC21" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="AD20" s="2" t="s">
+      <c r="AD21" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AE20" s="2" t="s">
+      <c r="AE21" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="AF20" s="2" t="s">
+      <c r="AF21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AG20" s="2">
+      <c r="AG21" s="2">
         <v>6104</v>
       </c>
-      <c r="AH20" s="2" t="s">
+      <c r="AH21" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="AI20" s="2" t="s">
+      <c r="AI21" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="AJ20" s="11" t="s">
+      <c r="AJ21" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="AK20" s="2" t="s">
+      <c r="AK21" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="AL20" s="2">
+      <c r="AL21" s="2">
         <v>2010</v>
       </c>
-      <c r="AM20" s="2" t="s">
+      <c r="AM21" s="2" t="s">
         <v>761</v>
       </c>
-      <c r="AN20" s="2" t="s">
+      <c r="AN21" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="AO20" s="2">
+      <c r="AO21" s="2">
         <v>2011</v>
       </c>
-      <c r="AP20" s="2" t="s">
+      <c r="AP21" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AQ20" s="2" t="s">
+      <c r="AQ21" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="AS20" s="2" t="s">
+      <c r="AS21" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AT20" s="2" t="s">
+      <c r="AT21" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AU20" s="2">
+      <c r="AU21" s="2">
         <v>2010</v>
       </c>
-      <c r="AV20" s="2">
+      <c r="AV21" s="2">
         <v>2014</v>
       </c>
-      <c r="AW20" s="2" t="s">
+      <c r="AW21" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AX20" s="2" t="s">
+      <c r="AX21" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AY20" s="2" t="s">
+      <c r="AY21" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:51" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>1847</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>1848</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>1735</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>1736</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>1846</v>
-      </c>
-      <c r="F23" s="6">
-        <v>18275</v>
-      </c>
-      <c r="G23" s="2">
-        <v>1234560</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>1849</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>1849</v>
-      </c>
-      <c r="J23" t="s">
-        <v>7</v>
-      </c>
-      <c r="K23" t="s">
-        <v>7</v>
-      </c>
-      <c r="L23" t="s">
-        <v>1771</v>
-      </c>
-      <c r="M23" s="2" t="s">
-        <v>1772</v>
-      </c>
-      <c r="N23" s="2" t="s">
-        <v>1747</v>
-      </c>
-      <c r="O23" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="P23" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q23" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="R23" s="2" t="s">
-        <v>1813</v>
-      </c>
-      <c r="S23" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="T23" s="2" t="s">
-        <v>1814</v>
-      </c>
-      <c r="U23" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="V23" s="2"/>
-      <c r="W23" s="2"/>
-      <c r="X23" s="2"/>
-      <c r="Y23" s="2">
-        <v>87854522</v>
-      </c>
-      <c r="Z23" s="2">
-        <v>221234567</v>
-      </c>
-      <c r="AA23" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB23" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC23" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AD23" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AE23" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AF23" s="2">
-        <v>6104</v>
-      </c>
-      <c r="AG23" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AH23" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AI23" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="AJ23" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AK23" s="2">
-        <v>2010</v>
-      </c>
-      <c r="AL23" s="2" t="s">
-        <v>761</v>
-      </c>
-      <c r="AM23" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AN23" s="2">
-        <v>2011</v>
-      </c>
-      <c r="AO23" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AP23" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AR23" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AS23" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AT23" s="2">
-        <v>2010</v>
-      </c>
-      <c r="AU23" s="2">
-        <v>2014</v>
-      </c>
-      <c r="AV23" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AW23" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AX23" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:51" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>1847</v>
       </c>
@@ -11177,19 +11178,23 @@
       <c r="C24" s="10" t="s">
         <v>1735</v>
       </c>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
+      <c r="D24" s="10" t="s">
+        <v>1736</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>1846</v>
+      </c>
       <c r="F24" s="6">
-        <v>18733</v>
+        <v>18275</v>
       </c>
       <c r="G24" s="2">
-        <v>1234561</v>
+        <v>1234560</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="J24" t="s">
         <v>7</v>
@@ -11198,47 +11203,43 @@
         <v>7</v>
       </c>
       <c r="L24" t="s">
-        <v>1773</v>
+        <v>1771</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>1786</v>
+        <v>1772</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>43</v>
+        <v>1747</v>
       </c>
       <c r="O24" s="9" t="s">
-        <v>1822</v>
+        <v>41</v>
       </c>
       <c r="P24" s="8" t="s">
         <v>41</v>
       </c>
       <c r="Q24" s="9" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>1807</v>
+        <v>1813</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>1820</v>
-      </c>
-      <c r="T24" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="T24" s="2" t="s">
+        <v>1814</v>
+      </c>
       <c r="U24" s="2" t="s">
-        <v>1790</v>
-      </c>
-      <c r="V24" s="2" t="s">
-        <v>1797</v>
-      </c>
-      <c r="W24" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="X24" s="2" t="s">
-        <v>34</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+      <c r="X24" s="2"/>
       <c r="Y24" s="2">
-        <v>87854525</v>
+        <v>87854522</v>
       </c>
       <c r="Z24" s="2">
-        <v>221234568</v>
+        <v>221234567</v>
       </c>
       <c r="AA24" s="2" t="s">
         <v>51</v>
@@ -11256,58 +11257,55 @@
         <v>33</v>
       </c>
       <c r="AF24" s="2">
-        <v>6205</v>
+        <v>6104</v>
       </c>
       <c r="AG24" s="2" t="s">
         <v>60</v>
       </c>
       <c r="AH24" s="2" t="s">
-        <v>1827</v>
+        <v>72</v>
       </c>
       <c r="AI24" s="11" t="s">
         <v>64</v>
       </c>
       <c r="AJ24" s="2" t="s">
-        <v>888</v>
+        <v>73</v>
       </c>
       <c r="AK24" s="2">
         <v>2010</v>
       </c>
       <c r="AL24" s="2" t="s">
-        <v>1829</v>
+        <v>761</v>
       </c>
       <c r="AM24" s="2" t="s">
         <v>60</v>
       </c>
       <c r="AN24" s="2">
+        <v>2011</v>
+      </c>
+      <c r="AO24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP24" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AR24" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AT24" s="2">
         <v>2010</v>
       </c>
-      <c r="AO24" s="2" t="s">
-        <v>616</v>
-      </c>
-      <c r="AP24" s="2" t="s">
-        <v>616</v>
-      </c>
-      <c r="AQ24" s="2" t="s">
-        <v>1832</v>
-      </c>
-      <c r="AR24" s="2" t="s">
-        <v>1834</v>
-      </c>
-      <c r="AS24" s="2" t="s">
-        <v>1839</v>
-      </c>
-      <c r="AT24" s="2">
-        <v>2011</v>
-      </c>
       <c r="AU24" s="2">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="AV24" s="2" t="s">
-        <v>1843</v>
+        <v>61</v>
       </c>
       <c r="AW24" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="AX24" s="2" t="s">
         <v>64</v>
@@ -11323,21 +11321,19 @@
       <c r="C25" s="10" t="s">
         <v>1735</v>
       </c>
-      <c r="D25" s="10" t="s">
-        <v>1736</v>
-      </c>
+      <c r="D25" s="10"/>
       <c r="E25" s="10"/>
       <c r="F25" s="6">
-        <v>21844</v>
+        <v>18733</v>
       </c>
       <c r="G25" s="2">
-        <v>1234562</v>
+        <v>1234561</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>1857</v>
+        <v>1850</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>1857</v>
+        <v>1850</v>
       </c>
       <c r="J25" t="s">
         <v>7</v>
@@ -11346,47 +11342,47 @@
         <v>7</v>
       </c>
       <c r="L25" t="s">
-        <v>1775</v>
+        <v>1773</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>1774</v>
-      </c>
-      <c r="N25" s="37" t="s">
-        <v>1745</v>
+        <v>1786</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="O25" s="9" t="s">
-        <v>1746</v>
+        <v>1822</v>
       </c>
       <c r="P25" s="8" t="s">
-        <v>1746</v>
+        <v>41</v>
       </c>
       <c r="Q25" s="9" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>1819</v>
-      </c>
-      <c r="T25" s="2" t="s">
-        <v>1821</v>
-      </c>
+        <v>1820</v>
+      </c>
+      <c r="T25" s="2"/>
       <c r="U25" s="2" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="V25" s="2" t="s">
-        <v>1802</v>
+        <v>1797</v>
       </c>
       <c r="W25" s="2" t="s">
-        <v>1801</v>
-      </c>
-      <c r="X25" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="X25" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="Y25" s="2">
-        <v>87854528</v>
+        <v>87854525</v>
       </c>
       <c r="Z25" s="2">
-        <v>221234569</v>
+        <v>221234568</v>
       </c>
       <c r="AA25" s="2" t="s">
         <v>51</v>
@@ -11401,57 +11397,61 @@
         <v>52</v>
       </c>
       <c r="AE25" s="2" t="s">
-        <v>1844</v>
+        <v>33</v>
       </c>
       <c r="AF25" s="2">
-        <v>7122</v>
+        <v>6205</v>
       </c>
       <c r="AG25" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH25" s="2" t="s">
+        <v>1827</v>
+      </c>
+      <c r="AI25" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="AH25" s="2"/>
-      <c r="AI25" s="11"/>
       <c r="AJ25" s="2" t="s">
-        <v>882</v>
+        <v>888</v>
       </c>
       <c r="AK25" s="2">
         <v>2010</v>
       </c>
       <c r="AL25" s="2" t="s">
-        <v>1858</v>
+        <v>1829</v>
       </c>
       <c r="AM25" s="2" t="s">
         <v>60</v>
       </c>
       <c r="AN25" s="2">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="AO25" s="2" t="s">
-        <v>1740</v>
+        <v>616</v>
       </c>
       <c r="AP25" s="2" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="AQ25" s="2" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="AR25" s="2" t="s">
-        <v>31</v>
+        <v>1834</v>
       </c>
       <c r="AS25" s="2" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="AT25" s="2">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="AU25" s="2">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="AV25" s="2" t="s">
         <v>1843</v>
       </c>
       <c r="AW25" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="AX25" s="2" t="s">
         <v>64</v>
@@ -11467,19 +11467,21 @@
       <c r="C26" s="10" t="s">
         <v>1735</v>
       </c>
-      <c r="D26" s="10"/>
+      <c r="D26" s="10" t="s">
+        <v>1736</v>
+      </c>
       <c r="E26" s="10"/>
       <c r="F26" s="6">
-        <v>19461</v>
+        <v>21844</v>
       </c>
       <c r="G26" s="2">
-        <v>1234563</v>
+        <v>1234562</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>1851</v>
+        <v>1857</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>1851</v>
+        <v>1857</v>
       </c>
       <c r="J26" t="s">
         <v>7</v>
@@ -11488,45 +11490,47 @@
         <v>7</v>
       </c>
       <c r="L26" t="s">
-        <v>1769</v>
+        <v>1775</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>1787</v>
-      </c>
-      <c r="N26" s="2" t="s">
-        <v>1759</v>
+        <v>1774</v>
+      </c>
+      <c r="N26" s="37" t="s">
+        <v>1745</v>
       </c>
       <c r="O26" s="9" t="s">
-        <v>1823</v>
+        <v>1746</v>
       </c>
       <c r="P26" s="8" t="s">
-        <v>41</v>
+        <v>1746</v>
       </c>
       <c r="Q26" s="9" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="R26" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="S26" s="2"/>
-      <c r="T26" s="2"/>
+        <v>1808</v>
+      </c>
+      <c r="S26" s="2" t="s">
+        <v>1819</v>
+      </c>
+      <c r="T26" s="2" t="s">
+        <v>1821</v>
+      </c>
       <c r="U26" s="2" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="V26" s="2" t="s">
-        <v>36</v>
+        <v>1802</v>
       </c>
       <c r="W26" s="2" t="s">
-        <v>1805</v>
-      </c>
-      <c r="X26" s="2" t="s">
-        <v>34</v>
-      </c>
+        <v>1801</v>
+      </c>
+      <c r="X26" s="2"/>
       <c r="Y26" s="2">
-        <v>87854531</v>
+        <v>87854528</v>
       </c>
       <c r="Z26" s="2">
-        <v>221234570</v>
+        <v>221234569</v>
       </c>
       <c r="AA26" s="2" t="s">
         <v>51</v>
@@ -11541,44 +11545,61 @@
         <v>52</v>
       </c>
       <c r="AE26" s="2" t="s">
-        <v>33</v>
+        <v>1844</v>
       </c>
       <c r="AF26" s="2">
-        <v>6304</v>
+        <v>7122</v>
       </c>
       <c r="AG26" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AH26" s="2" t="s">
-        <v>1827</v>
-      </c>
-      <c r="AI26" s="11" t="s">
-        <v>60</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="AH26" s="2"/>
+      <c r="AI26" s="11"/>
       <c r="AJ26" s="2" t="s">
-        <v>854</v>
+        <v>882</v>
       </c>
       <c r="AK26" s="2">
         <v>2010</v>
       </c>
       <c r="AL26" s="2" t="s">
-        <v>1828</v>
+        <v>1858</v>
       </c>
       <c r="AM26" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN26" s="2">
+        <v>2012</v>
+      </c>
+      <c r="AO26" s="2" t="s">
+        <v>1740</v>
+      </c>
+      <c r="AP26" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="AQ26" s="2" t="s">
+        <v>1833</v>
+      </c>
+      <c r="AR26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AS26" s="2" t="s">
+        <v>1840</v>
+      </c>
+      <c r="AT26" s="2">
+        <v>2012</v>
+      </c>
+      <c r="AU26" s="2">
+        <v>2010</v>
+      </c>
+      <c r="AV26" s="2" t="s">
+        <v>1843</v>
+      </c>
+      <c r="AW26" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AN26" s="2"/>
-      <c r="AO26" s="2"/>
-      <c r="AP26" s="2"/>
-      <c r="AR26" s="2"/>
-      <c r="AS26" s="2"/>
-      <c r="AT26" s="2"/>
-      <c r="AU26" s="2"/>
-      <c r="AV26" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AW26" s="2"/>
-      <c r="AX26" s="2"/>
+      <c r="AX26" s="2" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="27" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
@@ -11587,20 +11608,22 @@
       <c r="B27" s="5" t="s">
         <v>1848</v>
       </c>
-      <c r="C27" s="10"/>
+      <c r="C27" s="10" t="s">
+        <v>1735</v>
+      </c>
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
       <c r="F27" s="6">
-        <v>19832</v>
+        <v>19461</v>
       </c>
       <c r="G27" s="2">
-        <v>1234564</v>
+        <v>1234563</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="J27" t="s">
         <v>7</v>
@@ -11609,49 +11632,45 @@
         <v>7</v>
       </c>
       <c r="L27" t="s">
-        <v>31</v>
+        <v>1769</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>1784</v>
-      </c>
-      <c r="N27" s="37" t="s">
-        <v>1760</v>
+        <v>1787</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>1759</v>
       </c>
       <c r="O27" s="9" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="P27" s="8" t="s">
         <v>41</v>
       </c>
       <c r="Q27" s="9" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="R27" s="2" t="s">
-        <v>1811</v>
-      </c>
-      <c r="S27" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="T27" s="2" t="s">
-        <v>38</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
       <c r="U27" s="2" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="V27" s="2" t="s">
-        <v>1798</v>
+        <v>36</v>
       </c>
       <c r="W27" s="2" t="s">
-        <v>35</v>
+        <v>1805</v>
       </c>
       <c r="X27" s="2" t="s">
-        <v>1806</v>
+        <v>34</v>
       </c>
       <c r="Y27" s="2">
-        <v>87854534</v>
+        <v>87854531</v>
       </c>
       <c r="Z27" s="2">
-        <v>221234571</v>
+        <v>221234570</v>
       </c>
       <c r="AA27" s="2" t="s">
         <v>51</v>
@@ -11669,62 +11688,41 @@
         <v>33</v>
       </c>
       <c r="AF27" s="2">
-        <v>6104</v>
+        <v>6304</v>
       </c>
       <c r="AG27" s="2" t="s">
         <v>60</v>
       </c>
       <c r="AH27" s="2" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="AI27" s="11" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="AJ27" s="2" t="s">
-        <v>827</v>
+        <v>854</v>
       </c>
       <c r="AK27" s="2">
         <v>2010</v>
       </c>
       <c r="AL27" s="2" t="s">
-        <v>1830</v>
+        <v>1828</v>
       </c>
       <c r="AM27" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AN27" s="2">
-        <v>2011</v>
-      </c>
-      <c r="AO27" s="2" t="s">
-        <v>1845</v>
-      </c>
-      <c r="AP27" s="2" t="s">
-        <v>615</v>
-      </c>
-      <c r="AQ27" s="2" t="s">
-        <v>1831</v>
-      </c>
-      <c r="AR27" s="2" t="s">
-        <v>1835</v>
-      </c>
-      <c r="AS27" s="2" t="s">
-        <v>1842</v>
-      </c>
-      <c r="AT27" s="2">
-        <v>2005</v>
-      </c>
-      <c r="AU27" s="2">
-        <v>2015</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="AN27" s="2"/>
+      <c r="AO27" s="2"/>
+      <c r="AP27" s="2"/>
+      <c r="AR27" s="2"/>
+      <c r="AS27" s="2"/>
+      <c r="AT27" s="2"/>
+      <c r="AU27" s="2"/>
       <c r="AV27" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AW27" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AX27" s="2" t="s">
-        <v>64</v>
-      </c>
+      <c r="AW27" s="2"/>
+      <c r="AX27" s="2"/>
     </row>
     <row r="28" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
@@ -11733,24 +11731,20 @@
       <c r="B28" s="5" t="s">
         <v>1848</v>
       </c>
-      <c r="C28" s="10" t="s">
-        <v>1735</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>1736</v>
-      </c>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
       <c r="E28" s="10"/>
       <c r="F28" s="6">
-        <v>20282</v>
+        <v>19832</v>
       </c>
       <c r="G28" s="2">
-        <v>1234565</v>
+        <v>1234564</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="J28" t="s">
         <v>7</v>
@@ -11759,49 +11753,49 @@
         <v>7</v>
       </c>
       <c r="L28" t="s">
-        <v>1779</v>
+        <v>31</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>1778</v>
+        <v>1784</v>
       </c>
       <c r="N28" s="37" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="O28" s="9" t="s">
-        <v>1761</v>
+        <v>1824</v>
       </c>
       <c r="P28" s="8" t="s">
         <v>41</v>
       </c>
       <c r="Q28" s="9" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="R28" s="2" t="s">
-        <v>1810</v>
+        <v>1811</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>1815</v>
+        <v>39</v>
       </c>
       <c r="T28" s="2" t="s">
-        <v>1816</v>
+        <v>38</v>
       </c>
       <c r="U28" s="2" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="V28" s="2" t="s">
-        <v>36</v>
+        <v>1798</v>
       </c>
       <c r="W28" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="X28" s="2" t="s">
-        <v>1789</v>
+        <v>1806</v>
       </c>
       <c r="Y28" s="2">
-        <v>87854537</v>
+        <v>87854534</v>
       </c>
       <c r="Z28" s="2">
-        <v>221234572</v>
+        <v>221234571</v>
       </c>
       <c r="AA28" s="2" t="s">
         <v>51</v>
@@ -11816,44 +11810,65 @@
         <v>52</v>
       </c>
       <c r="AE28" s="2" t="s">
-        <v>1785</v>
+        <v>33</v>
       </c>
       <c r="AF28" s="2">
-        <v>3211</v>
+        <v>6104</v>
       </c>
       <c r="AG28" s="2" t="s">
         <v>60</v>
       </c>
       <c r="AH28" s="2" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="AI28" s="11" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="AJ28" s="2" t="s">
-        <v>798</v>
+        <v>827</v>
       </c>
       <c r="AK28" s="2">
         <v>2010</v>
       </c>
       <c r="AL28" s="2" t="s">
-        <v>1827</v>
+        <v>1830</v>
       </c>
       <c r="AM28" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN28" s="2">
+        <v>2011</v>
+      </c>
+      <c r="AO28" s="2" t="s">
+        <v>1845</v>
+      </c>
+      <c r="AP28" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="AQ28" s="2" t="s">
+        <v>1831</v>
+      </c>
+      <c r="AR28" s="2" t="s">
+        <v>1835</v>
+      </c>
+      <c r="AS28" s="2" t="s">
+        <v>1842</v>
+      </c>
+      <c r="AT28" s="2">
+        <v>2005</v>
+      </c>
+      <c r="AU28" s="2">
+        <v>2015</v>
+      </c>
+      <c r="AV28" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AW28" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AX28" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AN28" s="2"/>
-      <c r="AO28" s="2"/>
-      <c r="AP28" s="2"/>
-      <c r="AR28" s="2"/>
-      <c r="AS28" s="2"/>
-      <c r="AT28" s="2"/>
-      <c r="AU28" s="2"/>
-      <c r="AV28" s="2" t="s">
-        <v>1843</v>
-      </c>
-      <c r="AW28" s="2"/>
-      <c r="AX28" s="2"/>
     </row>
     <row r="29" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
@@ -11865,19 +11880,21 @@
       <c r="C29" s="10" t="s">
         <v>1735</v>
       </c>
-      <c r="D29" s="10"/>
+      <c r="D29" s="10" t="s">
+        <v>1736</v>
+      </c>
       <c r="E29" s="10"/>
       <c r="F29" s="6">
-        <v>20557</v>
+        <v>20282</v>
       </c>
       <c r="G29" s="2">
-        <v>1234566</v>
+        <v>1234565</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="J29" t="s">
         <v>7</v>
@@ -11886,41 +11903,49 @@
         <v>7</v>
       </c>
       <c r="L29" t="s">
-        <v>1781</v>
+        <v>1779</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>1780</v>
-      </c>
-      <c r="N29" s="2" t="s">
-        <v>1762</v>
+        <v>1778</v>
+      </c>
+      <c r="N29" s="37" t="s">
+        <v>1761</v>
       </c>
       <c r="O29" s="9" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="P29" s="8" t="s">
         <v>41</v>
       </c>
       <c r="Q29" s="9" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="R29" s="2" t="s">
-        <v>1809</v>
-      </c>
-      <c r="S29" s="2"/>
-      <c r="T29" s="2"/>
+        <v>1810</v>
+      </c>
+      <c r="S29" s="2" t="s">
+        <v>1815</v>
+      </c>
+      <c r="T29" s="2" t="s">
+        <v>1816</v>
+      </c>
       <c r="U29" s="2" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="V29" s="2" t="s">
-        <v>1804</v>
-      </c>
-      <c r="W29" s="2"/>
-      <c r="X29" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="W29" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="X29" s="2" t="s">
+        <v>1789</v>
+      </c>
       <c r="Y29" s="2">
-        <v>87854540</v>
+        <v>87854537</v>
       </c>
       <c r="Z29" s="2">
-        <v>221234573</v>
+        <v>221234572</v>
       </c>
       <c r="AA29" s="2" t="s">
         <v>51</v>
@@ -11935,62 +11960,44 @@
         <v>52</v>
       </c>
       <c r="AE29" s="2" t="s">
-        <v>33</v>
+        <v>1785</v>
       </c>
       <c r="AF29" s="2">
-        <v>6104</v>
+        <v>3211</v>
       </c>
       <c r="AG29" s="2" t="s">
         <v>60</v>
       </c>
       <c r="AH29" s="2" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="AI29" s="11" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="AJ29" s="2" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="AK29" s="2">
         <v>2010</v>
       </c>
       <c r="AL29" s="2" t="s">
-        <v>72</v>
+        <v>1827</v>
       </c>
       <c r="AM29" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AN29" s="2">
-        <v>2006</v>
-      </c>
-      <c r="AO29" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AP29" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="AR29" s="2" t="s">
-        <v>1836</v>
-      </c>
-      <c r="AS29" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AT29" s="2">
-        <v>2002</v>
-      </c>
-      <c r="AU29" s="2">
-        <v>2005</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="AN29" s="2"/>
+      <c r="AO29" s="2"/>
+      <c r="AP29" s="2"/>
+      <c r="AR29" s="2"/>
+      <c r="AS29" s="2"/>
+      <c r="AT29" s="2"/>
+      <c r="AU29" s="2"/>
       <c r="AV29" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AW29" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AX29" s="2" t="s">
-        <v>64</v>
-      </c>
+        <v>1843</v>
+      </c>
+      <c r="AW29" s="2"/>
+      <c r="AX29" s="2"/>
     </row>
     <row r="30" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
@@ -12005,16 +12012,16 @@
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
       <c r="F30" s="6">
-        <v>20952</v>
+        <v>20557</v>
       </c>
       <c r="G30" s="2">
-        <v>1234567</v>
+        <v>1234566</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="J30" t="s">
         <v>7</v>
@@ -12023,49 +12030,41 @@
         <v>7</v>
       </c>
       <c r="L30" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>1788</v>
+        <v>1780</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="O30" s="9" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="P30" s="8" t="s">
         <v>41</v>
       </c>
       <c r="Q30" s="9" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="R30" s="2" t="s">
-        <v>1742</v>
-      </c>
-      <c r="S30" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="T30" s="2" t="s">
-        <v>1817</v>
-      </c>
+        <v>1809</v>
+      </c>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
       <c r="U30" s="2" t="s">
-        <v>35</v>
+        <v>1795</v>
       </c>
       <c r="V30" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="W30" s="2" t="s">
-        <v>1799</v>
-      </c>
-      <c r="X30" s="2" t="s">
-        <v>34</v>
-      </c>
+        <v>1804</v>
+      </c>
+      <c r="W30" s="2"/>
+      <c r="X30" s="2"/>
       <c r="Y30" s="2">
-        <v>87854543</v>
+        <v>87854540</v>
       </c>
       <c r="Z30" s="2">
-        <v>221234574</v>
+        <v>221234573</v>
       </c>
       <c r="AA30" s="2" t="s">
         <v>51</v>
@@ -12086,50 +12085,52 @@
         <v>6104</v>
       </c>
       <c r="AG30" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AH30" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="AH30" s="2" t="s">
+        <v>1830</v>
+      </c>
       <c r="AI30" s="11" t="s">
         <v>64</v>
       </c>
       <c r="AJ30" s="2" t="s">
-        <v>904</v>
+        <v>799</v>
       </c>
       <c r="AK30" s="2">
         <v>2010</v>
       </c>
       <c r="AL30" s="2" t="s">
-        <v>1859</v>
+        <v>72</v>
       </c>
       <c r="AM30" s="2" t="s">
         <v>60</v>
       </c>
       <c r="AN30" s="2">
-        <v>1995</v>
+        <v>2006</v>
       </c>
       <c r="AO30" s="2" t="s">
         <v>32</v>
       </c>
       <c r="AP30" s="2" t="s">
-        <v>610</v>
+        <v>123</v>
       </c>
       <c r="AR30" s="2" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="AS30" s="2" t="s">
         <v>30</v>
       </c>
       <c r="AT30" s="2">
-        <v>1999</v>
+        <v>2002</v>
       </c>
       <c r="AU30" s="2">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="AV30" s="2" t="s">
-        <v>1843</v>
+        <v>61</v>
       </c>
       <c r="AW30" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="AX30" s="2" t="s">
         <v>64</v>
@@ -12145,21 +12146,19 @@
       <c r="C31" s="10" t="s">
         <v>1735</v>
       </c>
-      <c r="D31" s="10" t="s">
-        <v>1736</v>
-      </c>
+      <c r="D31" s="10"/>
       <c r="E31" s="10"/>
       <c r="F31" s="6">
-        <v>21246</v>
+        <v>20952</v>
       </c>
       <c r="G31" s="2">
-        <v>1234568</v>
+        <v>1234567</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="J31" t="s">
         <v>7</v>
@@ -12168,47 +12167,49 @@
         <v>7</v>
       </c>
       <c r="L31" t="s">
-        <v>42</v>
+        <v>1782</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>1783</v>
-      </c>
-      <c r="N31" s="37" t="s">
-        <v>1740</v>
+        <v>1788</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>1763</v>
       </c>
       <c r="O31" s="9" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="P31" s="8" t="s">
-        <v>1825</v>
+        <v>41</v>
       </c>
       <c r="Q31" s="9" t="s">
         <v>60</v>
       </c>
       <c r="R31" s="2" t="s">
-        <v>1812</v>
+        <v>1742</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>1818</v>
-      </c>
-      <c r="T31" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="T31" s="2" t="s">
+        <v>1817</v>
+      </c>
       <c r="U31" s="2" t="s">
-        <v>1796</v>
+        <v>35</v>
       </c>
       <c r="V31" s="2" t="s">
-        <v>1803</v>
+        <v>36</v>
       </c>
       <c r="W31" s="2" t="s">
-        <v>35</v>
+        <v>1799</v>
       </c>
       <c r="X31" s="2" t="s">
-        <v>1800</v>
+        <v>34</v>
       </c>
       <c r="Y31" s="2">
-        <v>87854546</v>
+        <v>87854543</v>
       </c>
       <c r="Z31" s="2">
-        <v>221234575</v>
+        <v>221234574</v>
       </c>
       <c r="AA31" s="2" t="s">
         <v>51</v>
@@ -12223,262 +12224,259 @@
         <v>52</v>
       </c>
       <c r="AE31" s="2" t="s">
-        <v>1826</v>
+        <v>33</v>
       </c>
       <c r="AF31" s="2">
-        <v>1234</v>
+        <v>6104</v>
       </c>
       <c r="AG31" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AH31" s="2" t="s">
-        <v>72</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="AH31" s="2"/>
       <c r="AI31" s="11" t="s">
         <v>64</v>
       </c>
       <c r="AJ31" s="2" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
       <c r="AK31" s="2">
         <v>2010</v>
       </c>
       <c r="AL31" s="2" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="AM31" s="2" t="s">
         <v>60</v>
       </c>
       <c r="AN31" s="2">
-        <v>1980</v>
+        <v>1995</v>
       </c>
       <c r="AO31" s="2" t="s">
         <v>32</v>
       </c>
       <c r="AP31" s="2" t="s">
-        <v>594</v>
+        <v>610</v>
       </c>
       <c r="AR31" s="2" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="AS31" s="2" t="s">
         <v>30</v>
       </c>
       <c r="AT31" s="2">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="AU31" s="2">
-        <v>2014</v>
+        <v>2006</v>
       </c>
       <c r="AV31" s="2" t="s">
-        <v>61</v>
+        <v>1843</v>
       </c>
       <c r="AW31" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="AX31" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="Q34" s="8" t="s">
+    <row r="32" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>1847</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>1848</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>1735</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>1736</v>
+      </c>
+      <c r="E32" s="10"/>
+      <c r="F32" s="6">
+        <v>21246</v>
+      </c>
+      <c r="G32" s="2">
+        <v>1234568</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>1856</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>1856</v>
+      </c>
+      <c r="J32" t="s">
+        <v>7</v>
+      </c>
+      <c r="K32" t="s">
+        <v>7</v>
+      </c>
+      <c r="L32" t="s">
+        <v>42</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>1783</v>
+      </c>
+      <c r="N32" s="37" t="s">
+        <v>1740</v>
+      </c>
+      <c r="O32" s="9" t="s">
+        <v>1764</v>
+      </c>
+      <c r="P32" s="8" t="s">
+        <v>1825</v>
+      </c>
+      <c r="Q32" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="R32" s="2" t="s">
+        <v>1812</v>
+      </c>
+      <c r="S32" s="2" t="s">
+        <v>1818</v>
+      </c>
+      <c r="T32" s="2"/>
+      <c r="U32" s="2" t="s">
+        <v>1796</v>
+      </c>
+      <c r="V32" s="2" t="s">
+        <v>1803</v>
+      </c>
+      <c r="W32" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="X32" s="2" t="s">
+        <v>1800</v>
+      </c>
+      <c r="Y32" s="2">
+        <v>87854546</v>
+      </c>
+      <c r="Z32" s="2">
+        <v>221234575</v>
+      </c>
+      <c r="AA32" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB32" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC32" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD32" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE32" s="2" t="s">
+        <v>1826</v>
+      </c>
+      <c r="AF32" s="2">
+        <v>1234</v>
+      </c>
+      <c r="AG32" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH32" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI32" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ32" s="2" t="s">
+        <v>910</v>
+      </c>
+      <c r="AK32" s="2">
+        <v>2010</v>
+      </c>
+      <c r="AL32" s="2" t="s">
+        <v>1860</v>
+      </c>
+      <c r="AM32" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN32" s="2">
+        <v>1980</v>
+      </c>
+      <c r="AO32" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP32" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="AR32" s="2" t="s">
+        <v>1838</v>
+      </c>
+      <c r="AS32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AT32" s="2">
+        <v>2001</v>
+      </c>
+      <c r="AU32" s="2">
+        <v>2014</v>
+      </c>
+      <c r="AV32" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AW32" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AX32" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="Q35" s="8" t="s">
         <v>1875</v>
-      </c>
-    </row>
-    <row r="35" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="Q35" t="s">
-        <v>1869</v>
       </c>
     </row>
     <row r="36" spans="3:18" x14ac:dyDescent="0.25">
       <c r="Q36" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="37" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="Q37" t="s">
         <v>1873</v>
       </c>
-      <c r="R36" t="s">
+      <c r="R37" t="s">
         <v>1874</v>
       </c>
     </row>
-    <row r="37" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C37" t="s">
+    <row r="38" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
         <v>1769</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D38" s="2" t="s">
         <v>1770</v>
       </c>
-      <c r="Q37" t="s">
+      <c r="Q38" t="s">
         <v>1870</v>
       </c>
     </row>
-    <row r="38" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="Q38" t="s">
+    <row r="39" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="Q39" t="s">
         <v>1871</v>
       </c>
     </row>
-    <row r="39" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C39" t="s">
+    <row r="40" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
         <v>1776</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D40" s="2" t="s">
         <v>1777</v>
       </c>
-      <c r="Q39" t="s">
+      <c r="Q40" t="s">
         <v>1872</v>
       </c>
     </row>
-    <row r="47" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="E47" t="s">
+    <row r="48" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="E48" t="s">
         <v>1841</v>
-      </c>
-    </row>
-    <row r="50" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>1862</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>1865</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>1876</v>
-      </c>
-      <c r="D50" s="10" t="s">
-        <v>1735</v>
-      </c>
-      <c r="E50" s="10" t="s">
-        <v>1736</v>
-      </c>
-      <c r="F50" s="10" t="s">
-        <v>1846</v>
-      </c>
-      <c r="G50" s="6" t="s">
-        <v>1877</v>
-      </c>
-      <c r="H50" s="2">
-        <v>1234560</v>
-      </c>
-      <c r="I50" s="3" t="s">
-        <v>1878</v>
-      </c>
-      <c r="J50" s="3" t="s">
-        <v>1878</v>
-      </c>
-      <c r="K50" t="s">
-        <v>7</v>
-      </c>
-      <c r="L50" t="s">
-        <v>7</v>
-      </c>
-      <c r="M50" t="s">
-        <v>42</v>
-      </c>
-      <c r="N50" s="2" t="s">
-        <v>1879</v>
-      </c>
-      <c r="O50" s="2" t="s">
-        <v>1747</v>
-      </c>
-      <c r="P50" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q50" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="R50" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="S50" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="T50" s="2" t="s">
-        <v>1819</v>
-      </c>
-      <c r="U50" s="2"/>
-      <c r="V50" s="2" t="s">
-        <v>1792</v>
-      </c>
-      <c r="W50" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="X50" s="2"/>
-      <c r="Y50" s="2"/>
-      <c r="Z50" s="2">
-        <v>87854522</v>
-      </c>
-      <c r="AA50" s="2">
-        <v>221234567</v>
-      </c>
-      <c r="AB50" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC50" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD50" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AE50" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AF50" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AG50" s="2">
-        <v>6104</v>
-      </c>
-      <c r="AH50" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AI50" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AJ50" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK50" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AL50" s="2">
-        <v>2010</v>
-      </c>
-      <c r="AM50" s="2" t="s">
-        <v>761</v>
-      </c>
-      <c r="AN50" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AO50" s="2">
-        <v>2011</v>
-      </c>
-      <c r="AP50" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AQ50" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AS50" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AT50" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AU50" s="2">
-        <v>2010</v>
-      </c>
-      <c r="AV50" s="2">
-        <v>2014</v>
-      </c>
-      <c r="AW50" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AX50" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AY50" s="2" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>1865</v>
@@ -12496,16 +12494,16 @@
         <v>1846</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>1880</v>
+        <v>1877</v>
       </c>
       <c r="H51" s="2">
         <v>1234560</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>1881</v>
+        <v>1878</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>1881</v>
+        <v>1878</v>
       </c>
       <c r="K51" t="s">
         <v>7</v>
@@ -12514,10 +12512,10 @@
         <v>7</v>
       </c>
       <c r="M51" t="s">
-        <v>1769</v>
+        <v>42</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>1864</v>
+        <v>1879</v>
       </c>
       <c r="O51" s="2" t="s">
         <v>1747</v>
@@ -12622,153 +12620,155 @@
         <v>64</v>
       </c>
     </row>
-    <row r="55" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A55" s="7" t="s">
+    <row r="52" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>1863</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>1865</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>1876</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>1735</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>1736</v>
+      </c>
+      <c r="F52" s="10" t="s">
+        <v>1846</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>1880</v>
+      </c>
+      <c r="H52" s="2">
+        <v>1234560</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>1881</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>1881</v>
+      </c>
+      <c r="K52" t="s">
+        <v>7</v>
+      </c>
+      <c r="L52" t="s">
+        <v>7</v>
+      </c>
+      <c r="M52" t="s">
+        <v>1769</v>
+      </c>
+      <c r="N52" s="2" t="s">
+        <v>1864</v>
+      </c>
+      <c r="O52" s="2" t="s">
+        <v>1747</v>
+      </c>
+      <c r="P52" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q52" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="R52" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="S52" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="T52" s="2" t="s">
+        <v>1819</v>
+      </c>
+      <c r="U52" s="2"/>
+      <c r="V52" s="2" t="s">
+        <v>1792</v>
+      </c>
+      <c r="W52" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X52" s="2"/>
+      <c r="Y52" s="2"/>
+      <c r="Z52" s="2">
+        <v>87854522</v>
+      </c>
+      <c r="AA52" s="2">
+        <v>221234567</v>
+      </c>
+      <c r="AB52" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC52" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD52" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE52" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF52" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG52" s="2">
+        <v>6104</v>
+      </c>
+      <c r="AH52" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI52" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ52" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK52" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL52" s="2">
+        <v>2010</v>
+      </c>
+      <c r="AM52" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="AN52" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO52" s="2">
+        <v>2011</v>
+      </c>
+      <c r="AP52" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AQ52" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AS52" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AT52" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AU52" s="2">
+        <v>2010</v>
+      </c>
+      <c r="AV52" s="2">
+        <v>2014</v>
+      </c>
+      <c r="AW52" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AX52" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AY52" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="56" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A56" s="7" t="s">
         <v>1910</v>
-      </c>
-    </row>
-    <row r="56" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>1867</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>1889</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>1890</v>
-      </c>
-      <c r="D56" s="10" t="s">
-        <v>1735</v>
-      </c>
-      <c r="E56" s="10" t="s">
-        <v>1736</v>
-      </c>
-      <c r="F56" s="10"/>
-      <c r="G56" s="6" t="s">
-        <v>1885</v>
-      </c>
-      <c r="H56" s="2">
-        <v>1234560</v>
-      </c>
-      <c r="I56" s="3" t="s">
-        <v>1902</v>
-      </c>
-      <c r="J56" s="3" t="s">
-        <v>1902</v>
-      </c>
-      <c r="K56" t="s">
-        <v>7</v>
-      </c>
-      <c r="L56" t="s">
-        <v>7</v>
-      </c>
-      <c r="M56" t="s">
-        <v>42</v>
-      </c>
-      <c r="N56" s="2" t="s">
-        <v>1887</v>
-      </c>
-      <c r="O56" s="2" t="s">
-        <v>1740</v>
-      </c>
-      <c r="P56" s="9" t="s">
-        <v>1822</v>
-      </c>
-      <c r="Q56" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="R56" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="S56" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="T56" s="2" t="s">
-        <v>1819</v>
-      </c>
-      <c r="U56" s="2"/>
-      <c r="V56" s="2" t="s">
-        <v>1792</v>
-      </c>
-      <c r="W56" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="X56" s="2"/>
-      <c r="Y56" s="2"/>
-      <c r="Z56" s="2">
-        <v>87854522</v>
-      </c>
-      <c r="AA56" s="2">
-        <v>221234567</v>
-      </c>
-      <c r="AB56" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC56" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD56" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AE56" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AF56" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AG56" s="2">
-        <v>6104</v>
-      </c>
-      <c r="AH56" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AI56" s="2" t="s">
-        <v>1830</v>
-      </c>
-      <c r="AJ56" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK56" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AL56" s="2">
-        <v>2010</v>
-      </c>
-      <c r="AM56" s="2" t="s">
-        <v>761</v>
-      </c>
-      <c r="AN56" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AO56" s="2">
-        <v>2011</v>
-      </c>
-      <c r="AP56" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AQ56" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AS56" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AT56" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AU56" s="2">
-        <v>2010</v>
-      </c>
-      <c r="AV56" s="2">
-        <v>2014</v>
-      </c>
-      <c r="AW56" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AX56" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AY56" s="2" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="57" spans="1:51" x14ac:dyDescent="0.25">
@@ -12776,10 +12776,10 @@
         <v>1867</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>1891</v>
+        <v>1889</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>1892</v>
+        <v>1890</v>
       </c>
       <c r="D57" s="10" t="s">
         <v>1735</v>
@@ -12789,16 +12789,16 @@
       </c>
       <c r="F57" s="10"/>
       <c r="G57" s="6" t="s">
-        <v>1901</v>
+        <v>1885</v>
       </c>
       <c r="H57" s="2">
         <v>1234560</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="K57" t="s">
         <v>7</v>
@@ -12810,13 +12810,13 @@
         <v>42</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="O57" s="2" t="s">
         <v>1740</v>
       </c>
       <c r="P57" s="9" t="s">
-        <v>1882</v>
+        <v>1822</v>
       </c>
       <c r="Q57" s="8" t="s">
         <v>41</v>
@@ -12867,7 +12867,7 @@
         <v>60</v>
       </c>
       <c r="AI57" s="2" t="s">
-        <v>72</v>
+        <v>1830</v>
       </c>
       <c r="AJ57" s="11" t="s">
         <v>64</v>
@@ -12879,33 +12879,51 @@
         <v>2010</v>
       </c>
       <c r="AM57" s="2" t="s">
-        <v>1830</v>
+        <v>761</v>
       </c>
       <c r="AN57" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AO57" s="2"/>
-      <c r="AP57" s="2"/>
-      <c r="AQ57" s="2"/>
-      <c r="AS57" s="2"/>
-      <c r="AT57" s="2"/>
-      <c r="AU57" s="2"/>
-      <c r="AV57" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="AO57" s="2">
+        <v>2011</v>
+      </c>
+      <c r="AP57" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AQ57" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AS57" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AT57" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AU57" s="2">
+        <v>2010</v>
+      </c>
+      <c r="AV57" s="2">
+        <v>2014</v>
+      </c>
       <c r="AW57" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AX57" s="2"/>
-      <c r="AY57" s="2"/>
+      <c r="AX57" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AY57" s="2" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="58" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>1867</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>1893</v>
+        <v>1891</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>1894</v>
+        <v>1892</v>
       </c>
       <c r="D58" s="10" t="s">
         <v>1735</v>
@@ -12915,16 +12933,16 @@
       </c>
       <c r="F58" s="10"/>
       <c r="G58" s="6" t="s">
-        <v>1884</v>
+        <v>1901</v>
       </c>
       <c r="H58" s="2">
         <v>1234560</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="K58" t="s">
         <v>7</v>
@@ -12939,10 +12957,10 @@
         <v>1888</v>
       </c>
       <c r="O58" s="2" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="P58" s="9" t="s">
-        <v>41</v>
+        <v>1882</v>
       </c>
       <c r="Q58" s="8" t="s">
         <v>41</v>
@@ -13005,7 +13023,7 @@
         <v>2010</v>
       </c>
       <c r="AM58" s="2" t="s">
-        <v>761</v>
+        <v>1830</v>
       </c>
       <c r="AN58" s="2" t="s">
         <v>64</v>
@@ -13028,10 +13046,10 @@
         <v>1867</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>1898</v>
+        <v>1893</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="D59" s="10" t="s">
         <v>1735</v>
@@ -13041,16 +13059,16 @@
       </c>
       <c r="F59" s="10"/>
       <c r="G59" s="6" t="s">
-        <v>1886</v>
+        <v>1884</v>
       </c>
       <c r="H59" s="2">
         <v>1234560</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="K59" t="s">
         <v>7</v>
@@ -13062,13 +13080,13 @@
         <v>42</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>1887</v>
+        <v>1888</v>
       </c>
       <c r="O59" s="2" t="s">
-        <v>1740</v>
+        <v>1747</v>
       </c>
       <c r="P59" s="9" t="s">
-        <v>1822</v>
+        <v>41</v>
       </c>
       <c r="Q59" s="8" t="s">
         <v>41</v>
@@ -13119,7 +13137,7 @@
         <v>60</v>
       </c>
       <c r="AI59" s="2" t="s">
-        <v>1830</v>
+        <v>72</v>
       </c>
       <c r="AJ59" s="11" t="s">
         <v>64</v>
@@ -13134,48 +13152,30 @@
         <v>761</v>
       </c>
       <c r="AN59" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AO59" s="2">
-        <v>2011</v>
-      </c>
-      <c r="AP59" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AQ59" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AS59" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AT59" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AU59" s="2">
-        <v>2010</v>
-      </c>
-      <c r="AV59" s="2">
-        <v>2014</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="AO59" s="2"/>
+      <c r="AP59" s="2"/>
+      <c r="AQ59" s="2"/>
+      <c r="AS59" s="2"/>
+      <c r="AT59" s="2"/>
+      <c r="AU59" s="2"/>
+      <c r="AV59" s="2"/>
       <c r="AW59" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AX59" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AY59" s="2" t="s">
-        <v>64</v>
-      </c>
+      <c r="AX59" s="2"/>
+      <c r="AY59" s="2"/>
     </row>
     <row r="60" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>1867</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="D60" s="10" t="s">
         <v>1735</v>
@@ -13185,16 +13185,16 @@
       </c>
       <c r="F60" s="10"/>
       <c r="G60" s="6" t="s">
-        <v>1880</v>
+        <v>1886</v>
       </c>
       <c r="H60" s="2">
         <v>1234560</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="K60" t="s">
         <v>7</v>
@@ -13206,13 +13206,13 @@
         <v>42</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>1908</v>
+        <v>1887</v>
       </c>
       <c r="O60" s="2" t="s">
         <v>1740</v>
       </c>
       <c r="P60" s="9" t="s">
-        <v>1882</v>
+        <v>1822</v>
       </c>
       <c r="Q60" s="8" t="s">
         <v>41</v>
@@ -13263,7 +13263,7 @@
         <v>60</v>
       </c>
       <c r="AI60" s="2" t="s">
-        <v>72</v>
+        <v>1830</v>
       </c>
       <c r="AJ60" s="11" t="s">
         <v>64</v>
@@ -13275,33 +13275,51 @@
         <v>2010</v>
       </c>
       <c r="AM60" s="2" t="s">
-        <v>1830</v>
+        <v>761</v>
       </c>
       <c r="AN60" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AO60" s="2"/>
-      <c r="AP60" s="2"/>
-      <c r="AQ60" s="2"/>
-      <c r="AS60" s="2"/>
-      <c r="AT60" s="2"/>
-      <c r="AU60" s="2"/>
-      <c r="AV60" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="AO60" s="2">
+        <v>2011</v>
+      </c>
+      <c r="AP60" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AQ60" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AS60" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AT60" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AU60" s="2">
+        <v>2010</v>
+      </c>
+      <c r="AV60" s="2">
+        <v>2014</v>
+      </c>
       <c r="AW60" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AX60" s="2"/>
-      <c r="AY60" s="2"/>
+      <c r="AX60" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AY60" s="2" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="61" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>1867</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="D61" s="10" t="s">
         <v>1735</v>
@@ -13311,16 +13329,16 @@
       </c>
       <c r="F61" s="10"/>
       <c r="G61" s="6" t="s">
-        <v>1884</v>
+        <v>1880</v>
       </c>
       <c r="H61" s="2">
         <v>1234560</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="K61" t="s">
         <v>7</v>
@@ -13332,13 +13350,13 @@
         <v>42</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="O61" s="2" t="s">
-        <v>1761</v>
+        <v>1740</v>
       </c>
       <c r="P61" s="9" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="Q61" s="8" t="s">
         <v>41</v>
@@ -13401,7 +13419,7 @@
         <v>2010</v>
       </c>
       <c r="AM61" s="2" t="s">
-        <v>761</v>
+        <v>1830</v>
       </c>
       <c r="AN61" s="2" t="s">
         <v>64</v>
@@ -13419,64 +13437,192 @@
       <c r="AX61" s="2"/>
       <c r="AY61" s="2"/>
     </row>
+    <row r="62" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>1900</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>1897</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>1735</v>
+      </c>
+      <c r="E62" s="10" t="s">
+        <v>1736</v>
+      </c>
+      <c r="F62" s="10"/>
+      <c r="G62" s="6" t="s">
+        <v>1884</v>
+      </c>
+      <c r="H62" s="2">
+        <v>1234560</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>1907</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>1907</v>
+      </c>
+      <c r="K62" t="s">
+        <v>7</v>
+      </c>
+      <c r="L62" t="s">
+        <v>7</v>
+      </c>
+      <c r="M62" t="s">
+        <v>42</v>
+      </c>
+      <c r="N62" s="2" t="s">
+        <v>1909</v>
+      </c>
+      <c r="O62" s="2" t="s">
+        <v>1761</v>
+      </c>
+      <c r="P62" s="9" t="s">
+        <v>1883</v>
+      </c>
+      <c r="Q62" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="R62" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="S62" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="T62" s="2" t="s">
+        <v>1819</v>
+      </c>
+      <c r="U62" s="2"/>
+      <c r="V62" s="2" t="s">
+        <v>1792</v>
+      </c>
+      <c r="W62" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X62" s="2"/>
+      <c r="Y62" s="2"/>
+      <c r="Z62" s="2">
+        <v>87854522</v>
+      </c>
+      <c r="AA62" s="2">
+        <v>221234567</v>
+      </c>
+      <c r="AB62" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC62" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD62" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE62" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF62" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG62" s="2">
+        <v>6104</v>
+      </c>
+      <c r="AH62" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI62" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ62" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK62" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL62" s="2">
+        <v>2010</v>
+      </c>
+      <c r="AM62" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="AN62" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO62" s="2"/>
+      <c r="AP62" s="2"/>
+      <c r="AQ62" s="2"/>
+      <c r="AS62" s="2"/>
+      <c r="AT62" s="2"/>
+      <c r="AU62" s="2"/>
+      <c r="AV62" s="2"/>
+      <c r="AW62" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AX62" s="2"/>
+      <c r="AY62" s="2"/>
+    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A50:A51 A20 A9:A10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A51:A52 A21 A10:A11 A2">
       <formula1>"Student,Staff_Search,Staff_New,Agent"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A56:A61 A18 A12:A14 A5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A57:A62 A19 A13:A15 A6">
       <formula1>"New,Existing"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="H24" r:id="rId1"/>
-    <hyperlink ref="H25" r:id="rId2"/>
-    <hyperlink ref="H26" r:id="rId3"/>
-    <hyperlink ref="H27" r:id="rId4"/>
-    <hyperlink ref="H28" r:id="rId5"/>
-    <hyperlink ref="H29" r:id="rId6"/>
-    <hyperlink ref="H30" r:id="rId7"/>
-    <hyperlink ref="H31" r:id="rId8"/>
-    <hyperlink ref="H23" r:id="rId9"/>
-    <hyperlink ref="I24" r:id="rId10"/>
-    <hyperlink ref="I26" r:id="rId11"/>
-    <hyperlink ref="I27" r:id="rId12"/>
-    <hyperlink ref="I28" r:id="rId13"/>
-    <hyperlink ref="I29" r:id="rId14"/>
-    <hyperlink ref="I30" r:id="rId15"/>
-    <hyperlink ref="I31" r:id="rId16"/>
-    <hyperlink ref="I23" r:id="rId17"/>
-    <hyperlink ref="I25" r:id="rId18"/>
-    <hyperlink ref="I50" r:id="rId19"/>
-    <hyperlink ref="J50" r:id="rId20"/>
-    <hyperlink ref="I51" r:id="rId21"/>
-    <hyperlink ref="J51" r:id="rId22"/>
-    <hyperlink ref="I56" r:id="rId23"/>
-    <hyperlink ref="I57" r:id="rId24"/>
-    <hyperlink ref="I58" r:id="rId25"/>
-    <hyperlink ref="I59" r:id="rId26"/>
-    <hyperlink ref="I60" r:id="rId27"/>
-    <hyperlink ref="I61" r:id="rId28"/>
-    <hyperlink ref="J56" r:id="rId29"/>
-    <hyperlink ref="J57" r:id="rId30"/>
-    <hyperlink ref="J58" r:id="rId31"/>
-    <hyperlink ref="J59" r:id="rId32"/>
-    <hyperlink ref="J60" r:id="rId33"/>
-    <hyperlink ref="J61" r:id="rId34"/>
-    <hyperlink ref="I20" r:id="rId35"/>
-    <hyperlink ref="J20" r:id="rId36"/>
-    <hyperlink ref="I9" r:id="rId37"/>
-    <hyperlink ref="I10" r:id="rId38"/>
-    <hyperlink ref="J9" r:id="rId39"/>
-    <hyperlink ref="J10" r:id="rId40"/>
-    <hyperlink ref="I12" r:id="rId41"/>
-    <hyperlink ref="I13" r:id="rId42"/>
-    <hyperlink ref="J12" r:id="rId43"/>
-    <hyperlink ref="J14" r:id="rId44"/>
-    <hyperlink ref="I14" r:id="rId45"/>
+    <hyperlink ref="H25" r:id="rId1"/>
+    <hyperlink ref="H26" r:id="rId2"/>
+    <hyperlink ref="H27" r:id="rId3"/>
+    <hyperlink ref="H28" r:id="rId4"/>
+    <hyperlink ref="H29" r:id="rId5"/>
+    <hyperlink ref="H30" r:id="rId6"/>
+    <hyperlink ref="H31" r:id="rId7"/>
+    <hyperlink ref="H32" r:id="rId8"/>
+    <hyperlink ref="H24" r:id="rId9"/>
+    <hyperlink ref="I25" r:id="rId10"/>
+    <hyperlink ref="I27" r:id="rId11"/>
+    <hyperlink ref="I28" r:id="rId12"/>
+    <hyperlink ref="I29" r:id="rId13"/>
+    <hyperlink ref="I30" r:id="rId14"/>
+    <hyperlink ref="I31" r:id="rId15"/>
+    <hyperlink ref="I32" r:id="rId16"/>
+    <hyperlink ref="I24" r:id="rId17"/>
+    <hyperlink ref="I26" r:id="rId18"/>
+    <hyperlink ref="I51" r:id="rId19"/>
+    <hyperlink ref="J51" r:id="rId20"/>
+    <hyperlink ref="I52" r:id="rId21"/>
+    <hyperlink ref="J52" r:id="rId22"/>
+    <hyperlink ref="I57" r:id="rId23"/>
+    <hyperlink ref="I58" r:id="rId24"/>
+    <hyperlink ref="I59" r:id="rId25"/>
+    <hyperlink ref="I60" r:id="rId26"/>
+    <hyperlink ref="I61" r:id="rId27"/>
+    <hyperlink ref="I62" r:id="rId28"/>
+    <hyperlink ref="J57" r:id="rId29"/>
+    <hyperlink ref="J58" r:id="rId30"/>
+    <hyperlink ref="J59" r:id="rId31"/>
+    <hyperlink ref="J60" r:id="rId32"/>
+    <hyperlink ref="J61" r:id="rId33"/>
+    <hyperlink ref="J62" r:id="rId34"/>
+    <hyperlink ref="I21" r:id="rId35"/>
+    <hyperlink ref="J21" r:id="rId36"/>
+    <hyperlink ref="I10" r:id="rId37"/>
+    <hyperlink ref="I11" r:id="rId38"/>
+    <hyperlink ref="J10" r:id="rId39"/>
+    <hyperlink ref="J11" r:id="rId40"/>
+    <hyperlink ref="I13" r:id="rId41"/>
+    <hyperlink ref="I14" r:id="rId42"/>
+    <hyperlink ref="J13" r:id="rId43"/>
+    <hyperlink ref="J15" r:id="rId44"/>
+    <hyperlink ref="I15" r:id="rId45"/>
+    <hyperlink ref="I2" r:id="rId46"/>
+    <hyperlink ref="J2" r:id="rId47"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId46"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId48"/>
 </worksheet>
 </file>
 
@@ -29130,7 +29276,7 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A2:L71"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
@@ -29892,7 +30038,7 @@
         <v>2066</v>
       </c>
       <c r="E57" s="42" t="s">
-        <v>2106</v>
+        <v>2103</v>
       </c>
       <c r="F57" s="42" t="s">
         <v>2081</v>

--- a/src/main/resources/InputData.xlsx
+++ b/src/main/resources/InputData.xlsx
@@ -3,11 +3,6 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rbhatia\Google Drive\Project\Automation\SMSAuto\src\main\resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19365" windowHeight="4710"/>
   </bookViews>
@@ -23,6 +18,7 @@
     <sheet name="Sheet1" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <oleSize ref="A1:Q13"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -7188,14 +7184,13 @@
     <t>jmickey@fake.com</t>
   </si>
   <si>
-    <t>150840459971819JOHN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">150840459971819KIM
-</t>
-  </si>
-  <si>
     <t>150840459971819kjohn1@fake.com</t>
+  </si>
+  <si>
+    <t>150840459971819John</t>
+  </si>
+  <si>
+    <t>150840459971819Kim</t>
   </si>
 </sst>
 </file>
@@ -7399,7 +7394,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -7469,6 +7464,9 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -7767,7 +7765,7 @@
   <dimension ref="A1:AY2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7942,27 +7940,27 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:51" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="53" t="s">
         <v>1863</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="56" t="s">
         <v>2108</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="56" t="s">
         <v>2109</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="60" t="s">
         <v>1735</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="60" t="s">
         <v>1736</v>
       </c>
-      <c r="F2" s="10"/>
+      <c r="F2" s="60"/>
       <c r="G2" s="38">
         <v>18456</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="54">
         <v>1239566</v>
       </c>
       <c r="I2" s="55" t="s">
@@ -7971,108 +7969,108 @@
       <c r="J2" s="55" t="s">
         <v>2122</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="53" t="s">
         <v>1779</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="54" t="s">
         <v>1778</v>
       </c>
-      <c r="O2" s="37" t="s">
+      <c r="O2" s="62" t="s">
         <v>1761</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="P2" s="59" t="s">
         <v>1761</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="Q2" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="R2" s="59" t="s">
         <v>60</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="S2" s="54" t="s">
         <v>1810</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="T2" s="54" t="s">
         <v>1815</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="U2" s="54" t="s">
         <v>1816</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="V2" s="54" t="s">
         <v>1794</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="W2" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="X2" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="Y2" s="54" t="s">
         <v>1789</v>
       </c>
-      <c r="Z2" s="2">
+      <c r="Z2" s="54">
         <v>87854537</v>
       </c>
-      <c r="AA2" s="2">
+      <c r="AA2" s="54">
         <v>221234572</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AB2" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AC2" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="AD2" s="2" t="s">
+      <c r="AD2" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AE2" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="AF2" s="2" t="s">
+      <c r="AF2" s="54" t="s">
         <v>1785</v>
       </c>
-      <c r="AG2" s="2">
+      <c r="AG2" s="54">
         <v>3211</v>
       </c>
-      <c r="AH2" s="2" t="s">
+      <c r="AH2" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="AI2" s="2" t="s">
+      <c r="AI2" s="54" t="s">
         <v>1829</v>
       </c>
-      <c r="AJ2" s="11" t="s">
+      <c r="AJ2" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="AK2" s="2" t="s">
+      <c r="AK2" s="54" t="s">
         <v>798</v>
       </c>
-      <c r="AL2" s="2">
+      <c r="AL2" s="54">
         <v>2010</v>
       </c>
-      <c r="AM2" s="2" t="s">
+      <c r="AM2" s="54" t="s">
         <v>1827</v>
       </c>
-      <c r="AN2" s="2" t="s">
+      <c r="AN2" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="AO2" s="2"/>
-      <c r="AP2" s="2"/>
-      <c r="AQ2" s="2"/>
-      <c r="AS2" s="2"/>
-      <c r="AT2" s="2"/>
-      <c r="AU2" s="2"/>
-      <c r="AV2" s="2"/>
-      <c r="AW2" s="2" t="s">
+      <c r="AO2" s="54"/>
+      <c r="AP2" s="54"/>
+      <c r="AQ2" s="54"/>
+      <c r="AS2" s="54"/>
+      <c r="AT2" s="54"/>
+      <c r="AU2" s="54"/>
+      <c r="AV2" s="54"/>
+      <c r="AW2" s="54" t="s">
         <v>1843</v>
       </c>
-      <c r="AX2" s="2"/>
-      <c r="AY2" s="2"/>
+      <c r="AX2" s="54"/>
+      <c r="AY2" s="54"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -8081,8 +8079,8 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1"/>
-    <hyperlink ref="I2" r:id="rId2"/>
+    <hyperlink ref="I2" r:id="rId1"/>
+    <hyperlink ref="J2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -8096,7 +8094,7 @@
   <dimension ref="A1:AY2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9430,7 +9428,7 @@
   <dimension ref="A1:AY62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9488,15 +9486,15 @@
       <c r="U1" s="46"/>
       <c r="V1" s="46"/>
     </row>
-    <row r="2" spans="1:51" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:51" s="53" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="53" t="s">
         <v>1862</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="63" t="s">
+        <v>2125</v>
+      </c>
+      <c r="C2" s="56" t="s">
         <v>2124</v>
-      </c>
-      <c r="C2" s="56" t="s">
-        <v>2123</v>
       </c>
       <c r="D2" s="60"/>
       <c r="E2" s="60"/>
@@ -9508,10 +9506,10 @@
         <v>12246148</v>
       </c>
       <c r="I2" s="55" t="s">
-        <v>2125</v>
+        <v>2123</v>
       </c>
       <c r="J2" s="55" t="s">
-        <v>2125</v>
+        <v>2123</v>
       </c>
       <c r="K2" s="53" t="s">
         <v>7</v>

--- a/src/main/resources/InputData.xlsx
+++ b/src/main/resources/InputData.xlsx
@@ -49,7 +49,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -101,7 +101,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">'Overseas Qualification' option is tested in Auto6. </t>
         </r>
@@ -123,7 +123,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -152,7 +152,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Only if institution name is overseas (Overseas Teachers College, Overseas technical Institute, Overseas University)
 </t>
@@ -185,7 +185,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -237,7 +237,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">'Overseas Qualification' option is tested in Auto6. </t>
         </r>
@@ -259,7 +259,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -288,7 +288,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Only if institution name is overseas (Overseas Teachers College, Overseas technical Institute, Overseas University)
 </t>
@@ -313,7 +313,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -322,7 +322,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Data required:
@@ -356,7 +356,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -408,7 +408,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">'Overseas Qualification' option is tested in Auto6. </t>
         </r>
@@ -430,7 +430,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -459,7 +459,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Only if institution name is overseas (Overseas Teachers College, Overseas technical Institute, Overseas University)
 </t>
@@ -492,7 +492,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -578,7 +578,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -664,7 +664,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -729,7 +729,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4134" uniqueCount="2126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4169" uniqueCount="2128">
   <si>
     <t>F Name</t>
   </si>
@@ -7192,6 +7192,12 @@
   <si>
     <t>150840459971819Kim</t>
   </si>
+  <si>
+    <t>Murray</t>
+  </si>
+  <si>
+    <t>jmurray@fake.com</t>
+  </si>
 </sst>
 </file>
 
@@ -7200,7 +7206,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7215,12 +7221,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="9"/>
@@ -7257,13 +7257,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -7399,21 +7392,21 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="4" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -7426,45 +7419,45 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="7" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="6" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="6" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="5" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -7762,10 +7755,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AY2"/>
+  <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7942,32 +7935,28 @@
     </row>
     <row r="2" spans="1:51" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="53" t="s">
-        <v>1863</v>
+        <v>1914</v>
       </c>
       <c r="B2" s="56" t="s">
-        <v>2108</v>
+        <v>1736</v>
       </c>
       <c r="C2" s="56" t="s">
-        <v>2109</v>
-      </c>
-      <c r="D2" s="60" t="s">
-        <v>1735</v>
-      </c>
-      <c r="E2" s="60" t="s">
-        <v>1736</v>
-      </c>
+        <v>2126</v>
+      </c>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
       <c r="F2" s="60"/>
       <c r="G2" s="38">
-        <v>18456</v>
+        <v>30235</v>
       </c>
       <c r="H2" s="54">
-        <v>1239566</v>
+        <v>2232920471</v>
       </c>
       <c r="I2" s="55" t="s">
-        <v>2122</v>
+        <v>2127</v>
       </c>
       <c r="J2" s="55" t="s">
-        <v>2122</v>
+        <v>2127</v>
       </c>
       <c r="K2" s="53" t="s">
         <v>7</v>
@@ -7976,16 +7965,16 @@
         <v>7</v>
       </c>
       <c r="M2" s="53" t="s">
-        <v>1779</v>
+        <v>42</v>
       </c>
       <c r="N2" s="54" t="s">
-        <v>1778</v>
-      </c>
-      <c r="O2" s="62" t="s">
-        <v>1761</v>
+        <v>1912</v>
+      </c>
+      <c r="O2" s="54" t="s">
+        <v>1747</v>
       </c>
       <c r="P2" s="59" t="s">
-        <v>1761</v>
+        <v>41</v>
       </c>
       <c r="Q2" s="58" t="s">
         <v>41</v>
@@ -7994,31 +7983,25 @@
         <v>60</v>
       </c>
       <c r="S2" s="54" t="s">
-        <v>1810</v>
+        <v>40</v>
       </c>
       <c r="T2" s="54" t="s">
-        <v>1815</v>
-      </c>
-      <c r="U2" s="54" t="s">
-        <v>1816</v>
-      </c>
+        <v>1819</v>
+      </c>
+      <c r="U2" s="54"/>
       <c r="V2" s="54" t="s">
-        <v>1794</v>
+        <v>1792</v>
       </c>
       <c r="W2" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="X2" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y2" s="54" t="s">
-        <v>1789</v>
-      </c>
+      <c r="X2" s="54"/>
+      <c r="Y2" s="54"/>
       <c r="Z2" s="54">
-        <v>87854537</v>
+        <v>87854522</v>
       </c>
       <c r="AA2" s="54">
-        <v>221234572</v>
+        <v>221234567</v>
       </c>
       <c r="AB2" s="54" t="s">
         <v>51</v>
@@ -8033,45 +8016,64 @@
         <v>52</v>
       </c>
       <c r="AF2" s="54" t="s">
-        <v>1785</v>
+        <v>33</v>
       </c>
       <c r="AG2" s="54">
-        <v>3211</v>
+        <v>6104</v>
       </c>
       <c r="AH2" s="54" t="s">
         <v>60</v>
       </c>
       <c r="AI2" s="54" t="s">
-        <v>1829</v>
+        <v>72</v>
       </c>
       <c r="AJ2" s="61" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="AK2" s="54" t="s">
-        <v>798</v>
+        <v>73</v>
       </c>
       <c r="AL2" s="54">
         <v>2010</v>
       </c>
       <c r="AM2" s="54" t="s">
-        <v>1827</v>
+        <v>761</v>
       </c>
       <c r="AN2" s="54" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO2" s="54">
+        <v>2011</v>
+      </c>
+      <c r="AP2" s="54" t="s">
+        <v>32</v>
+      </c>
+      <c r="AQ2" s="54" t="s">
+        <v>66</v>
+      </c>
+      <c r="AS2" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="AT2" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="AU2" s="54">
+        <v>2010</v>
+      </c>
+      <c r="AV2" s="54">
+        <v>2014</v>
+      </c>
+      <c r="AW2" s="54" t="s">
+        <v>61</v>
+      </c>
+      <c r="AX2" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="AO2" s="54"/>
-      <c r="AP2" s="54"/>
-      <c r="AQ2" s="54"/>
-      <c r="AS2" s="54"/>
-      <c r="AT2" s="54"/>
-      <c r="AU2" s="54"/>
-      <c r="AV2" s="54"/>
-      <c r="AW2" s="54" t="s">
-        <v>1843</v>
-      </c>
-      <c r="AX2" s="54"/>
-      <c r="AY2" s="54"/>
-    </row>
+      <c r="AY2" s="54" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:51" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
@@ -9425,10 +9427,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AY62"/>
+  <dimension ref="A1:AY63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9626,170 +9628,159 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="3" spans="1:51" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="53" t="s">
+        <v>1863</v>
+      </c>
+      <c r="B3" s="56" t="s">
+        <v>2108</v>
+      </c>
+      <c r="C3" s="56" t="s">
+        <v>2109</v>
+      </c>
+      <c r="D3" s="60" t="s">
+        <v>1735</v>
+      </c>
+      <c r="E3" s="60" t="s">
+        <v>1736</v>
+      </c>
+      <c r="F3" s="60"/>
+      <c r="G3" s="38">
+        <v>18456</v>
+      </c>
+      <c r="H3" s="54">
+        <v>1239566</v>
+      </c>
+      <c r="I3" s="55" t="s">
+        <v>2122</v>
+      </c>
+      <c r="J3" s="55" t="s">
+        <v>2122</v>
+      </c>
+      <c r="K3" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" s="53" t="s">
+        <v>1779</v>
+      </c>
+      <c r="N3" s="54" t="s">
+        <v>1778</v>
+      </c>
+      <c r="O3" s="62" t="s">
+        <v>1761</v>
+      </c>
+      <c r="P3" s="59" t="s">
+        <v>1761</v>
+      </c>
+      <c r="Q3" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="R3" s="59" t="s">
+        <v>60</v>
+      </c>
+      <c r="S3" s="54" t="s">
+        <v>1810</v>
+      </c>
+      <c r="T3" s="54" t="s">
+        <v>1815</v>
+      </c>
+      <c r="U3" s="54" t="s">
+        <v>1816</v>
+      </c>
+      <c r="V3" s="54" t="s">
+        <v>1794</v>
+      </c>
+      <c r="W3" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="X3" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y3" s="54" t="s">
+        <v>1789</v>
+      </c>
+      <c r="Z3" s="54">
+        <v>87854537</v>
+      </c>
+      <c r="AA3" s="54">
+        <v>221234572</v>
+      </c>
+      <c r="AB3" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC3" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD3" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE3" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF3" s="54" t="s">
+        <v>1785</v>
+      </c>
+      <c r="AG3" s="54">
+        <v>3211</v>
+      </c>
+      <c r="AH3" s="54" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI3" s="54" t="s">
+        <v>1829</v>
+      </c>
+      <c r="AJ3" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK3" s="54" t="s">
+        <v>798</v>
+      </c>
+      <c r="AL3" s="54">
+        <v>2010</v>
+      </c>
+      <c r="AM3" s="54" t="s">
+        <v>1827</v>
+      </c>
+      <c r="AN3" s="54" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO3" s="54"/>
+      <c r="AP3" s="54"/>
+      <c r="AQ3" s="54"/>
+      <c r="AS3" s="54"/>
+      <c r="AT3" s="54"/>
+      <c r="AU3" s="54"/>
+      <c r="AV3" s="54"/>
+      <c r="AW3" s="54" t="s">
+        <v>1843</v>
+      </c>
+      <c r="AX3" s="54"/>
+      <c r="AY3" s="54"/>
+    </row>
+    <row r="5" spans="1:51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>1868</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>2114</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>2115</v>
       </c>
-      <c r="G4" s="52" t="s">
+      <c r="G5" s="52" t="s">
         <v>2117</v>
       </c>
-      <c r="H4">
+      <c r="H5">
         <v>12246148</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I5" t="s">
         <v>2116</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J5" t="s">
         <v>2116</v>
-      </c>
-      <c r="K4" t="s">
-        <v>7</v>
-      </c>
-      <c r="L4" t="s">
-        <v>7</v>
-      </c>
-      <c r="M4" t="s">
-        <v>42</v>
-      </c>
-      <c r="N4" t="s">
-        <v>2104</v>
-      </c>
-      <c r="O4" t="s">
-        <v>1740</v>
-      </c>
-      <c r="P4" t="s">
-        <v>1764</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>1825</v>
-      </c>
-      <c r="R4" t="s">
-        <v>60</v>
-      </c>
-      <c r="S4" t="s">
-        <v>1812</v>
-      </c>
-      <c r="T4" t="s">
-        <v>1818</v>
-      </c>
-      <c r="V4" t="s">
-        <v>1796</v>
-      </c>
-      <c r="W4" t="s">
-        <v>1803</v>
-      </c>
-      <c r="X4" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>1800</v>
-      </c>
-      <c r="Z4">
-        <v>87854546</v>
-      </c>
-      <c r="AA4">
-        <v>221234575</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>53</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>52</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>1826</v>
-      </c>
-      <c r="AG4">
-        <v>1234</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>60</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>72</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>910</v>
-      </c>
-      <c r="AL4">
-        <v>2010</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>1860</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>60</v>
-      </c>
-      <c r="AO4">
-        <v>1980</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>594</v>
-      </c>
-      <c r="AS4" t="s">
-        <v>1838</v>
-      </c>
-      <c r="AT4" t="s">
-        <v>30</v>
-      </c>
-      <c r="AU4">
-        <v>2001</v>
-      </c>
-      <c r="AV4">
-        <v>2014</v>
-      </c>
-      <c r="AW4" t="s">
-        <v>61</v>
-      </c>
-      <c r="AX4" t="s">
-        <v>64</v>
-      </c>
-      <c r="AY4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>1867</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2111</v>
-      </c>
-      <c r="C5" t="s">
-        <v>2112</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1735</v>
-      </c>
-      <c r="G5" s="52" t="s">
-        <v>2120</v>
-      </c>
-      <c r="H5">
-        <v>1234563</v>
-      </c>
-      <c r="I5" t="s">
-        <v>2113</v>
-      </c>
-      <c r="J5" t="s">
-        <v>2113</v>
       </c>
       <c r="K5" t="s">
         <v>7</v>
@@ -9804,37 +9795,40 @@
         <v>2104</v>
       </c>
       <c r="O5" t="s">
-        <v>1759</v>
+        <v>1740</v>
       </c>
       <c r="P5" t="s">
-        <v>1823</v>
+        <v>1764</v>
       </c>
       <c r="Q5" t="s">
-        <v>41</v>
+        <v>1825</v>
       </c>
       <c r="R5" t="s">
         <v>60</v>
       </c>
       <c r="S5" t="s">
-        <v>40</v>
+        <v>1812</v>
+      </c>
+      <c r="T5" t="s">
+        <v>1818</v>
       </c>
       <c r="V5" t="s">
-        <v>1792</v>
+        <v>1796</v>
       </c>
       <c r="W5" t="s">
-        <v>36</v>
+        <v>1803</v>
       </c>
       <c r="X5" t="s">
-        <v>1805</v>
+        <v>35</v>
       </c>
       <c r="Y5" t="s">
-        <v>34</v>
+        <v>1800</v>
       </c>
       <c r="Z5">
-        <v>87854531</v>
+        <v>87854546</v>
       </c>
       <c r="AA5">
-        <v>221234570</v>
+        <v>221234575</v>
       </c>
       <c r="AB5" t="s">
         <v>51</v>
@@ -9849,60 +9843,87 @@
         <v>52</v>
       </c>
       <c r="AF5" t="s">
-        <v>33</v>
+        <v>1826</v>
       </c>
       <c r="AG5">
-        <v>6304</v>
+        <v>1234</v>
       </c>
       <c r="AH5" t="s">
         <v>60</v>
       </c>
       <c r="AI5" t="s">
-        <v>1827</v>
+        <v>72</v>
       </c>
       <c r="AJ5" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="AK5" t="s">
-        <v>854</v>
+        <v>910</v>
       </c>
       <c r="AL5">
         <v>2010</v>
       </c>
       <c r="AM5" t="s">
-        <v>1828</v>
+        <v>1860</v>
       </c>
       <c r="AN5" t="s">
-        <v>64</v>
+        <v>60</v>
+      </c>
+      <c r="AO5">
+        <v>1980</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>594</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>1838</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AU5">
+        <v>2001</v>
+      </c>
+      <c r="AV5">
+        <v>2014</v>
       </c>
       <c r="AW5" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AX5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1867</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>2105</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>1736</v>
-      </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="6" t="s">
-        <v>2117</v>
-      </c>
-      <c r="H6" s="2">
-        <v>12246148</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>2106</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>2106</v>
+      <c r="B6" t="s">
+        <v>2111</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2112</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1735</v>
+      </c>
+      <c r="G6" s="52" t="s">
+        <v>2120</v>
+      </c>
+      <c r="H6">
+        <v>1234563</v>
+      </c>
+      <c r="I6" t="s">
+        <v>2113</v>
+      </c>
+      <c r="J6" t="s">
+        <v>2113</v>
       </c>
       <c r="K6" t="s">
         <v>7</v>
@@ -9913,142 +9934,109 @@
       <c r="M6" t="s">
         <v>42</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="N6" t="s">
         <v>2104</v>
       </c>
-      <c r="O6" s="37" t="s">
-        <v>1740</v>
-      </c>
-      <c r="P6" s="9" t="s">
-        <v>1764</v>
-      </c>
-      <c r="Q6" s="8" t="s">
-        <v>1825</v>
-      </c>
-      <c r="R6" s="9" t="s">
+      <c r="O6" t="s">
+        <v>1759</v>
+      </c>
+      <c r="P6" t="s">
+        <v>1823</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>41</v>
+      </c>
+      <c r="R6" t="s">
         <v>60</v>
       </c>
-      <c r="S6" s="2" t="s">
-        <v>1812</v>
-      </c>
-      <c r="T6" s="2" t="s">
-        <v>1818</v>
-      </c>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2" t="s">
+      <c r="S6" t="s">
+        <v>40</v>
+      </c>
+      <c r="V6" t="s">
         <v>1792</v>
       </c>
-      <c r="W6" s="2" t="s">
+      <c r="W6" t="s">
         <v>36</v>
       </c>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2">
-        <v>87854522</v>
-      </c>
-      <c r="AA6" s="2">
-        <v>221234567</v>
-      </c>
-      <c r="AB6" s="2" t="s">
+      <c r="X6" t="s">
+        <v>1805</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z6">
+        <v>87854531</v>
+      </c>
+      <c r="AA6">
+        <v>221234570</v>
+      </c>
+      <c r="AB6" t="s">
         <v>51</v>
       </c>
-      <c r="AC6" s="2" t="s">
+      <c r="AC6" t="s">
         <v>54</v>
       </c>
-      <c r="AD6" s="2" t="s">
+      <c r="AD6" t="s">
         <v>53</v>
       </c>
-      <c r="AE6" s="2" t="s">
+      <c r="AE6" t="s">
         <v>52</v>
       </c>
-      <c r="AF6" s="2" t="s">
+      <c r="AF6" t="s">
         <v>33</v>
       </c>
-      <c r="AG6" s="2">
-        <v>6104</v>
-      </c>
-      <c r="AH6" s="2" t="s">
+      <c r="AG6">
+        <v>6304</v>
+      </c>
+      <c r="AH6" t="s">
         <v>60</v>
       </c>
-      <c r="AI6" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AJ6" s="11" t="s">
+      <c r="AI6" t="s">
+        <v>1827</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>854</v>
+      </c>
+      <c r="AL6">
+        <v>2010</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>1828</v>
+      </c>
+      <c r="AN6" t="s">
         <v>64</v>
       </c>
-      <c r="AK6" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AL6" s="2">
-        <v>2010</v>
-      </c>
-      <c r="AM6" s="2" t="s">
-        <v>761</v>
-      </c>
-      <c r="AN6" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AO6" s="2">
-        <v>2011</v>
-      </c>
-      <c r="AP6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AQ6" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AS6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AT6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AU6" s="2">
-        <v>2010</v>
-      </c>
-      <c r="AV6" s="2">
-        <v>2014</v>
-      </c>
-      <c r="AW6" s="2" t="s">
+      <c r="AW6" t="s">
         <v>61</v>
       </c>
-      <c r="AX6" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AY6" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1867</v>
       </c>
-      <c r="B7" t="s">
-        <v>1847</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1848</v>
-      </c>
-      <c r="D7" t="s">
-        <v>1735</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="B7" s="5" t="s">
+        <v>2105</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>1736</v>
       </c>
-      <c r="F7" t="s">
-        <v>1846</v>
-      </c>
-      <c r="G7" s="52" t="s">
-        <v>2118</v>
-      </c>
-      <c r="H7">
-        <v>1234560</v>
-      </c>
-      <c r="I7" t="s">
-        <v>2107</v>
-      </c>
-      <c r="J7" t="s">
-        <v>2107</v>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="6" t="s">
+        <v>2117</v>
+      </c>
+      <c r="H7" s="2">
+        <v>12246148</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>2106</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>2106</v>
       </c>
       <c r="K7" t="s">
         <v>7</v>
@@ -10059,133 +10047,142 @@
       <c r="M7" t="s">
         <v>42</v>
       </c>
-      <c r="N7" t="s">
+      <c r="N7" s="2" t="s">
         <v>2104</v>
       </c>
-      <c r="O7" t="s">
-        <v>1747</v>
-      </c>
-      <c r="P7" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>41</v>
-      </c>
-      <c r="R7" t="s">
+      <c r="O7" s="37" t="s">
+        <v>1740</v>
+      </c>
+      <c r="P7" s="9" t="s">
+        <v>1764</v>
+      </c>
+      <c r="Q7" s="8" t="s">
+        <v>1825</v>
+      </c>
+      <c r="R7" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>1812</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>1818</v>
+      </c>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2" t="s">
+        <v>1792</v>
+      </c>
+      <c r="W7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2">
+        <v>87854522</v>
+      </c>
+      <c r="AA7" s="2">
+        <v>221234567</v>
+      </c>
+      <c r="AB7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG7" s="2">
+        <v>6104</v>
+      </c>
+      <c r="AH7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ7" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="S7" t="s">
-        <v>1813</v>
-      </c>
-      <c r="T7" t="s">
-        <v>39</v>
-      </c>
-      <c r="U7" t="s">
-        <v>1814</v>
-      </c>
-      <c r="V7" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z7">
-        <v>87854522</v>
-      </c>
-      <c r="AA7">
-        <v>221234567</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>53</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>52</v>
-      </c>
-      <c r="AF7" t="s">
-        <v>33</v>
-      </c>
-      <c r="AG7">
-        <v>6104</v>
-      </c>
-      <c r="AH7" t="s">
+      <c r="AK7" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL7" s="2">
+        <v>2010</v>
+      </c>
+      <c r="AM7" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="AN7" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="AI7" t="s">
-        <v>72</v>
-      </c>
-      <c r="AJ7" t="s">
+      <c r="AO7" s="2">
+        <v>2011</v>
+      </c>
+      <c r="AP7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AQ7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AS7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AT7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AU7" s="2">
+        <v>2010</v>
+      </c>
+      <c r="AV7" s="2">
+        <v>2014</v>
+      </c>
+      <c r="AW7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AX7" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AK7" t="s">
-        <v>73</v>
-      </c>
-      <c r="AL7">
-        <v>2010</v>
-      </c>
-      <c r="AM7" t="s">
-        <v>761</v>
-      </c>
-      <c r="AN7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AO7">
-        <v>2011</v>
-      </c>
-      <c r="AP7" t="s">
-        <v>32</v>
-      </c>
-      <c r="AQ7" t="s">
-        <v>66</v>
-      </c>
-      <c r="AS7" t="s">
-        <v>42</v>
-      </c>
-      <c r="AT7" t="s">
-        <v>30</v>
-      </c>
-      <c r="AU7">
-        <v>2010</v>
-      </c>
-      <c r="AV7">
-        <v>2014</v>
-      </c>
-      <c r="AW7" t="s">
-        <v>61</v>
-      </c>
-      <c r="AX7" t="s">
+      <c r="AY7" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AY7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1867</v>
       </c>
       <c r="B8" t="s">
-        <v>2108</v>
+        <v>1847</v>
       </c>
       <c r="C8" t="s">
-        <v>2109</v>
+        <v>1848</v>
       </c>
       <c r="D8" t="s">
         <v>1735</v>
       </c>
+      <c r="E8" t="s">
+        <v>1736</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1846</v>
+      </c>
       <c r="G8" s="52" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="H8">
-        <v>1234561</v>
+        <v>1234560</v>
       </c>
       <c r="I8" t="s">
-        <v>2110</v>
+        <v>2107</v>
       </c>
       <c r="J8" t="s">
-        <v>2110</v>
+        <v>2107</v>
       </c>
       <c r="K8" t="s">
         <v>7</v>
@@ -10200,40 +10197,34 @@
         <v>2104</v>
       </c>
       <c r="O8" t="s">
-        <v>43</v>
+        <v>1747</v>
       </c>
       <c r="P8" t="s">
-        <v>1822</v>
+        <v>41</v>
       </c>
       <c r="Q8" t="s">
         <v>41</v>
       </c>
       <c r="R8" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="S8" t="s">
-        <v>1807</v>
+        <v>1813</v>
       </c>
       <c r="T8" t="s">
-        <v>1820</v>
+        <v>39</v>
+      </c>
+      <c r="U8" t="s">
+        <v>1814</v>
       </c>
       <c r="V8" t="s">
-        <v>1790</v>
-      </c>
-      <c r="W8" t="s">
-        <v>1797</v>
-      </c>
-      <c r="X8" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="Z8">
-        <v>87854525</v>
+        <v>87854522</v>
       </c>
       <c r="AA8">
-        <v>221234568</v>
+        <v>221234567</v>
       </c>
       <c r="AB8" t="s">
         <v>51</v>
@@ -10251,237 +10242,232 @@
         <v>33</v>
       </c>
       <c r="AG8">
-        <v>6205</v>
+        <v>6104</v>
       </c>
       <c r="AH8" t="s">
         <v>60</v>
       </c>
       <c r="AI8" t="s">
-        <v>1827</v>
+        <v>72</v>
       </c>
       <c r="AJ8" t="s">
         <v>64</v>
       </c>
       <c r="AK8" t="s">
-        <v>888</v>
+        <v>73</v>
       </c>
       <c r="AL8">
         <v>2010</v>
       </c>
       <c r="AM8" t="s">
-        <v>1829</v>
+        <v>761</v>
       </c>
       <c r="AN8" t="s">
         <v>60</v>
       </c>
       <c r="AO8">
+        <v>2011</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>32</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>66</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>42</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AU8">
         <v>2010</v>
       </c>
-      <c r="AP8" t="s">
-        <v>616</v>
-      </c>
-      <c r="AQ8" t="s">
-        <v>616</v>
-      </c>
-      <c r="AR8" t="s">
-        <v>1832</v>
-      </c>
-      <c r="AS8" t="s">
-        <v>1834</v>
-      </c>
-      <c r="AT8" t="s">
-        <v>1839</v>
-      </c>
-      <c r="AU8">
-        <v>2011</v>
-      </c>
       <c r="AV8">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="AW8" t="s">
-        <v>1843</v>
+        <v>61</v>
       </c>
       <c r="AX8" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="AY8" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>1914</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>2094</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>2091</v>
-      </c>
-      <c r="D10" s="10" t="s">
+    <row r="9" spans="1:51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2108</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2109</v>
+      </c>
+      <c r="D9" t="s">
         <v>1735</v>
       </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="38">
-        <v>28622</v>
-      </c>
-      <c r="H10" s="2">
-        <v>1230567</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>2095</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>2095</v>
-      </c>
-      <c r="K10" t="s">
+      <c r="G9" s="52" t="s">
+        <v>2119</v>
+      </c>
+      <c r="H9">
+        <v>1234561</v>
+      </c>
+      <c r="I9" t="s">
+        <v>2110</v>
+      </c>
+      <c r="J9" t="s">
+        <v>2110</v>
+      </c>
+      <c r="K9" t="s">
         <v>7</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L9" t="s">
         <v>7</v>
       </c>
-      <c r="M10" t="s">
-        <v>1782</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>1788</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>1763</v>
-      </c>
-      <c r="P10" s="9" t="s">
-        <v>1763</v>
-      </c>
-      <c r="Q10" s="8" t="s">
+      <c r="M9" t="s">
+        <v>42</v>
+      </c>
+      <c r="N9" t="s">
+        <v>2104</v>
+      </c>
+      <c r="O9" t="s">
+        <v>43</v>
+      </c>
+      <c r="P9" t="s">
+        <v>1822</v>
+      </c>
+      <c r="Q9" t="s">
         <v>41</v>
       </c>
-      <c r="R10" s="9" t="s">
+      <c r="R9" t="s">
         <v>60</v>
       </c>
-      <c r="S10" s="2" t="s">
-        <v>1742</v>
-      </c>
-      <c r="T10" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="U10" s="2" t="s">
-        <v>1817</v>
-      </c>
-      <c r="V10" s="2" t="s">
+      <c r="S9" t="s">
+        <v>1807</v>
+      </c>
+      <c r="T9" t="s">
+        <v>1820</v>
+      </c>
+      <c r="V9" t="s">
+        <v>1790</v>
+      </c>
+      <c r="W9" t="s">
+        <v>1797</v>
+      </c>
+      <c r="X9" t="s">
         <v>35</v>
       </c>
-      <c r="W10" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="X10" s="2" t="s">
-        <v>1799</v>
-      </c>
-      <c r="Y10" s="2" t="s">
+      <c r="Y9" t="s">
         <v>34</v>
       </c>
-      <c r="Z10" s="2">
-        <v>87854543</v>
-      </c>
-      <c r="AA10" s="2">
-        <v>221234574</v>
-      </c>
-      <c r="AB10" s="2" t="s">
+      <c r="Z9">
+        <v>87854525</v>
+      </c>
+      <c r="AA9">
+        <v>221234568</v>
+      </c>
+      <c r="AB9" t="s">
         <v>51</v>
       </c>
-      <c r="AC10" s="2" t="s">
+      <c r="AC9" t="s">
         <v>54</v>
       </c>
-      <c r="AD10" s="2" t="s">
+      <c r="AD9" t="s">
         <v>53</v>
       </c>
-      <c r="AE10" s="2" t="s">
+      <c r="AE9" t="s">
         <v>52</v>
       </c>
-      <c r="AF10" s="2" t="s">
+      <c r="AF9" t="s">
         <v>33</v>
       </c>
-      <c r="AG10" s="2">
-        <v>6104</v>
-      </c>
-      <c r="AH10" s="2" t="s">
+      <c r="AG9">
+        <v>6205</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>1827</v>
+      </c>
+      <c r="AJ9" t="s">
         <v>64</v>
       </c>
-      <c r="AI10" s="2"/>
-      <c r="AJ10" s="11" t="s">
+      <c r="AK9" t="s">
+        <v>888</v>
+      </c>
+      <c r="AL9">
+        <v>2010</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>1829</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO9">
+        <v>2010</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>616</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>616</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>1832</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>1834</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>1839</v>
+      </c>
+      <c r="AU9">
+        <v>2011</v>
+      </c>
+      <c r="AV9">
+        <v>2013</v>
+      </c>
+      <c r="AW9" t="s">
+        <v>1843</v>
+      </c>
+      <c r="AX9" t="s">
+        <v>60</v>
+      </c>
+      <c r="AY9" t="s">
         <v>64</v>
       </c>
-      <c r="AK10" s="2" t="s">
-        <v>904</v>
-      </c>
-      <c r="AL10" s="2">
-        <v>2010</v>
-      </c>
-      <c r="AM10" s="2" t="s">
-        <v>1859</v>
-      </c>
-      <c r="AN10" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AO10" s="2">
-        <v>1995</v>
-      </c>
-      <c r="AP10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AQ10" s="2" t="s">
-        <v>610</v>
-      </c>
-      <c r="AS10" s="2" t="s">
-        <v>1837</v>
-      </c>
-      <c r="AT10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AU10" s="2">
-        <v>1999</v>
-      </c>
-      <c r="AV10" s="2">
-        <v>2006</v>
-      </c>
-      <c r="AW10" s="2" t="s">
-        <v>1843</v>
-      </c>
-      <c r="AX10" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AY10" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1914</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>2093</v>
+        <v>2094</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>1735</v>
       </c>
-      <c r="E11" s="10" t="s">
-        <v>1736</v>
-      </c>
+      <c r="E11" s="10"/>
       <c r="F11" s="10"/>
       <c r="G11" s="38">
-        <v>28916</v>
+        <v>28622</v>
       </c>
       <c r="H11" s="2">
-        <v>1234518</v>
+        <v>1230567</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="K11" t="s">
         <v>7</v>
@@ -10490,47 +10476,49 @@
         <v>7</v>
       </c>
       <c r="M11" t="s">
-        <v>42</v>
+        <v>1782</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>1783</v>
-      </c>
-      <c r="O11" s="37" t="s">
-        <v>1740</v>
+        <v>1788</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>1763</v>
       </c>
       <c r="P11" s="9" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="Q11" s="8" t="s">
-        <v>1825</v>
+        <v>41</v>
       </c>
       <c r="R11" s="9" t="s">
         <v>60</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>1812</v>
+        <v>1742</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>1818</v>
-      </c>
-      <c r="U11" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="U11" s="2" t="s">
+        <v>1817</v>
+      </c>
       <c r="V11" s="2" t="s">
-        <v>1796</v>
+        <v>35</v>
       </c>
       <c r="W11" s="2" t="s">
-        <v>1803</v>
+        <v>36</v>
       </c>
       <c r="X11" s="2" t="s">
-        <v>35</v>
+        <v>1799</v>
       </c>
       <c r="Y11" s="2" t="s">
-        <v>1800</v>
+        <v>34</v>
       </c>
       <c r="Z11" s="2">
-        <v>87854546</v>
+        <v>87854543</v>
       </c>
       <c r="AA11" s="2">
-        <v>221234575</v>
+        <v>221234574</v>
       </c>
       <c r="AB11" s="2" t="s">
         <v>51</v>
@@ -10545,209 +10533,239 @@
         <v>52</v>
       </c>
       <c r="AF11" s="2" t="s">
-        <v>1826</v>
+        <v>33</v>
       </c>
       <c r="AG11" s="2">
-        <v>1234</v>
+        <v>6104</v>
       </c>
       <c r="AH11" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AI11" s="2" t="s">
-        <v>72</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="AI11" s="2"/>
       <c r="AJ11" s="11" t="s">
         <v>64</v>
       </c>
       <c r="AK11" s="2" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
       <c r="AL11" s="2">
         <v>2010</v>
       </c>
       <c r="AM11" s="2" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="AN11" s="2" t="s">
         <v>60</v>
       </c>
       <c r="AO11" s="2">
-        <v>1980</v>
+        <v>1995</v>
       </c>
       <c r="AP11" s="2" t="s">
         <v>32</v>
       </c>
       <c r="AQ11" s="2" t="s">
-        <v>594</v>
+        <v>610</v>
       </c>
       <c r="AS11" s="2" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="AT11" s="2" t="s">
         <v>30</v>
       </c>
       <c r="AU11" s="2">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="AV11" s="2">
-        <v>2014</v>
+        <v>2006</v>
       </c>
       <c r="AW11" s="2" t="s">
-        <v>61</v>
+        <v>1843</v>
       </c>
       <c r="AX11" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="AY11" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>1868</v>
-      </c>
-      <c r="B13" s="39" t="s">
-        <v>1929</v>
-      </c>
-      <c r="C13" s="39" t="s">
-        <v>1930</v>
-      </c>
-      <c r="D13" s="39" t="s">
-        <v>1931</v>
-      </c>
-      <c r="E13" s="39" t="s">
-        <v>1915</v>
-      </c>
-      <c r="F13" s="39" t="s">
-        <v>1915</v>
-      </c>
-      <c r="G13" s="40">
-        <v>35249</v>
-      </c>
-      <c r="H13" s="39">
-        <v>1260026</v>
-      </c>
-      <c r="I13" s="41" t="s">
-        <v>1920</v>
-      </c>
-      <c r="J13" s="41" t="s">
-        <v>1920</v>
-      </c>
-      <c r="K13" t="s">
+    <row r="12" spans="1:51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1914</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>2093</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>2092</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>1735</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>1736</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="G12" s="38">
+        <v>28916</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1234518</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>2096</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>2096</v>
+      </c>
+      <c r="K12" t="s">
         <v>7</v>
       </c>
-      <c r="L13" t="s">
+      <c r="L12" t="s">
         <v>7</v>
       </c>
-      <c r="M13" s="39" t="s">
+      <c r="M12" t="s">
         <v>42</v>
       </c>
-      <c r="N13" s="39" t="s">
-        <v>2098</v>
-      </c>
-      <c r="O13" s="39" t="s">
-        <v>1916</v>
-      </c>
-      <c r="P13" s="39" t="s">
-        <v>1831</v>
-      </c>
-      <c r="Q13" s="39" t="s">
-        <v>1917</v>
-      </c>
-      <c r="R13" s="39" t="s">
+      <c r="N12" s="2" t="s">
+        <v>1783</v>
+      </c>
+      <c r="O12" s="37" t="s">
+        <v>1740</v>
+      </c>
+      <c r="P12" s="9" t="s">
+        <v>1764</v>
+      </c>
+      <c r="Q12" s="8" t="s">
+        <v>1825</v>
+      </c>
+      <c r="R12" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="S13" s="39" t="s">
-        <v>1918</v>
-      </c>
-      <c r="T13" s="39" t="s">
-        <v>1915</v>
-      </c>
-      <c r="U13" s="39" t="s">
-        <v>1915</v>
-      </c>
-      <c r="V13" s="39" t="s">
-        <v>1915</v>
-      </c>
-      <c r="W13" s="39" t="s">
-        <v>1915</v>
-      </c>
-      <c r="X13" s="39" t="s">
-        <v>1915</v>
-      </c>
-      <c r="Y13" s="39" t="s">
-        <v>1915</v>
-      </c>
-      <c r="Z13" s="39" t="s">
-        <v>1921</v>
-      </c>
-      <c r="AA13" s="39">
-        <v>220906003</v>
-      </c>
-      <c r="AB13" s="39" t="s">
-        <v>1922</v>
-      </c>
-      <c r="AC13" s="39" t="s">
-        <v>1915</v>
-      </c>
-      <c r="AD13" s="39" t="s">
-        <v>1915</v>
-      </c>
-      <c r="AF13" s="39" t="s">
-        <v>1919</v>
-      </c>
-      <c r="AG13" s="39">
-        <v>3216</v>
-      </c>
-      <c r="AH13" s="39" t="s">
+      <c r="S12" s="2" t="s">
+        <v>1812</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>1818</v>
+      </c>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2" t="s">
+        <v>1796</v>
+      </c>
+      <c r="W12" s="2" t="s">
+        <v>1803</v>
+      </c>
+      <c r="X12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y12" s="2" t="s">
+        <v>1800</v>
+      </c>
+      <c r="Z12" s="2">
+        <v>87854546</v>
+      </c>
+      <c r="AA12" s="2">
+        <v>221234575</v>
+      </c>
+      <c r="AB12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF12" s="2" t="s">
+        <v>1826</v>
+      </c>
+      <c r="AG12" s="2">
+        <v>1234</v>
+      </c>
+      <c r="AH12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI12" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ12" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="AK13" s="39" t="s">
-        <v>871</v>
-      </c>
-      <c r="AL13" s="39">
+      <c r="AK12" s="2" t="s">
+        <v>910</v>
+      </c>
+      <c r="AL12" s="2">
+        <v>2010</v>
+      </c>
+      <c r="AM12" s="2" t="s">
+        <v>1860</v>
+      </c>
+      <c r="AN12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO12" s="2">
+        <v>1980</v>
+      </c>
+      <c r="AP12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AQ12" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="AS12" s="2" t="s">
+        <v>1838</v>
+      </c>
+      <c r="AT12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AU12" s="2">
+        <v>2001</v>
+      </c>
+      <c r="AV12" s="2">
         <v>2014</v>
       </c>
-      <c r="AM13" s="39" t="s">
-        <v>1829</v>
-      </c>
-      <c r="AN13" t="s">
+      <c r="AW12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AX12" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AW13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AY12" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1868</v>
       </c>
       <c r="B14" s="39" t="s">
-        <v>1932</v>
+        <v>1929</v>
       </c>
       <c r="C14" s="39" t="s">
-        <v>1933</v>
+        <v>1930</v>
       </c>
       <c r="D14" s="39" t="s">
-        <v>1934</v>
+        <v>1931</v>
       </c>
       <c r="E14" s="39" t="s">
-        <v>1935</v>
+        <v>1915</v>
       </c>
       <c r="F14" s="39" t="s">
         <v>1915</v>
       </c>
       <c r="G14" s="40">
-        <v>36201</v>
+        <v>35249</v>
       </c>
       <c r="H14" s="39">
-        <v>1312627</v>
+        <v>1260026</v>
       </c>
       <c r="I14" s="41" t="s">
-        <v>1923</v>
-      </c>
-      <c r="J14" s="39" t="s">
-        <v>1923</v>
+        <v>1920</v>
+      </c>
+      <c r="J14" s="41" t="s">
+        <v>1920</v>
       </c>
       <c r="K14" t="s">
         <v>7</v>
@@ -10759,13 +10777,13 @@
         <v>42</v>
       </c>
       <c r="N14" s="39" t="s">
-        <v>2097</v>
+        <v>2098</v>
       </c>
       <c r="O14" s="39" t="s">
-        <v>1747</v>
+        <v>1916</v>
       </c>
       <c r="P14" s="39" t="s">
-        <v>41</v>
+        <v>1831</v>
       </c>
       <c r="Q14" s="39" t="s">
         <v>1917</v>
@@ -10774,7 +10792,7 @@
         <v>60</v>
       </c>
       <c r="S14" s="39" t="s">
-        <v>40</v>
+        <v>1918</v>
       </c>
       <c r="T14" s="39" t="s">
         <v>1915</v>
@@ -10783,7 +10801,7 @@
         <v>1915</v>
       </c>
       <c r="V14" s="39" t="s">
-        <v>1924</v>
+        <v>1915</v>
       </c>
       <c r="W14" s="39" t="s">
         <v>1915</v>
@@ -10795,13 +10813,13 @@
         <v>1915</v>
       </c>
       <c r="Z14" s="39" t="s">
-        <v>1925</v>
+        <v>1921</v>
       </c>
       <c r="AA14" s="39">
-        <v>273276131</v>
+        <v>220906003</v>
       </c>
       <c r="AB14" s="39" t="s">
-        <v>1926</v>
+        <v>1922</v>
       </c>
       <c r="AC14" s="39" t="s">
         <v>1915</v>
@@ -10810,19 +10828,19 @@
         <v>1915</v>
       </c>
       <c r="AF14" s="39" t="s">
-        <v>1927</v>
+        <v>1919</v>
       </c>
       <c r="AG14" s="39">
-        <v>3320</v>
+        <v>3216</v>
       </c>
       <c r="AH14" s="39" t="s">
         <v>64</v>
       </c>
       <c r="AK14" s="39" t="s">
-        <v>824</v>
+        <v>871</v>
       </c>
       <c r="AL14" s="39">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="AM14" s="39" t="s">
         <v>1829</v>
@@ -10831,37 +10849,39 @@
         <v>64</v>
       </c>
       <c r="AW14" t="s">
-        <v>1843</v>
-      </c>
-    </row>
-    <row r="15" spans="1:51" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1867</v>
-      </c>
-      <c r="B15" s="51" t="s">
-        <v>2099</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>2100</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>1735</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>1736</v>
-      </c>
-      <c r="F15" s="10"/>
-      <c r="G15" s="6" t="s">
-        <v>2101</v>
-      </c>
-      <c r="H15" s="2">
-        <v>1234560</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>2102</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>2102</v>
+        <v>1868</v>
+      </c>
+      <c r="B15" s="39" t="s">
+        <v>1932</v>
+      </c>
+      <c r="C15" s="39" t="s">
+        <v>1933</v>
+      </c>
+      <c r="D15" s="39" t="s">
+        <v>1934</v>
+      </c>
+      <c r="E15" s="39" t="s">
+        <v>1935</v>
+      </c>
+      <c r="F15" s="39" t="s">
+        <v>1915</v>
+      </c>
+      <c r="G15" s="40">
+        <v>36201</v>
+      </c>
+      <c r="H15" s="39">
+        <v>1312627</v>
+      </c>
+      <c r="I15" s="41" t="s">
+        <v>1923</v>
+      </c>
+      <c r="J15" s="39" t="s">
+        <v>1923</v>
       </c>
       <c r="K15" t="s">
         <v>7</v>
@@ -10869,447 +10889,419 @@
       <c r="L15" t="s">
         <v>7</v>
       </c>
-      <c r="M15" t="s">
+      <c r="M15" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="N15" s="2" t="s">
+      <c r="N15" s="39" t="s">
+        <v>2097</v>
+      </c>
+      <c r="O15" s="39" t="s">
+        <v>1747</v>
+      </c>
+      <c r="P15" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q15" s="39" t="s">
+        <v>1917</v>
+      </c>
+      <c r="R15" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="S15" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="T15" s="39" t="s">
+        <v>1915</v>
+      </c>
+      <c r="U15" s="39" t="s">
+        <v>1915</v>
+      </c>
+      <c r="V15" s="39" t="s">
+        <v>1924</v>
+      </c>
+      <c r="W15" s="39" t="s">
+        <v>1915</v>
+      </c>
+      <c r="X15" s="39" t="s">
+        <v>1915</v>
+      </c>
+      <c r="Y15" s="39" t="s">
+        <v>1915</v>
+      </c>
+      <c r="Z15" s="39" t="s">
+        <v>1925</v>
+      </c>
+      <c r="AA15" s="39">
+        <v>273276131</v>
+      </c>
+      <c r="AB15" s="39" t="s">
+        <v>1926</v>
+      </c>
+      <c r="AC15" s="39" t="s">
+        <v>1915</v>
+      </c>
+      <c r="AD15" s="39" t="s">
+        <v>1915</v>
+      </c>
+      <c r="AF15" s="39" t="s">
+        <v>1927</v>
+      </c>
+      <c r="AG15" s="39">
+        <v>3320</v>
+      </c>
+      <c r="AH15" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK15" s="39" t="s">
+        <v>824</v>
+      </c>
+      <c r="AL15" s="39">
+        <v>2016</v>
+      </c>
+      <c r="AM15" s="39" t="s">
+        <v>1829</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>64</v>
+      </c>
+      <c r="AW15" t="s">
+        <v>1843</v>
+      </c>
+    </row>
+    <row r="16" spans="1:51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B16" s="51" t="s">
+        <v>2099</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>2100</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>1735</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>1736</v>
+      </c>
+      <c r="F16" s="10"/>
+      <c r="G16" s="6" t="s">
+        <v>2101</v>
+      </c>
+      <c r="H16" s="2">
+        <v>1234560</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>2102</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>2102</v>
+      </c>
+      <c r="K16" t="s">
+        <v>7</v>
+      </c>
+      <c r="L16" t="s">
+        <v>7</v>
+      </c>
+      <c r="M16" t="s">
+        <v>42</v>
+      </c>
+      <c r="N16" s="2" t="s">
         <v>1912</v>
       </c>
-      <c r="O15" s="2" t="s">
+      <c r="O16" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="P15" s="9" t="s">
+      <c r="P16" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="Q15" s="8" t="s">
+      <c r="Q16" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="R15" s="9" t="s">
+      <c r="R16" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="S15" s="2" t="s">
+      <c r="S16" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="T15" s="2" t="s">
+      <c r="T16" s="2" t="s">
         <v>1819</v>
       </c>
-      <c r="U15" s="2"/>
-      <c r="V15" s="2" t="s">
+      <c r="U16" s="2"/>
+      <c r="V16" s="2" t="s">
         <v>1792</v>
       </c>
-      <c r="W15" s="2" t="s">
+      <c r="W16" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="X15" s="2"/>
-      <c r="Y15" s="2"/>
-      <c r="Z15" s="2">
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="2">
         <v>87854522</v>
       </c>
-      <c r="AA15" s="2">
+      <c r="AA16" s="2">
         <v>221234567</v>
       </c>
-      <c r="AB15" s="2" t="s">
+      <c r="AB16" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AC15" s="2" t="s">
+      <c r="AC16" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="AD15" s="2" t="s">
+      <c r="AD16" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AE15" s="2" t="s">
+      <c r="AE16" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="AF15" s="2" t="s">
+      <c r="AF16" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AG15" s="2">
+      <c r="AG16" s="2">
         <v>6104</v>
       </c>
-      <c r="AH15" s="2" t="s">
+      <c r="AH16" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="AI15" s="2" t="s">
+      <c r="AI16" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="AJ15" s="11" t="s">
+      <c r="AJ16" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="AK15" s="2" t="s">
+      <c r="AK16" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="AL15" s="2">
+      <c r="AL16" s="2">
         <v>2010</v>
       </c>
-      <c r="AM15" s="2" t="s">
+      <c r="AM16" s="2" t="s">
         <v>761</v>
       </c>
-      <c r="AN15" s="2" t="s">
+      <c r="AN16" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="AO15" s="2">
+      <c r="AO16" s="2">
         <v>2011</v>
       </c>
-      <c r="AP15" s="2" t="s">
+      <c r="AP16" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AQ15" s="2" t="s">
+      <c r="AQ16" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="AS15" s="2" t="s">
+      <c r="AS16" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AT15" s="2" t="s">
+      <c r="AT16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AU15" s="2">
+      <c r="AU16" s="2">
         <v>2010</v>
       </c>
-      <c r="AV15" s="2">
+      <c r="AV16" s="2">
         <v>2014</v>
       </c>
-      <c r="AW15" s="2" t="s">
+      <c r="AW16" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AX15" s="2" t="s">
+      <c r="AX16" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AY15" s="2" t="s">
+      <c r="AY16" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="9"/>
-      <c r="S19" s="2"/>
-      <c r="T19" s="2"/>
-      <c r="U19" s="2"/>
-      <c r="V19" s="2"/>
-      <c r="W19" s="2"/>
-      <c r="X19" s="2"/>
-      <c r="Y19" s="2"/>
-      <c r="Z19" s="2"/>
-      <c r="AA19" s="2"/>
-      <c r="AB19" s="2"/>
-      <c r="AC19" s="2"/>
-      <c r="AD19" s="2"/>
-      <c r="AE19" s="2"/>
-      <c r="AF19" s="2"/>
-      <c r="AG19" s="2"/>
-      <c r="AH19" s="2"/>
-      <c r="AI19" s="2"/>
-      <c r="AJ19" s="11"/>
-      <c r="AK19" s="2"/>
-      <c r="AL19" s="2"/>
-      <c r="AM19" s="2"/>
-      <c r="AN19" s="2"/>
-      <c r="AO19" s="2"/>
-      <c r="AP19" s="2"/>
-      <c r="AQ19" s="2"/>
-      <c r="AS19" s="2"/>
-      <c r="AT19" s="2"/>
-      <c r="AU19" s="2"/>
-      <c r="AV19" s="2"/>
-      <c r="AW19" s="2"/>
-      <c r="AX19" s="2"/>
-      <c r="AY19" s="2"/>
-    </row>
-    <row r="21" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="17" spans="1:51" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="2"/>
+      <c r="AB20" s="2"/>
+      <c r="AC20" s="2"/>
+      <c r="AD20" s="2"/>
+      <c r="AE20" s="2"/>
+      <c r="AF20" s="2"/>
+      <c r="AG20" s="2"/>
+      <c r="AH20" s="2"/>
+      <c r="AI20" s="2"/>
+      <c r="AJ20" s="11"/>
+      <c r="AK20" s="2"/>
+      <c r="AL20" s="2"/>
+      <c r="AM20" s="2"/>
+      <c r="AN20" s="2"/>
+      <c r="AO20" s="2"/>
+      <c r="AP20" s="2"/>
+      <c r="AQ20" s="2"/>
+      <c r="AS20" s="2"/>
+      <c r="AT20" s="2"/>
+      <c r="AU20" s="2"/>
+      <c r="AV20" s="2"/>
+      <c r="AW20" s="2"/>
+      <c r="AX20" s="2"/>
+      <c r="AY20" s="2"/>
+    </row>
+    <row r="22" spans="1:51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>1914</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B22" s="5" t="s">
         <v>1936</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C22" s="5" t="s">
         <v>1937</v>
       </c>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="38">
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="38">
         <v>30235</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H22" s="2">
         <v>2232920471</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="I22" s="3" t="s">
         <v>1938</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="J22" s="3" t="s">
         <v>1938</v>
       </c>
-      <c r="K21" t="s">
+      <c r="K22" t="s">
         <v>7</v>
       </c>
-      <c r="L21" t="s">
+      <c r="L22" t="s">
         <v>7</v>
       </c>
-      <c r="M21" t="s">
+      <c r="M22" t="s">
         <v>42</v>
       </c>
-      <c r="N21" s="2" t="s">
+      <c r="N22" s="2" t="s">
         <v>1912</v>
       </c>
-      <c r="O21" s="2" t="s">
+      <c r="O22" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="P21" s="9" t="s">
+      <c r="P22" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="Q21" s="8" t="s">
+      <c r="Q22" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="R21" s="9" t="s">
+      <c r="R22" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="S21" s="2" t="s">
+      <c r="S22" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="T21" s="2" t="s">
+      <c r="T22" s="2" t="s">
         <v>1819</v>
       </c>
-      <c r="U21" s="2"/>
-      <c r="V21" s="2" t="s">
+      <c r="U22" s="2"/>
+      <c r="V22" s="2" t="s">
         <v>1792</v>
       </c>
-      <c r="W21" s="2" t="s">
+      <c r="W22" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="X21" s="2"/>
-      <c r="Y21" s="2"/>
-      <c r="Z21" s="2">
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="2">
         <v>87854522</v>
       </c>
-      <c r="AA21" s="2">
+      <c r="AA22" s="2">
         <v>221234567</v>
       </c>
-      <c r="AB21" s="2" t="s">
+      <c r="AB22" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AC21" s="2" t="s">
+      <c r="AC22" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="AD21" s="2" t="s">
+      <c r="AD22" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AE21" s="2" t="s">
+      <c r="AE22" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="AF21" s="2" t="s">
+      <c r="AF22" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AG21" s="2">
+      <c r="AG22" s="2">
         <v>6104</v>
       </c>
-      <c r="AH21" s="2" t="s">
+      <c r="AH22" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="AI21" s="2" t="s">
+      <c r="AI22" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="AJ21" s="11" t="s">
+      <c r="AJ22" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="AK21" s="2" t="s">
+      <c r="AK22" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="AL21" s="2">
+      <c r="AL22" s="2">
         <v>2010</v>
       </c>
-      <c r="AM21" s="2" t="s">
+      <c r="AM22" s="2" t="s">
         <v>761</v>
       </c>
-      <c r="AN21" s="2" t="s">
+      <c r="AN22" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="AO21" s="2">
+      <c r="AO22" s="2">
         <v>2011</v>
       </c>
-      <c r="AP21" s="2" t="s">
+      <c r="AP22" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AQ21" s="2" t="s">
+      <c r="AQ22" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="AS21" s="2" t="s">
+      <c r="AS22" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AT21" s="2" t="s">
+      <c r="AT22" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AU21" s="2">
+      <c r="AU22" s="2">
         <v>2010</v>
       </c>
-      <c r="AV21" s="2">
+      <c r="AV22" s="2">
         <v>2014</v>
       </c>
-      <c r="AW21" s="2" t="s">
+      <c r="AW22" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AX21" s="2" t="s">
+      <c r="AX22" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AY21" s="2" t="s">
+      <c r="AY22" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:51" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>1847</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>1848</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>1735</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>1736</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>1846</v>
-      </c>
-      <c r="F24" s="6">
-        <v>18275</v>
-      </c>
-      <c r="G24" s="2">
-        <v>1234560</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>1849</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>1849</v>
-      </c>
-      <c r="J24" t="s">
-        <v>7</v>
-      </c>
-      <c r="K24" t="s">
-        <v>7</v>
-      </c>
-      <c r="L24" t="s">
-        <v>1771</v>
-      </c>
-      <c r="M24" s="2" t="s">
-        <v>1772</v>
-      </c>
-      <c r="N24" s="2" t="s">
-        <v>1747</v>
-      </c>
-      <c r="O24" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="P24" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q24" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="R24" s="2" t="s">
-        <v>1813</v>
-      </c>
-      <c r="S24" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="T24" s="2" t="s">
-        <v>1814</v>
-      </c>
-      <c r="U24" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="V24" s="2"/>
-      <c r="W24" s="2"/>
-      <c r="X24" s="2"/>
-      <c r="Y24" s="2">
-        <v>87854522</v>
-      </c>
-      <c r="Z24" s="2">
-        <v>221234567</v>
-      </c>
-      <c r="AA24" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB24" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC24" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AD24" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AE24" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AF24" s="2">
-        <v>6104</v>
-      </c>
-      <c r="AG24" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AH24" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AI24" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="AJ24" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AK24" s="2">
-        <v>2010</v>
-      </c>
-      <c r="AL24" s="2" t="s">
-        <v>761</v>
-      </c>
-      <c r="AM24" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AN24" s="2">
-        <v>2011</v>
-      </c>
-      <c r="AO24" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AP24" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AR24" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AS24" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AT24" s="2">
-        <v>2010</v>
-      </c>
-      <c r="AU24" s="2">
-        <v>2014</v>
-      </c>
-      <c r="AV24" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AW24" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AX24" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="25" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:51" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>1847</v>
       </c>
@@ -11319,19 +11311,23 @@
       <c r="C25" s="10" t="s">
         <v>1735</v>
       </c>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
+      <c r="D25" s="10" t="s">
+        <v>1736</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>1846</v>
+      </c>
       <c r="F25" s="6">
-        <v>18733</v>
+        <v>18275</v>
       </c>
       <c r="G25" s="2">
-        <v>1234561</v>
+        <v>1234560</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="J25" t="s">
         <v>7</v>
@@ -11340,47 +11336,43 @@
         <v>7</v>
       </c>
       <c r="L25" t="s">
-        <v>1773</v>
+        <v>1771</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>1786</v>
+        <v>1772</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>43</v>
+        <v>1747</v>
       </c>
       <c r="O25" s="9" t="s">
-        <v>1822</v>
+        <v>41</v>
       </c>
       <c r="P25" s="8" t="s">
         <v>41</v>
       </c>
       <c r="Q25" s="9" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>1807</v>
+        <v>1813</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>1820</v>
-      </c>
-      <c r="T25" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="T25" s="2" t="s">
+        <v>1814</v>
+      </c>
       <c r="U25" s="2" t="s">
-        <v>1790</v>
-      </c>
-      <c r="V25" s="2" t="s">
-        <v>1797</v>
-      </c>
-      <c r="W25" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="X25" s="2" t="s">
-        <v>34</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="2"/>
       <c r="Y25" s="2">
-        <v>87854525</v>
+        <v>87854522</v>
       </c>
       <c r="Z25" s="2">
-        <v>221234568</v>
+        <v>221234567</v>
       </c>
       <c r="AA25" s="2" t="s">
         <v>51</v>
@@ -11398,64 +11390,61 @@
         <v>33</v>
       </c>
       <c r="AF25" s="2">
-        <v>6205</v>
+        <v>6104</v>
       </c>
       <c r="AG25" s="2" t="s">
         <v>60</v>
       </c>
       <c r="AH25" s="2" t="s">
-        <v>1827</v>
+        <v>72</v>
       </c>
       <c r="AI25" s="11" t="s">
         <v>64</v>
       </c>
       <c r="AJ25" s="2" t="s">
-        <v>888</v>
+        <v>73</v>
       </c>
       <c r="AK25" s="2">
         <v>2010</v>
       </c>
       <c r="AL25" s="2" t="s">
-        <v>1829</v>
+        <v>761</v>
       </c>
       <c r="AM25" s="2" t="s">
         <v>60</v>
       </c>
       <c r="AN25" s="2">
+        <v>2011</v>
+      </c>
+      <c r="AO25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP25" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AR25" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AT25" s="2">
         <v>2010</v>
       </c>
-      <c r="AO25" s="2" t="s">
-        <v>616</v>
-      </c>
-      <c r="AP25" s="2" t="s">
-        <v>616</v>
-      </c>
-      <c r="AQ25" s="2" t="s">
-        <v>1832</v>
-      </c>
-      <c r="AR25" s="2" t="s">
-        <v>1834</v>
-      </c>
-      <c r="AS25" s="2" t="s">
-        <v>1839</v>
-      </c>
-      <c r="AT25" s="2">
-        <v>2011</v>
-      </c>
       <c r="AU25" s="2">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="AV25" s="2" t="s">
-        <v>1843</v>
+        <v>61</v>
       </c>
       <c r="AW25" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="AX25" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>1847</v>
       </c>
@@ -11465,21 +11454,19 @@
       <c r="C26" s="10" t="s">
         <v>1735</v>
       </c>
-      <c r="D26" s="10" t="s">
-        <v>1736</v>
-      </c>
+      <c r="D26" s="10"/>
       <c r="E26" s="10"/>
       <c r="F26" s="6">
-        <v>21844</v>
+        <v>18733</v>
       </c>
       <c r="G26" s="2">
-        <v>1234562</v>
+        <v>1234561</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>1857</v>
+        <v>1850</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>1857</v>
+        <v>1850</v>
       </c>
       <c r="J26" t="s">
         <v>7</v>
@@ -11488,47 +11475,47 @@
         <v>7</v>
       </c>
       <c r="L26" t="s">
-        <v>1775</v>
+        <v>1773</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>1774</v>
-      </c>
-      <c r="N26" s="37" t="s">
-        <v>1745</v>
+        <v>1786</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="O26" s="9" t="s">
-        <v>1746</v>
+        <v>1822</v>
       </c>
       <c r="P26" s="8" t="s">
-        <v>1746</v>
+        <v>41</v>
       </c>
       <c r="Q26" s="9" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="R26" s="2" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>1819</v>
-      </c>
-      <c r="T26" s="2" t="s">
-        <v>1821</v>
-      </c>
+        <v>1820</v>
+      </c>
+      <c r="T26" s="2"/>
       <c r="U26" s="2" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="V26" s="2" t="s">
-        <v>1802</v>
+        <v>1797</v>
       </c>
       <c r="W26" s="2" t="s">
-        <v>1801</v>
-      </c>
-      <c r="X26" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="X26" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="Y26" s="2">
-        <v>87854528</v>
+        <v>87854525</v>
       </c>
       <c r="Z26" s="2">
-        <v>221234569</v>
+        <v>221234568</v>
       </c>
       <c r="AA26" s="2" t="s">
         <v>51</v>
@@ -11543,63 +11530,67 @@
         <v>52</v>
       </c>
       <c r="AE26" s="2" t="s">
-        <v>1844</v>
+        <v>33</v>
       </c>
       <c r="AF26" s="2">
-        <v>7122</v>
+        <v>6205</v>
       </c>
       <c r="AG26" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH26" s="2" t="s">
+        <v>1827</v>
+      </c>
+      <c r="AI26" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="AH26" s="2"/>
-      <c r="AI26" s="11"/>
       <c r="AJ26" s="2" t="s">
-        <v>882</v>
+        <v>888</v>
       </c>
       <c r="AK26" s="2">
         <v>2010</v>
       </c>
       <c r="AL26" s="2" t="s">
-        <v>1858</v>
+        <v>1829</v>
       </c>
       <c r="AM26" s="2" t="s">
         <v>60</v>
       </c>
       <c r="AN26" s="2">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="AO26" s="2" t="s">
-        <v>1740</v>
+        <v>616</v>
       </c>
       <c r="AP26" s="2" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="AQ26" s="2" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="AR26" s="2" t="s">
-        <v>31</v>
+        <v>1834</v>
       </c>
       <c r="AS26" s="2" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="AT26" s="2">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="AU26" s="2">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="AV26" s="2" t="s">
         <v>1843</v>
       </c>
       <c r="AW26" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="AX26" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="27" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>1847</v>
       </c>
@@ -11609,19 +11600,21 @@
       <c r="C27" s="10" t="s">
         <v>1735</v>
       </c>
-      <c r="D27" s="10"/>
+      <c r="D27" s="10" t="s">
+        <v>1736</v>
+      </c>
       <c r="E27" s="10"/>
       <c r="F27" s="6">
-        <v>19461</v>
+        <v>21844</v>
       </c>
       <c r="G27" s="2">
-        <v>1234563</v>
+        <v>1234562</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>1851</v>
+        <v>1857</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>1851</v>
+        <v>1857</v>
       </c>
       <c r="J27" t="s">
         <v>7</v>
@@ -11630,45 +11623,47 @@
         <v>7</v>
       </c>
       <c r="L27" t="s">
-        <v>1769</v>
+        <v>1775</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>1787</v>
-      </c>
-      <c r="N27" s="2" t="s">
-        <v>1759</v>
+        <v>1774</v>
+      </c>
+      <c r="N27" s="37" t="s">
+        <v>1745</v>
       </c>
       <c r="O27" s="9" t="s">
-        <v>1823</v>
+        <v>1746</v>
       </c>
       <c r="P27" s="8" t="s">
-        <v>41</v>
+        <v>1746</v>
       </c>
       <c r="Q27" s="9" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="R27" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="S27" s="2"/>
-      <c r="T27" s="2"/>
+        <v>1808</v>
+      </c>
+      <c r="S27" s="2" t="s">
+        <v>1819</v>
+      </c>
+      <c r="T27" s="2" t="s">
+        <v>1821</v>
+      </c>
       <c r="U27" s="2" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="V27" s="2" t="s">
-        <v>36</v>
+        <v>1802</v>
       </c>
       <c r="W27" s="2" t="s">
-        <v>1805</v>
-      </c>
-      <c r="X27" s="2" t="s">
-        <v>34</v>
-      </c>
+        <v>1801</v>
+      </c>
+      <c r="X27" s="2"/>
       <c r="Y27" s="2">
-        <v>87854531</v>
+        <v>87854528</v>
       </c>
       <c r="Z27" s="2">
-        <v>221234570</v>
+        <v>221234569</v>
       </c>
       <c r="AA27" s="2" t="s">
         <v>51</v>
@@ -11683,66 +11678,85 @@
         <v>52</v>
       </c>
       <c r="AE27" s="2" t="s">
-        <v>33</v>
+        <v>1844</v>
       </c>
       <c r="AF27" s="2">
-        <v>6304</v>
+        <v>7122</v>
       </c>
       <c r="AG27" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AH27" s="2" t="s">
-        <v>1827</v>
-      </c>
-      <c r="AI27" s="11" t="s">
-        <v>60</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="AH27" s="2"/>
+      <c r="AI27" s="11"/>
       <c r="AJ27" s="2" t="s">
-        <v>854</v>
+        <v>882</v>
       </c>
       <c r="AK27" s="2">
         <v>2010</v>
       </c>
       <c r="AL27" s="2" t="s">
-        <v>1828</v>
+        <v>1858</v>
       </c>
       <c r="AM27" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN27" s="2">
+        <v>2012</v>
+      </c>
+      <c r="AO27" s="2" t="s">
+        <v>1740</v>
+      </c>
+      <c r="AP27" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="AQ27" s="2" t="s">
+        <v>1833</v>
+      </c>
+      <c r="AR27" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AS27" s="2" t="s">
+        <v>1840</v>
+      </c>
+      <c r="AT27" s="2">
+        <v>2012</v>
+      </c>
+      <c r="AU27" s="2">
+        <v>2010</v>
+      </c>
+      <c r="AV27" s="2" t="s">
+        <v>1843</v>
+      </c>
+      <c r="AW27" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AN27" s="2"/>
-      <c r="AO27" s="2"/>
-      <c r="AP27" s="2"/>
-      <c r="AR27" s="2"/>
-      <c r="AS27" s="2"/>
-      <c r="AT27" s="2"/>
-      <c r="AU27" s="2"/>
-      <c r="AV27" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AW27" s="2"/>
-      <c r="AX27" s="2"/>
-    </row>
-    <row r="28" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AX27" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>1847</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>1848</v>
       </c>
-      <c r="C28" s="10"/>
+      <c r="C28" s="10" t="s">
+        <v>1735</v>
+      </c>
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
       <c r="F28" s="6">
-        <v>19832</v>
+        <v>19461</v>
       </c>
       <c r="G28" s="2">
-        <v>1234564</v>
+        <v>1234563</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="J28" t="s">
         <v>7</v>
@@ -11751,49 +11765,45 @@
         <v>7</v>
       </c>
       <c r="L28" t="s">
-        <v>31</v>
+        <v>1769</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>1784</v>
-      </c>
-      <c r="N28" s="37" t="s">
-        <v>1760</v>
+        <v>1787</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>1759</v>
       </c>
       <c r="O28" s="9" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="P28" s="8" t="s">
         <v>41</v>
       </c>
       <c r="Q28" s="9" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="R28" s="2" t="s">
-        <v>1811</v>
-      </c>
-      <c r="S28" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="T28" s="2" t="s">
-        <v>38</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
       <c r="U28" s="2" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="V28" s="2" t="s">
-        <v>1798</v>
+        <v>36</v>
       </c>
       <c r="W28" s="2" t="s">
-        <v>35</v>
+        <v>1805</v>
       </c>
       <c r="X28" s="2" t="s">
-        <v>1806</v>
+        <v>34</v>
       </c>
       <c r="Y28" s="2">
-        <v>87854534</v>
+        <v>87854531</v>
       </c>
       <c r="Z28" s="2">
-        <v>221234571</v>
+        <v>221234570</v>
       </c>
       <c r="AA28" s="2" t="s">
         <v>51</v>
@@ -11811,88 +11821,63 @@
         <v>33</v>
       </c>
       <c r="AF28" s="2">
-        <v>6104</v>
+        <v>6304</v>
       </c>
       <c r="AG28" s="2" t="s">
         <v>60</v>
       </c>
       <c r="AH28" s="2" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="AI28" s="11" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="AJ28" s="2" t="s">
-        <v>827</v>
+        <v>854</v>
       </c>
       <c r="AK28" s="2">
         <v>2010</v>
       </c>
       <c r="AL28" s="2" t="s">
-        <v>1830</v>
+        <v>1828</v>
       </c>
       <c r="AM28" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AN28" s="2">
-        <v>2011</v>
-      </c>
-      <c r="AO28" s="2" t="s">
-        <v>1845</v>
-      </c>
-      <c r="AP28" s="2" t="s">
-        <v>615</v>
-      </c>
-      <c r="AQ28" s="2" t="s">
-        <v>1831</v>
-      </c>
-      <c r="AR28" s="2" t="s">
-        <v>1835</v>
-      </c>
-      <c r="AS28" s="2" t="s">
-        <v>1842</v>
-      </c>
-      <c r="AT28" s="2">
-        <v>2005</v>
-      </c>
-      <c r="AU28" s="2">
-        <v>2015</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="AN28" s="2"/>
+      <c r="AO28" s="2"/>
+      <c r="AP28" s="2"/>
+      <c r="AR28" s="2"/>
+      <c r="AS28" s="2"/>
+      <c r="AT28" s="2"/>
+      <c r="AU28" s="2"/>
       <c r="AV28" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AW28" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AX28" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="29" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AW28" s="2"/>
+      <c r="AX28" s="2"/>
+    </row>
+    <row r="29" spans="1:51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>1847</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>1848</v>
       </c>
-      <c r="C29" s="10" t="s">
-        <v>1735</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>1736</v>
-      </c>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
       <c r="E29" s="10"/>
       <c r="F29" s="6">
-        <v>20282</v>
+        <v>19832</v>
       </c>
       <c r="G29" s="2">
-        <v>1234565</v>
+        <v>1234564</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="J29" t="s">
         <v>7</v>
@@ -11901,49 +11886,49 @@
         <v>7</v>
       </c>
       <c r="L29" t="s">
-        <v>1779</v>
+        <v>31</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>1778</v>
+        <v>1784</v>
       </c>
       <c r="N29" s="37" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="O29" s="9" t="s">
-        <v>1761</v>
+        <v>1824</v>
       </c>
       <c r="P29" s="8" t="s">
         <v>41</v>
       </c>
       <c r="Q29" s="9" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="R29" s="2" t="s">
-        <v>1810</v>
+        <v>1811</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>1815</v>
+        <v>39</v>
       </c>
       <c r="T29" s="2" t="s">
-        <v>1816</v>
+        <v>38</v>
       </c>
       <c r="U29" s="2" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="V29" s="2" t="s">
-        <v>36</v>
+        <v>1798</v>
       </c>
       <c r="W29" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="X29" s="2" t="s">
-        <v>1789</v>
+        <v>1806</v>
       </c>
       <c r="Y29" s="2">
-        <v>87854537</v>
+        <v>87854534</v>
       </c>
       <c r="Z29" s="2">
-        <v>221234572</v>
+        <v>221234571</v>
       </c>
       <c r="AA29" s="2" t="s">
         <v>51</v>
@@ -11958,46 +11943,67 @@
         <v>52</v>
       </c>
       <c r="AE29" s="2" t="s">
-        <v>1785</v>
+        <v>33</v>
       </c>
       <c r="AF29" s="2">
-        <v>3211</v>
+        <v>6104</v>
       </c>
       <c r="AG29" s="2" t="s">
         <v>60</v>
       </c>
       <c r="AH29" s="2" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="AI29" s="11" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="AJ29" s="2" t="s">
-        <v>798</v>
+        <v>827</v>
       </c>
       <c r="AK29" s="2">
         <v>2010</v>
       </c>
       <c r="AL29" s="2" t="s">
-        <v>1827</v>
+        <v>1830</v>
       </c>
       <c r="AM29" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN29" s="2">
+        <v>2011</v>
+      </c>
+      <c r="AO29" s="2" t="s">
+        <v>1845</v>
+      </c>
+      <c r="AP29" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="AQ29" s="2" t="s">
+        <v>1831</v>
+      </c>
+      <c r="AR29" s="2" t="s">
+        <v>1835</v>
+      </c>
+      <c r="AS29" s="2" t="s">
+        <v>1842</v>
+      </c>
+      <c r="AT29" s="2">
+        <v>2005</v>
+      </c>
+      <c r="AU29" s="2">
+        <v>2015</v>
+      </c>
+      <c r="AV29" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AW29" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AX29" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AN29" s="2"/>
-      <c r="AO29" s="2"/>
-      <c r="AP29" s="2"/>
-      <c r="AR29" s="2"/>
-      <c r="AS29" s="2"/>
-      <c r="AT29" s="2"/>
-      <c r="AU29" s="2"/>
-      <c r="AV29" s="2" t="s">
-        <v>1843</v>
-      </c>
-      <c r="AW29" s="2"/>
-      <c r="AX29" s="2"/>
-    </row>
-    <row r="30" spans="1:51" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>1847</v>
       </c>
@@ -12007,19 +12013,21 @@
       <c r="C30" s="10" t="s">
         <v>1735</v>
       </c>
-      <c r="D30" s="10"/>
+      <c r="D30" s="10" t="s">
+        <v>1736</v>
+      </c>
       <c r="E30" s="10"/>
       <c r="F30" s="6">
-        <v>20557</v>
+        <v>20282</v>
       </c>
       <c r="G30" s="2">
-        <v>1234566</v>
+        <v>1234565</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="J30" t="s">
         <v>7</v>
@@ -12028,41 +12036,49 @@
         <v>7</v>
       </c>
       <c r="L30" t="s">
-        <v>1781</v>
+        <v>1779</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>1780</v>
-      </c>
-      <c r="N30" s="2" t="s">
-        <v>1762</v>
+        <v>1778</v>
+      </c>
+      <c r="N30" s="37" t="s">
+        <v>1761</v>
       </c>
       <c r="O30" s="9" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="P30" s="8" t="s">
         <v>41</v>
       </c>
       <c r="Q30" s="9" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="R30" s="2" t="s">
-        <v>1809</v>
-      </c>
-      <c r="S30" s="2"/>
-      <c r="T30" s="2"/>
+        <v>1810</v>
+      </c>
+      <c r="S30" s="2" t="s">
+        <v>1815</v>
+      </c>
+      <c r="T30" s="2" t="s">
+        <v>1816</v>
+      </c>
       <c r="U30" s="2" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="V30" s="2" t="s">
-        <v>1804</v>
-      </c>
-      <c r="W30" s="2"/>
-      <c r="X30" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="W30" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="X30" s="2" t="s">
+        <v>1789</v>
+      </c>
       <c r="Y30" s="2">
-        <v>87854540</v>
+        <v>87854537</v>
       </c>
       <c r="Z30" s="2">
-        <v>221234573</v>
+        <v>221234572</v>
       </c>
       <c r="AA30" s="2" t="s">
         <v>51</v>
@@ -12077,64 +12093,46 @@
         <v>52</v>
       </c>
       <c r="AE30" s="2" t="s">
-        <v>33</v>
+        <v>1785</v>
       </c>
       <c r="AF30" s="2">
-        <v>6104</v>
+        <v>3211</v>
       </c>
       <c r="AG30" s="2" t="s">
         <v>60</v>
       </c>
       <c r="AH30" s="2" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="AI30" s="11" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="AJ30" s="2" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="AK30" s="2">
         <v>2010</v>
       </c>
       <c r="AL30" s="2" t="s">
-        <v>72</v>
+        <v>1827</v>
       </c>
       <c r="AM30" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AN30" s="2">
-        <v>2006</v>
-      </c>
-      <c r="AO30" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AP30" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="AR30" s="2" t="s">
-        <v>1836</v>
-      </c>
-      <c r="AS30" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AT30" s="2">
-        <v>2002</v>
-      </c>
-      <c r="AU30" s="2">
-        <v>2005</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="AN30" s="2"/>
+      <c r="AO30" s="2"/>
+      <c r="AP30" s="2"/>
+      <c r="AR30" s="2"/>
+      <c r="AS30" s="2"/>
+      <c r="AT30" s="2"/>
+      <c r="AU30" s="2"/>
       <c r="AV30" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AW30" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AX30" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="31" spans="1:51" x14ac:dyDescent="0.25">
+        <v>1843</v>
+      </c>
+      <c r="AW30" s="2"/>
+      <c r="AX30" s="2"/>
+    </row>
+    <row r="31" spans="1:51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>1847</v>
       </c>
@@ -12147,16 +12145,16 @@
       <c r="D31" s="10"/>
       <c r="E31" s="10"/>
       <c r="F31" s="6">
-        <v>20952</v>
+        <v>20557</v>
       </c>
       <c r="G31" s="2">
-        <v>1234567</v>
+        <v>1234566</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="J31" t="s">
         <v>7</v>
@@ -12165,49 +12163,41 @@
         <v>7</v>
       </c>
       <c r="L31" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>1788</v>
+        <v>1780</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="O31" s="9" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="P31" s="8" t="s">
         <v>41</v>
       </c>
       <c r="Q31" s="9" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="R31" s="2" t="s">
-        <v>1742</v>
-      </c>
-      <c r="S31" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="T31" s="2" t="s">
-        <v>1817</v>
-      </c>
+        <v>1809</v>
+      </c>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
       <c r="U31" s="2" t="s">
-        <v>35</v>
+        <v>1795</v>
       </c>
       <c r="V31" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="W31" s="2" t="s">
-        <v>1799</v>
-      </c>
-      <c r="X31" s="2" t="s">
-        <v>34</v>
-      </c>
+        <v>1804</v>
+      </c>
+      <c r="W31" s="2"/>
+      <c r="X31" s="2"/>
       <c r="Y31" s="2">
-        <v>87854543</v>
+        <v>87854540</v>
       </c>
       <c r="Z31" s="2">
-        <v>221234574</v>
+        <v>221234573</v>
       </c>
       <c r="AA31" s="2" t="s">
         <v>51</v>
@@ -12228,56 +12218,58 @@
         <v>6104</v>
       </c>
       <c r="AG31" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AH31" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="AH31" s="2" t="s">
+        <v>1830</v>
+      </c>
       <c r="AI31" s="11" t="s">
         <v>64</v>
       </c>
       <c r="AJ31" s="2" t="s">
-        <v>904</v>
+        <v>799</v>
       </c>
       <c r="AK31" s="2">
         <v>2010</v>
       </c>
       <c r="AL31" s="2" t="s">
-        <v>1859</v>
+        <v>72</v>
       </c>
       <c r="AM31" s="2" t="s">
         <v>60</v>
       </c>
       <c r="AN31" s="2">
-        <v>1995</v>
+        <v>2006</v>
       </c>
       <c r="AO31" s="2" t="s">
         <v>32</v>
       </c>
       <c r="AP31" s="2" t="s">
-        <v>610</v>
+        <v>123</v>
       </c>
       <c r="AR31" s="2" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="AS31" s="2" t="s">
         <v>30</v>
       </c>
       <c r="AT31" s="2">
-        <v>1999</v>
+        <v>2002</v>
       </c>
       <c r="AU31" s="2">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="AV31" s="2" t="s">
-        <v>1843</v>
+        <v>61</v>
       </c>
       <c r="AW31" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="AX31" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="32" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>1847</v>
       </c>
@@ -12287,21 +12279,19 @@
       <c r="C32" s="10" t="s">
         <v>1735</v>
       </c>
-      <c r="D32" s="10" t="s">
-        <v>1736</v>
-      </c>
+      <c r="D32" s="10"/>
       <c r="E32" s="10"/>
       <c r="F32" s="6">
-        <v>21246</v>
+        <v>20952</v>
       </c>
       <c r="G32" s="2">
-        <v>1234568</v>
+        <v>1234567</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="J32" t="s">
         <v>7</v>
@@ -12310,47 +12300,49 @@
         <v>7</v>
       </c>
       <c r="L32" t="s">
-        <v>42</v>
+        <v>1782</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>1783</v>
-      </c>
-      <c r="N32" s="37" t="s">
-        <v>1740</v>
+        <v>1788</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>1763</v>
       </c>
       <c r="O32" s="9" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="P32" s="8" t="s">
-        <v>1825</v>
+        <v>41</v>
       </c>
       <c r="Q32" s="9" t="s">
         <v>60</v>
       </c>
       <c r="R32" s="2" t="s">
-        <v>1812</v>
+        <v>1742</v>
       </c>
       <c r="S32" s="2" t="s">
-        <v>1818</v>
-      </c>
-      <c r="T32" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="T32" s="2" t="s">
+        <v>1817</v>
+      </c>
       <c r="U32" s="2" t="s">
-        <v>1796</v>
+        <v>35</v>
       </c>
       <c r="V32" s="2" t="s">
-        <v>1803</v>
+        <v>36</v>
       </c>
       <c r="W32" s="2" t="s">
-        <v>35</v>
+        <v>1799</v>
       </c>
       <c r="X32" s="2" t="s">
-        <v>1800</v>
+        <v>34</v>
       </c>
       <c r="Y32" s="2">
-        <v>87854546</v>
+        <v>87854543</v>
       </c>
       <c r="Z32" s="2">
-        <v>221234575</v>
+        <v>221234574</v>
       </c>
       <c r="AA32" s="2" t="s">
         <v>51</v>
@@ -12365,262 +12357,259 @@
         <v>52</v>
       </c>
       <c r="AE32" s="2" t="s">
-        <v>1826</v>
+        <v>33</v>
       </c>
       <c r="AF32" s="2">
-        <v>1234</v>
+        <v>6104</v>
       </c>
       <c r="AG32" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AH32" s="2" t="s">
-        <v>72</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="AH32" s="2"/>
       <c r="AI32" s="11" t="s">
         <v>64</v>
       </c>
       <c r="AJ32" s="2" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
       <c r="AK32" s="2">
         <v>2010</v>
       </c>
       <c r="AL32" s="2" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="AM32" s="2" t="s">
         <v>60</v>
       </c>
       <c r="AN32" s="2">
-        <v>1980</v>
+        <v>1995</v>
       </c>
       <c r="AO32" s="2" t="s">
         <v>32</v>
       </c>
       <c r="AP32" s="2" t="s">
-        <v>594</v>
+        <v>610</v>
       </c>
       <c r="AR32" s="2" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="AS32" s="2" t="s">
         <v>30</v>
       </c>
       <c r="AT32" s="2">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="AU32" s="2">
-        <v>2014</v>
+        <v>2006</v>
       </c>
       <c r="AV32" s="2" t="s">
-        <v>61</v>
+        <v>1843</v>
       </c>
       <c r="AW32" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="AX32" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="Q35" s="8" t="s">
+    <row r="33" spans="1:51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>1847</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>1848</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>1735</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>1736</v>
+      </c>
+      <c r="E33" s="10"/>
+      <c r="F33" s="6">
+        <v>21246</v>
+      </c>
+      <c r="G33" s="2">
+        <v>1234568</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>1856</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>1856</v>
+      </c>
+      <c r="J33" t="s">
+        <v>7</v>
+      </c>
+      <c r="K33" t="s">
+        <v>7</v>
+      </c>
+      <c r="L33" t="s">
+        <v>42</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>1783</v>
+      </c>
+      <c r="N33" s="37" t="s">
+        <v>1740</v>
+      </c>
+      <c r="O33" s="9" t="s">
+        <v>1764</v>
+      </c>
+      <c r="P33" s="8" t="s">
+        <v>1825</v>
+      </c>
+      <c r="Q33" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="R33" s="2" t="s">
+        <v>1812</v>
+      </c>
+      <c r="S33" s="2" t="s">
+        <v>1818</v>
+      </c>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2" t="s">
+        <v>1796</v>
+      </c>
+      <c r="V33" s="2" t="s">
+        <v>1803</v>
+      </c>
+      <c r="W33" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="X33" s="2" t="s">
+        <v>1800</v>
+      </c>
+      <c r="Y33" s="2">
+        <v>87854546</v>
+      </c>
+      <c r="Z33" s="2">
+        <v>221234575</v>
+      </c>
+      <c r="AA33" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB33" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC33" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD33" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE33" s="2" t="s">
+        <v>1826</v>
+      </c>
+      <c r="AF33" s="2">
+        <v>1234</v>
+      </c>
+      <c r="AG33" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH33" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI33" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ33" s="2" t="s">
+        <v>910</v>
+      </c>
+      <c r="AK33" s="2">
+        <v>2010</v>
+      </c>
+      <c r="AL33" s="2" t="s">
+        <v>1860</v>
+      </c>
+      <c r="AM33" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN33" s="2">
+        <v>1980</v>
+      </c>
+      <c r="AO33" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP33" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="AR33" s="2" t="s">
+        <v>1838</v>
+      </c>
+      <c r="AS33" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AT33" s="2">
+        <v>2001</v>
+      </c>
+      <c r="AU33" s="2">
+        <v>2014</v>
+      </c>
+      <c r="AV33" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AW33" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AX33" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q36" s="8" t="s">
         <v>1875</v>
       </c>
     </row>
-    <row r="36" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="Q36" t="s">
+    <row r="37" spans="1:51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q37" t="s">
         <v>1869</v>
       </c>
     </row>
-    <row r="37" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="Q37" t="s">
+    <row r="38" spans="1:51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q38" t="s">
         <v>1873</v>
       </c>
-      <c r="R37" t="s">
+      <c r="R38" t="s">
         <v>1874</v>
       </c>
     </row>
-    <row r="38" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C38" t="s">
+    <row r="39" spans="1:51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
         <v>1769</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D39" s="2" t="s">
         <v>1770</v>
       </c>
-      <c r="Q38" t="s">
+      <c r="Q39" t="s">
         <v>1870</v>
       </c>
     </row>
-    <row r="39" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="Q39" t="s">
+    <row r="40" spans="1:51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q40" t="s">
         <v>1871</v>
       </c>
     </row>
-    <row r="40" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C40" t="s">
+    <row r="41" spans="1:51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
         <v>1776</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D41" s="2" t="s">
         <v>1777</v>
       </c>
-      <c r="Q40" t="s">
+      <c r="Q41" t="s">
         <v>1872</v>
       </c>
     </row>
-    <row r="48" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="E48" t="s">
+    <row r="49" spans="1:51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E49" t="s">
         <v>1841</v>
       </c>
     </row>
-    <row r="51" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+    <row r="52" spans="1:51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>1862</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>1865</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>1876</v>
-      </c>
-      <c r="D51" s="10" t="s">
-        <v>1735</v>
-      </c>
-      <c r="E51" s="10" t="s">
-        <v>1736</v>
-      </c>
-      <c r="F51" s="10" t="s">
-        <v>1846</v>
-      </c>
-      <c r="G51" s="6" t="s">
-        <v>1877</v>
-      </c>
-      <c r="H51" s="2">
-        <v>1234560</v>
-      </c>
-      <c r="I51" s="3" t="s">
-        <v>1878</v>
-      </c>
-      <c r="J51" s="3" t="s">
-        <v>1878</v>
-      </c>
-      <c r="K51" t="s">
-        <v>7</v>
-      </c>
-      <c r="L51" t="s">
-        <v>7</v>
-      </c>
-      <c r="M51" t="s">
-        <v>42</v>
-      </c>
-      <c r="N51" s="2" t="s">
-        <v>1879</v>
-      </c>
-      <c r="O51" s="2" t="s">
-        <v>1747</v>
-      </c>
-      <c r="P51" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q51" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="R51" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="S51" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="T51" s="2" t="s">
-        <v>1819</v>
-      </c>
-      <c r="U51" s="2"/>
-      <c r="V51" s="2" t="s">
-        <v>1792</v>
-      </c>
-      <c r="W51" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="X51" s="2"/>
-      <c r="Y51" s="2"/>
-      <c r="Z51" s="2">
-        <v>87854522</v>
-      </c>
-      <c r="AA51" s="2">
-        <v>221234567</v>
-      </c>
-      <c r="AB51" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC51" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD51" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AE51" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AF51" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AG51" s="2">
-        <v>6104</v>
-      </c>
-      <c r="AH51" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AI51" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AJ51" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK51" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AL51" s="2">
-        <v>2010</v>
-      </c>
-      <c r="AM51" s="2" t="s">
-        <v>761</v>
-      </c>
-      <c r="AN51" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AO51" s="2">
-        <v>2011</v>
-      </c>
-      <c r="AP51" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AQ51" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AS51" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AT51" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AU51" s="2">
-        <v>2010</v>
-      </c>
-      <c r="AV51" s="2">
-        <v>2014</v>
-      </c>
-      <c r="AW51" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AX51" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AY51" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="52" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>1863</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>1865</v>
@@ -12638,16 +12627,16 @@
         <v>1846</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>1880</v>
+        <v>1877</v>
       </c>
       <c r="H52" s="2">
         <v>1234560</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>1881</v>
+        <v>1878</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>1881</v>
+        <v>1878</v>
       </c>
       <c r="K52" t="s">
         <v>7</v>
@@ -12656,10 +12645,10 @@
         <v>7</v>
       </c>
       <c r="M52" t="s">
-        <v>1769</v>
+        <v>42</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>1864</v>
+        <v>1879</v>
       </c>
       <c r="O52" s="2" t="s">
         <v>1747</v>
@@ -12764,164 +12753,166 @@
         <v>64</v>
       </c>
     </row>
-    <row r="56" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A56" s="7" t="s">
+    <row r="53" spans="1:51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>1863</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>1865</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>1876</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>1735</v>
+      </c>
+      <c r="E53" s="10" t="s">
+        <v>1736</v>
+      </c>
+      <c r="F53" s="10" t="s">
+        <v>1846</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>1880</v>
+      </c>
+      <c r="H53" s="2">
+        <v>1234560</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>1881</v>
+      </c>
+      <c r="J53" s="3" t="s">
+        <v>1881</v>
+      </c>
+      <c r="K53" t="s">
+        <v>7</v>
+      </c>
+      <c r="L53" t="s">
+        <v>7</v>
+      </c>
+      <c r="M53" t="s">
+        <v>1769</v>
+      </c>
+      <c r="N53" s="2" t="s">
+        <v>1864</v>
+      </c>
+      <c r="O53" s="2" t="s">
+        <v>1747</v>
+      </c>
+      <c r="P53" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q53" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="R53" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="S53" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="T53" s="2" t="s">
+        <v>1819</v>
+      </c>
+      <c r="U53" s="2"/>
+      <c r="V53" s="2" t="s">
+        <v>1792</v>
+      </c>
+      <c r="W53" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X53" s="2"/>
+      <c r="Y53" s="2"/>
+      <c r="Z53" s="2">
+        <v>87854522</v>
+      </c>
+      <c r="AA53" s="2">
+        <v>221234567</v>
+      </c>
+      <c r="AB53" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC53" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD53" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE53" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF53" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG53" s="2">
+        <v>6104</v>
+      </c>
+      <c r="AH53" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI53" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ53" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK53" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL53" s="2">
+        <v>2010</v>
+      </c>
+      <c r="AM53" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="AN53" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO53" s="2">
+        <v>2011</v>
+      </c>
+      <c r="AP53" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AQ53" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AS53" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AT53" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AU53" s="2">
+        <v>2010</v>
+      </c>
+      <c r="AV53" s="2">
+        <v>2014</v>
+      </c>
+      <c r="AW53" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AX53" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AY53" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="57" spans="1:51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="7" t="s">
         <v>1910</v>
       </c>
     </row>
-    <row r="57" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>1867</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>1889</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>1890</v>
-      </c>
-      <c r="D57" s="10" t="s">
-        <v>1735</v>
-      </c>
-      <c r="E57" s="10" t="s">
-        <v>1736</v>
-      </c>
-      <c r="F57" s="10"/>
-      <c r="G57" s="6" t="s">
-        <v>1885</v>
-      </c>
-      <c r="H57" s="2">
-        <v>1234560</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>1902</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>1902</v>
-      </c>
-      <c r="K57" t="s">
-        <v>7</v>
-      </c>
-      <c r="L57" t="s">
-        <v>7</v>
-      </c>
-      <c r="M57" t="s">
-        <v>42</v>
-      </c>
-      <c r="N57" s="2" t="s">
-        <v>1887</v>
-      </c>
-      <c r="O57" s="2" t="s">
-        <v>1740</v>
-      </c>
-      <c r="P57" s="9" t="s">
-        <v>1822</v>
-      </c>
-      <c r="Q57" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="R57" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="S57" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="T57" s="2" t="s">
-        <v>1819</v>
-      </c>
-      <c r="U57" s="2"/>
-      <c r="V57" s="2" t="s">
-        <v>1792</v>
-      </c>
-      <c r="W57" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="X57" s="2"/>
-      <c r="Y57" s="2"/>
-      <c r="Z57" s="2">
-        <v>87854522</v>
-      </c>
-      <c r="AA57" s="2">
-        <v>221234567</v>
-      </c>
-      <c r="AB57" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC57" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD57" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AE57" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AF57" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AG57" s="2">
-        <v>6104</v>
-      </c>
-      <c r="AH57" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AI57" s="2" t="s">
-        <v>1830</v>
-      </c>
-      <c r="AJ57" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK57" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AL57" s="2">
-        <v>2010</v>
-      </c>
-      <c r="AM57" s="2" t="s">
-        <v>761</v>
-      </c>
-      <c r="AN57" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AO57" s="2">
-        <v>2011</v>
-      </c>
-      <c r="AP57" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AQ57" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AS57" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AT57" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AU57" s="2">
-        <v>2010</v>
-      </c>
-      <c r="AV57" s="2">
-        <v>2014</v>
-      </c>
-      <c r="AW57" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AX57" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AY57" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="58" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>1867</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>1891</v>
+        <v>1889</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>1892</v>
+        <v>1890</v>
       </c>
       <c r="D58" s="10" t="s">
         <v>1735</v>
@@ -12931,16 +12922,16 @@
       </c>
       <c r="F58" s="10"/>
       <c r="G58" s="6" t="s">
-        <v>1901</v>
+        <v>1885</v>
       </c>
       <c r="H58" s="2">
         <v>1234560</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="K58" t="s">
         <v>7</v>
@@ -12952,13 +12943,13 @@
         <v>42</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="O58" s="2" t="s">
         <v>1740</v>
       </c>
       <c r="P58" s="9" t="s">
-        <v>1882</v>
+        <v>1822</v>
       </c>
       <c r="Q58" s="8" t="s">
         <v>41</v>
@@ -13009,7 +13000,7 @@
         <v>60</v>
       </c>
       <c r="AI58" s="2" t="s">
-        <v>72</v>
+        <v>1830</v>
       </c>
       <c r="AJ58" s="11" t="s">
         <v>64</v>
@@ -13021,33 +13012,51 @@
         <v>2010</v>
       </c>
       <c r="AM58" s="2" t="s">
-        <v>1830</v>
+        <v>761</v>
       </c>
       <c r="AN58" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AO58" s="2"/>
-      <c r="AP58" s="2"/>
-      <c r="AQ58" s="2"/>
-      <c r="AS58" s="2"/>
-      <c r="AT58" s="2"/>
-      <c r="AU58" s="2"/>
-      <c r="AV58" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="AO58" s="2">
+        <v>2011</v>
+      </c>
+      <c r="AP58" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AQ58" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AS58" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AT58" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AU58" s="2">
+        <v>2010</v>
+      </c>
+      <c r="AV58" s="2">
+        <v>2014</v>
+      </c>
       <c r="AW58" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AX58" s="2"/>
-      <c r="AY58" s="2"/>
-    </row>
-    <row r="59" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AX58" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AY58" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="59" spans="1:51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>1867</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>1893</v>
+        <v>1891</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>1894</v>
+        <v>1892</v>
       </c>
       <c r="D59" s="10" t="s">
         <v>1735</v>
@@ -13057,16 +13066,16 @@
       </c>
       <c r="F59" s="10"/>
       <c r="G59" s="6" t="s">
-        <v>1884</v>
+        <v>1901</v>
       </c>
       <c r="H59" s="2">
         <v>1234560</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="K59" t="s">
         <v>7</v>
@@ -13081,10 +13090,10 @@
         <v>1888</v>
       </c>
       <c r="O59" s="2" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="P59" s="9" t="s">
-        <v>41</v>
+        <v>1882</v>
       </c>
       <c r="Q59" s="8" t="s">
         <v>41</v>
@@ -13147,7 +13156,7 @@
         <v>2010</v>
       </c>
       <c r="AM59" s="2" t="s">
-        <v>761</v>
+        <v>1830</v>
       </c>
       <c r="AN59" s="2" t="s">
         <v>64</v>
@@ -13165,15 +13174,15 @@
       <c r="AX59" s="2"/>
       <c r="AY59" s="2"/>
     </row>
-    <row r="60" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>1867</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>1898</v>
+        <v>1893</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="D60" s="10" t="s">
         <v>1735</v>
@@ -13183,16 +13192,16 @@
       </c>
       <c r="F60" s="10"/>
       <c r="G60" s="6" t="s">
-        <v>1886</v>
+        <v>1884</v>
       </c>
       <c r="H60" s="2">
         <v>1234560</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="K60" t="s">
         <v>7</v>
@@ -13204,13 +13213,13 @@
         <v>42</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>1887</v>
+        <v>1888</v>
       </c>
       <c r="O60" s="2" t="s">
-        <v>1740</v>
+        <v>1747</v>
       </c>
       <c r="P60" s="9" t="s">
-        <v>1822</v>
+        <v>41</v>
       </c>
       <c r="Q60" s="8" t="s">
         <v>41</v>
@@ -13261,7 +13270,7 @@
         <v>60</v>
       </c>
       <c r="AI60" s="2" t="s">
-        <v>1830</v>
+        <v>72</v>
       </c>
       <c r="AJ60" s="11" t="s">
         <v>64</v>
@@ -13276,48 +13285,30 @@
         <v>761</v>
       </c>
       <c r="AN60" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AO60" s="2">
-        <v>2011</v>
-      </c>
-      <c r="AP60" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AQ60" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AS60" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AT60" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AU60" s="2">
-        <v>2010</v>
-      </c>
-      <c r="AV60" s="2">
-        <v>2014</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="AO60" s="2"/>
+      <c r="AP60" s="2"/>
+      <c r="AQ60" s="2"/>
+      <c r="AS60" s="2"/>
+      <c r="AT60" s="2"/>
+      <c r="AU60" s="2"/>
+      <c r="AV60" s="2"/>
       <c r="AW60" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AX60" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AY60" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="61" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AX60" s="2"/>
+      <c r="AY60" s="2"/>
+    </row>
+    <row r="61" spans="1:51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>1867</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="D61" s="10" t="s">
         <v>1735</v>
@@ -13327,16 +13318,16 @@
       </c>
       <c r="F61" s="10"/>
       <c r="G61" s="6" t="s">
-        <v>1880</v>
+        <v>1886</v>
       </c>
       <c r="H61" s="2">
         <v>1234560</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="K61" t="s">
         <v>7</v>
@@ -13348,13 +13339,13 @@
         <v>42</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>1908</v>
+        <v>1887</v>
       </c>
       <c r="O61" s="2" t="s">
         <v>1740</v>
       </c>
       <c r="P61" s="9" t="s">
-        <v>1882</v>
+        <v>1822</v>
       </c>
       <c r="Q61" s="8" t="s">
         <v>41</v>
@@ -13405,7 +13396,7 @@
         <v>60</v>
       </c>
       <c r="AI61" s="2" t="s">
-        <v>72</v>
+        <v>1830</v>
       </c>
       <c r="AJ61" s="11" t="s">
         <v>64</v>
@@ -13417,33 +13408,51 @@
         <v>2010</v>
       </c>
       <c r="AM61" s="2" t="s">
-        <v>1830</v>
+        <v>761</v>
       </c>
       <c r="AN61" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AO61" s="2"/>
-      <c r="AP61" s="2"/>
-      <c r="AQ61" s="2"/>
-      <c r="AS61" s="2"/>
-      <c r="AT61" s="2"/>
-      <c r="AU61" s="2"/>
-      <c r="AV61" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="AO61" s="2">
+        <v>2011</v>
+      </c>
+      <c r="AP61" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AQ61" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AS61" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AT61" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AU61" s="2">
+        <v>2010</v>
+      </c>
+      <c r="AV61" s="2">
+        <v>2014</v>
+      </c>
       <c r="AW61" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AX61" s="2"/>
-      <c r="AY61" s="2"/>
-    </row>
-    <row r="62" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AX61" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AY61" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="62" spans="1:51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>1867</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="D62" s="10" t="s">
         <v>1735</v>
@@ -13453,16 +13462,16 @@
       </c>
       <c r="F62" s="10"/>
       <c r="G62" s="6" t="s">
-        <v>1884</v>
+        <v>1880</v>
       </c>
       <c r="H62" s="2">
         <v>1234560</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="K62" t="s">
         <v>7</v>
@@ -13474,13 +13483,13 @@
         <v>42</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="O62" s="2" t="s">
-        <v>1761</v>
+        <v>1740</v>
       </c>
       <c r="P62" s="9" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="Q62" s="8" t="s">
         <v>41</v>
@@ -13543,7 +13552,7 @@
         <v>2010</v>
       </c>
       <c r="AM62" s="2" t="s">
-        <v>761</v>
+        <v>1830</v>
       </c>
       <c r="AN62" s="2" t="s">
         <v>64</v>
@@ -13561,66 +13570,194 @@
       <c r="AX62" s="2"/>
       <c r="AY62" s="2"/>
     </row>
+    <row r="63" spans="1:51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>1900</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>1897</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>1735</v>
+      </c>
+      <c r="E63" s="10" t="s">
+        <v>1736</v>
+      </c>
+      <c r="F63" s="10"/>
+      <c r="G63" s="6" t="s">
+        <v>1884</v>
+      </c>
+      <c r="H63" s="2">
+        <v>1234560</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>1907</v>
+      </c>
+      <c r="J63" s="3" t="s">
+        <v>1907</v>
+      </c>
+      <c r="K63" t="s">
+        <v>7</v>
+      </c>
+      <c r="L63" t="s">
+        <v>7</v>
+      </c>
+      <c r="M63" t="s">
+        <v>42</v>
+      </c>
+      <c r="N63" s="2" t="s">
+        <v>1909</v>
+      </c>
+      <c r="O63" s="2" t="s">
+        <v>1761</v>
+      </c>
+      <c r="P63" s="9" t="s">
+        <v>1883</v>
+      </c>
+      <c r="Q63" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="R63" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="S63" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="T63" s="2" t="s">
+        <v>1819</v>
+      </c>
+      <c r="U63" s="2"/>
+      <c r="V63" s="2" t="s">
+        <v>1792</v>
+      </c>
+      <c r="W63" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X63" s="2"/>
+      <c r="Y63" s="2"/>
+      <c r="Z63" s="2">
+        <v>87854522</v>
+      </c>
+      <c r="AA63" s="2">
+        <v>221234567</v>
+      </c>
+      <c r="AB63" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC63" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD63" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE63" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF63" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG63" s="2">
+        <v>6104</v>
+      </c>
+      <c r="AH63" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI63" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ63" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK63" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL63" s="2">
+        <v>2010</v>
+      </c>
+      <c r="AM63" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="AN63" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO63" s="2"/>
+      <c r="AP63" s="2"/>
+      <c r="AQ63" s="2"/>
+      <c r="AS63" s="2"/>
+      <c r="AT63" s="2"/>
+      <c r="AU63" s="2"/>
+      <c r="AV63" s="2"/>
+      <c r="AW63" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AX63" s="2"/>
+      <c r="AY63" s="2"/>
+    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A51:A52 A21 A10:A11 A2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A52:A53 A22 A11:A12 A2:A3">
       <formula1>"Student,Staff_Search,Staff_New,Agent"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A57:A62 A19 A13:A15 A6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A58:A63 A20 A14:A16 A7">
       <formula1>"New,Existing"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="H25" r:id="rId1"/>
-    <hyperlink ref="H26" r:id="rId2"/>
-    <hyperlink ref="H27" r:id="rId3"/>
-    <hyperlink ref="H28" r:id="rId4"/>
-    <hyperlink ref="H29" r:id="rId5"/>
-    <hyperlink ref="H30" r:id="rId6"/>
-    <hyperlink ref="H31" r:id="rId7"/>
-    <hyperlink ref="H32" r:id="rId8"/>
-    <hyperlink ref="H24" r:id="rId9"/>
-    <hyperlink ref="I25" r:id="rId10"/>
-    <hyperlink ref="I27" r:id="rId11"/>
-    <hyperlink ref="I28" r:id="rId12"/>
-    <hyperlink ref="I29" r:id="rId13"/>
-    <hyperlink ref="I30" r:id="rId14"/>
-    <hyperlink ref="I31" r:id="rId15"/>
-    <hyperlink ref="I32" r:id="rId16"/>
-    <hyperlink ref="I24" r:id="rId17"/>
-    <hyperlink ref="I26" r:id="rId18"/>
-    <hyperlink ref="I51" r:id="rId19"/>
-    <hyperlink ref="J51" r:id="rId20"/>
-    <hyperlink ref="I52" r:id="rId21"/>
-    <hyperlink ref="J52" r:id="rId22"/>
-    <hyperlink ref="I57" r:id="rId23"/>
-    <hyperlink ref="I58" r:id="rId24"/>
-    <hyperlink ref="I59" r:id="rId25"/>
-    <hyperlink ref="I60" r:id="rId26"/>
-    <hyperlink ref="I61" r:id="rId27"/>
-    <hyperlink ref="I62" r:id="rId28"/>
-    <hyperlink ref="J57" r:id="rId29"/>
-    <hyperlink ref="J58" r:id="rId30"/>
-    <hyperlink ref="J59" r:id="rId31"/>
-    <hyperlink ref="J60" r:id="rId32"/>
-    <hyperlink ref="J61" r:id="rId33"/>
-    <hyperlink ref="J62" r:id="rId34"/>
-    <hyperlink ref="I21" r:id="rId35"/>
-    <hyperlink ref="J21" r:id="rId36"/>
-    <hyperlink ref="I10" r:id="rId37"/>
-    <hyperlink ref="I11" r:id="rId38"/>
-    <hyperlink ref="J10" r:id="rId39"/>
-    <hyperlink ref="J11" r:id="rId40"/>
-    <hyperlink ref="I13" r:id="rId41"/>
-    <hyperlink ref="I14" r:id="rId42"/>
-    <hyperlink ref="J13" r:id="rId43"/>
-    <hyperlink ref="J15" r:id="rId44"/>
-    <hyperlink ref="I15" r:id="rId45"/>
+    <hyperlink ref="H26" r:id="rId1"/>
+    <hyperlink ref="H27" r:id="rId2"/>
+    <hyperlink ref="H28" r:id="rId3"/>
+    <hyperlink ref="H29" r:id="rId4"/>
+    <hyperlink ref="H30" r:id="rId5"/>
+    <hyperlink ref="H31" r:id="rId6"/>
+    <hyperlink ref="H32" r:id="rId7"/>
+    <hyperlink ref="H33" r:id="rId8"/>
+    <hyperlink ref="H25" r:id="rId9"/>
+    <hyperlink ref="I26" r:id="rId10"/>
+    <hyperlink ref="I28" r:id="rId11"/>
+    <hyperlink ref="I29" r:id="rId12"/>
+    <hyperlink ref="I30" r:id="rId13"/>
+    <hyperlink ref="I31" r:id="rId14"/>
+    <hyperlink ref="I32" r:id="rId15"/>
+    <hyperlink ref="I33" r:id="rId16"/>
+    <hyperlink ref="I25" r:id="rId17"/>
+    <hyperlink ref="I27" r:id="rId18"/>
+    <hyperlink ref="I52" r:id="rId19"/>
+    <hyperlink ref="J52" r:id="rId20"/>
+    <hyperlink ref="I53" r:id="rId21"/>
+    <hyperlink ref="J53" r:id="rId22"/>
+    <hyperlink ref="I58" r:id="rId23"/>
+    <hyperlink ref="I59" r:id="rId24"/>
+    <hyperlink ref="I60" r:id="rId25"/>
+    <hyperlink ref="I61" r:id="rId26"/>
+    <hyperlink ref="I62" r:id="rId27"/>
+    <hyperlink ref="I63" r:id="rId28"/>
+    <hyperlink ref="J58" r:id="rId29"/>
+    <hyperlink ref="J59" r:id="rId30"/>
+    <hyperlink ref="J60" r:id="rId31"/>
+    <hyperlink ref="J61" r:id="rId32"/>
+    <hyperlink ref="J62" r:id="rId33"/>
+    <hyperlink ref="J63" r:id="rId34"/>
+    <hyperlink ref="I22" r:id="rId35"/>
+    <hyperlink ref="J22" r:id="rId36"/>
+    <hyperlink ref="I11" r:id="rId37"/>
+    <hyperlink ref="I12" r:id="rId38"/>
+    <hyperlink ref="J11" r:id="rId39"/>
+    <hyperlink ref="J12" r:id="rId40"/>
+    <hyperlink ref="I14" r:id="rId41"/>
+    <hyperlink ref="I15" r:id="rId42"/>
+    <hyperlink ref="J14" r:id="rId43"/>
+    <hyperlink ref="J16" r:id="rId44"/>
+    <hyperlink ref="I16" r:id="rId45"/>
     <hyperlink ref="I2" r:id="rId46"/>
     <hyperlink ref="J2" r:id="rId47"/>
+    <hyperlink ref="I3" r:id="rId48"/>
+    <hyperlink ref="J3" r:id="rId49"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId48"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId50"/>
 </worksheet>
 </file>
 

--- a/src/main/resources/InputData.xlsx
+++ b/src/main/resources/InputData.xlsx
@@ -3,6 +3,11 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rbhatia\Google Drive\Project\Automation\SMSAuto\src\main\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19365" windowHeight="4710"/>
   </bookViews>
@@ -18,7 +23,6 @@
     <sheet name="Sheet1" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <oleSize ref="A1:Q13"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -7755,10 +7759,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AY3"/>
+  <dimension ref="A1:AY2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AZ1" sqref="AZ1:AZ1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8073,7 +8077,6 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:51" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
@@ -9760,7 +9763,7 @@
       <c r="AX3" s="54"/>
       <c r="AY3" s="54"/>
     </row>
-    <row r="5" spans="1:51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1868</v>
       </c>
@@ -9900,7 +9903,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1867</v>
       </c>
@@ -10013,7 +10016,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1867</v>
       </c>
@@ -10153,7 +10156,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1867</v>
       </c>
@@ -10296,7 +10299,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1867</v>
       </c>
@@ -10442,7 +10445,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1914</v>
       </c>
@@ -10588,7 +10591,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1914</v>
       </c>
@@ -10736,7 +10739,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1868</v>
       </c>
@@ -10852,7 +10855,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>1868</v>
       </c>
@@ -10968,7 +10971,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="16" spans="1:51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>1867</v>
       </c>
@@ -11112,8 +11115,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:51" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:51" x14ac:dyDescent="0.25">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="10"/>
@@ -11161,7 +11163,7 @@
       <c r="AX20" s="2"/>
       <c r="AY20" s="2"/>
     </row>
-    <row r="22" spans="1:51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>1914</v>
       </c>
@@ -11301,7 +11303,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="1:51" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:51" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>1847</v>
       </c>
@@ -11444,7 +11446,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>1847</v>
       </c>
@@ -11590,7 +11592,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="27" spans="1:51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>1847</v>
       </c>
@@ -11734,7 +11736,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="1:51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>1847</v>
       </c>
@@ -11857,7 +11859,7 @@
       <c r="AW28" s="2"/>
       <c r="AX28" s="2"/>
     </row>
-    <row r="29" spans="1:51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>1847</v>
       </c>
@@ -12003,7 +12005,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="30" spans="1:51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>1847</v>
       </c>
@@ -12132,7 +12134,7 @@
       <c r="AW30" s="2"/>
       <c r="AX30" s="2"/>
     </row>
-    <row r="31" spans="1:51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>1847</v>
       </c>
@@ -12269,7 +12271,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="32" spans="1:51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>1847</v>
       </c>
@@ -12412,7 +12414,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>1847</v>
       </c>
@@ -12557,17 +12559,17 @@
         <v>64</v>
       </c>
     </row>
-    <row r="36" spans="1:51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:50" x14ac:dyDescent="0.25">
       <c r="Q36" s="8" t="s">
         <v>1875</v>
       </c>
     </row>
-    <row r="37" spans="1:51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:50" x14ac:dyDescent="0.25">
       <c r="Q37" t="s">
         <v>1869</v>
       </c>
     </row>
-    <row r="38" spans="1:51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:50" x14ac:dyDescent="0.25">
       <c r="Q38" t="s">
         <v>1873</v>
       </c>
@@ -12575,7 +12577,7 @@
         <v>1874</v>
       </c>
     </row>
-    <row r="39" spans="1:51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:50" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>1769</v>
       </c>
@@ -12586,12 +12588,12 @@
         <v>1870</v>
       </c>
     </row>
-    <row r="40" spans="1:51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:50" x14ac:dyDescent="0.25">
       <c r="Q40" t="s">
         <v>1871</v>
       </c>
     </row>
-    <row r="41" spans="1:51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:50" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>1776</v>
       </c>
@@ -12602,12 +12604,12 @@
         <v>1872</v>
       </c>
     </row>
-    <row r="49" spans="1:51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:51" x14ac:dyDescent="0.25">
       <c r="E49" t="s">
         <v>1841</v>
       </c>
     </row>
-    <row r="52" spans="1:51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>1862</v>
       </c>
@@ -12753,7 +12755,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="53" spans="1:51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>1863</v>
       </c>
@@ -12899,12 +12901,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="57" spans="1:51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>1910</v>
       </c>
     </row>
-    <row r="58" spans="1:51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>1867</v>
       </c>
@@ -13048,7 +13050,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="59" spans="1:51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>1867</v>
       </c>
@@ -13174,7 +13176,7 @@
       <c r="AX59" s="2"/>
       <c r="AY59" s="2"/>
     </row>
-    <row r="60" spans="1:51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>1867</v>
       </c>
@@ -13300,7 +13302,7 @@
       <c r="AX60" s="2"/>
       <c r="AY60" s="2"/>
     </row>
-    <row r="61" spans="1:51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>1867</v>
       </c>
@@ -13444,7 +13446,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="62" spans="1:51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>1867</v>
       </c>
@@ -13570,7 +13572,7 @@
       <c r="AX62" s="2"/>
       <c r="AY62" s="2"/>
     </row>
-    <row r="63" spans="1:51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>1867</v>
       </c>
